--- a/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.002671664511174</v>
+      </c>
+      <c r="D3">
+        <v>1.002226600131792</v>
+      </c>
+      <c r="E3">
+        <v>0.9933169647645588</v>
+      </c>
+      <c r="F3">
+        <v>0.9933169647645588</v>
+      </c>
+      <c r="G3">
+        <v>0.9993482534880845</v>
+      </c>
+      <c r="H3">
+        <v>0.9960256650070932</v>
+      </c>
+      <c r="I3">
+        <v>1.001246583400158</v>
+      </c>
+      <c r="J3">
+        <v>0.9988746605865905</v>
+      </c>
+      <c r="K3">
+        <v>1.002320038227315</v>
+      </c>
+      <c r="L3">
         <v>1.00267166448829</v>
       </c>
-      <c r="D3">
-        <v>0.9933169647645588</v>
-      </c>
-      <c r="E3">
-        <v>1.002226600131792</v>
-      </c>
-      <c r="F3">
+      <c r="M3">
         <v>1.00267166448829</v>
-      </c>
-      <c r="G3">
-        <v>0.9988746605865905</v>
-      </c>
-      <c r="H3">
-        <v>1.002320038227315</v>
-      </c>
-      <c r="I3">
-        <v>1.002671664511174</v>
-      </c>
-      <c r="J3">
-        <v>0.9933169647645588</v>
-      </c>
-      <c r="K3">
-        <v>0.9993482534880845</v>
-      </c>
-      <c r="L3">
-        <v>1.001246583400158</v>
-      </c>
-      <c r="M3">
-        <v>0.9960256650070932</v>
       </c>
       <c r="N3">
         <v>1.00267166448829</v>
@@ -824,7 +716,7 @@
         <v>0.9995038037617351</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.005276694789274</v>
+      </c>
+      <c r="D4">
+        <v>1.004213841176238</v>
+      </c>
+      <c r="E4">
+        <v>0.9871959266931852</v>
+      </c>
+      <c r="F4">
+        <v>0.9871959266931852</v>
+      </c>
+      <c r="G4">
+        <v>0.9986899685888267</v>
+      </c>
+      <c r="H4">
+        <v>0.9923534124558286</v>
+      </c>
+      <c r="I4">
+        <v>1.002427532241045</v>
+      </c>
+      <c r="J4">
+        <v>0.9978180325451801</v>
+      </c>
+      <c r="K4">
+        <v>1.004458110680987</v>
+      </c>
+      <c r="L4">
         <v>1.005276694756781</v>
       </c>
-      <c r="D4">
-        <v>0.9871959266931852</v>
-      </c>
-      <c r="E4">
-        <v>1.004213841176238</v>
-      </c>
-      <c r="F4">
+      <c r="M4">
         <v>1.005276694756781</v>
-      </c>
-      <c r="G4">
-        <v>0.9978180325451801</v>
-      </c>
-      <c r="H4">
-        <v>1.004458110680987</v>
-      </c>
-      <c r="I4">
-        <v>1.005276694789274</v>
-      </c>
-      <c r="J4">
-        <v>0.9871959266931852</v>
-      </c>
-      <c r="K4">
-        <v>0.9986899685888271</v>
-      </c>
-      <c r="L4">
-        <v>1.002427532241045</v>
-      </c>
-      <c r="M4">
-        <v>0.9923534124558286</v>
       </c>
       <c r="N4">
         <v>1.005276694756781</v>
@@ -892,10 +784,10 @@
         <v>0.9999562379856333</v>
       </c>
       <c r="W4">
-        <v>0.9990541898922591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9990541898922589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -906,34 +798,34 @@
         <v>1.01004281721985</v>
       </c>
       <c r="D5">
+        <v>1.008090959389066</v>
+      </c>
+      <c r="E5">
         <v>0.9753725090915787</v>
       </c>
-      <c r="E5">
-        <v>1.008090959389066</v>
-      </c>
       <c r="F5">
+        <v>0.9753725090915787</v>
+      </c>
+      <c r="G5">
+        <v>0.9975236739454477</v>
+      </c>
+      <c r="H5">
+        <v>0.9853343008166783</v>
+      </c>
+      <c r="I5">
+        <v>1.004659457496058</v>
+      </c>
+      <c r="J5">
+        <v>0.9958481074931417</v>
+      </c>
+      <c r="K5">
+        <v>1.008538436822263</v>
+      </c>
+      <c r="L5">
         <v>1.01004281721985</v>
       </c>
-      <c r="G5">
-        <v>0.9958481074931417</v>
-      </c>
-      <c r="H5">
-        <v>1.008538436822263</v>
-      </c>
-      <c r="I5">
+      <c r="M5">
         <v>1.01004281721985</v>
-      </c>
-      <c r="J5">
-        <v>0.9753725090915787</v>
-      </c>
-      <c r="K5">
-        <v>0.9975236739454477</v>
-      </c>
-      <c r="L5">
-        <v>1.004659457496058</v>
-      </c>
-      <c r="M5">
-        <v>0.9853343008166785</v>
       </c>
       <c r="N5">
         <v>1.01004281721985</v>
@@ -966,7 +858,7 @@
         <v>0.9981762827842604</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -977,52 +869,52 @@
         <v>1.01477481472087</v>
       </c>
       <c r="D6">
+        <v>1.011849321932448</v>
+      </c>
+      <c r="E6">
         <v>0.9638568943251323</v>
       </c>
-      <c r="E6">
-        <v>1.011849321932447</v>
-      </c>
       <c r="F6">
+        <v>0.9638568943251323</v>
+      </c>
+      <c r="G6">
+        <v>0.9963859707685212</v>
+      </c>
+      <c r="H6">
+        <v>0.9784935240810593</v>
+      </c>
+      <c r="I6">
+        <v>1.006824511218225</v>
+      </c>
+      <c r="J6">
+        <v>0.9939080808302241</v>
+      </c>
+      <c r="K6">
+        <v>1.012504904208836</v>
+      </c>
+      <c r="L6">
         <v>1.01477481472087</v>
       </c>
-      <c r="G6">
-        <v>0.9939080808302241</v>
-      </c>
-      <c r="H6">
-        <v>1.012504904208836</v>
-      </c>
-      <c r="I6">
+      <c r="M6">
         <v>1.01477481472087</v>
-      </c>
-      <c r="J6">
-        <v>0.9638568943251323</v>
-      </c>
-      <c r="K6">
-        <v>0.9963859707685212</v>
-      </c>
-      <c r="L6">
-        <v>1.006824511218225</v>
-      </c>
-      <c r="M6">
-        <v>0.9784935240810593</v>
       </c>
       <c r="N6">
         <v>1.01477481472087</v>
       </c>
       <c r="O6">
-        <v>1.011849321932447</v>
+        <v>1.011849321932448</v>
       </c>
       <c r="P6">
-        <v>0.9878531081287898</v>
+        <v>0.98785310812879</v>
       </c>
       <c r="Q6">
         <v>1.002878701381336</v>
       </c>
       <c r="R6">
-        <v>0.9968270103261498</v>
+        <v>0.99682701032615</v>
       </c>
       <c r="S6">
-        <v>0.9898714323626012</v>
+        <v>0.9898714323626013</v>
       </c>
       <c r="T6">
         <v>0.99682701032615</v>
@@ -1034,10 +926,10 @@
         <v>0.9998327853059088</v>
       </c>
       <c r="W6">
-        <v>0.9973247527606645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9973247527606646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000481915295016</v>
+      </c>
+      <c r="D7">
+        <v>0.9999970677195539</v>
+      </c>
+      <c r="E7">
+        <v>0.9995216955621606</v>
+      </c>
+      <c r="F7">
+        <v>0.9995216955621606</v>
+      </c>
+      <c r="G7">
+        <v>0.9998460809925818</v>
+      </c>
+      <c r="H7">
+        <v>0.9996853063747616</v>
+      </c>
+      <c r="I7">
+        <v>1.000181704884647</v>
+      </c>
+      <c r="J7">
+        <v>0.9999089423381858</v>
+      </c>
+      <c r="K7">
+        <v>1.000151231260311</v>
+      </c>
+      <c r="L7">
         <v>1.000481915271186</v>
       </c>
-      <c r="D7">
-        <v>0.9995216955621613</v>
-      </c>
-      <c r="E7">
-        <v>0.9999970677195539</v>
-      </c>
-      <c r="F7">
+      <c r="M7">
         <v>1.000481915271186</v>
-      </c>
-      <c r="G7">
-        <v>0.9999089423381856</v>
-      </c>
-      <c r="H7">
-        <v>1.00015123126031</v>
-      </c>
-      <c r="I7">
-        <v>1.000481915295016</v>
-      </c>
-      <c r="J7">
-        <v>0.9995216955621613</v>
-      </c>
-      <c r="K7">
-        <v>0.9998460809925815</v>
-      </c>
-      <c r="L7">
-        <v>1.000181704884647</v>
-      </c>
-      <c r="M7">
-        <v>0.9996853063747616</v>
       </c>
       <c r="N7">
         <v>1.000481915271186</v>
@@ -1084,31 +976,31 @@
         <v>0.9999970677195539</v>
       </c>
       <c r="P7">
-        <v>0.9997593816408576</v>
+        <v>0.9997593816408572</v>
       </c>
       <c r="Q7">
-        <v>0.9999530050288697</v>
+        <v>0.9999530050288699</v>
       </c>
       <c r="R7">
         <v>1.0000002261843</v>
       </c>
       <c r="S7">
-        <v>0.9998092352066337</v>
+        <v>0.9998092352066333</v>
       </c>
       <c r="T7">
         <v>1.0000002261843</v>
       </c>
       <c r="U7">
-        <v>0.9999774052227718</v>
+        <v>0.9999774052227716</v>
       </c>
       <c r="V7">
-        <v>1.000078307232455</v>
+        <v>1.000078307232454</v>
       </c>
       <c r="W7">
-        <v>0.9999717430504234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999717430504235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,46 +1008,46 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.001453908585521</v>
+      </c>
+      <c r="D8">
+        <v>0.9999922596847984</v>
+      </c>
+      <c r="E8">
+        <v>0.9985909529796235</v>
+      </c>
+      <c r="F8">
+        <v>0.9985909529796235</v>
+      </c>
+      <c r="G8">
+        <v>0.9995337282971535</v>
+      </c>
+      <c r="H8">
+        <v>0.9990615045547719</v>
+      </c>
+      <c r="I8">
+        <v>1.000538859879839</v>
+      </c>
+      <c r="J8">
+        <v>0.9997193196738829</v>
+      </c>
+      <c r="K8">
+        <v>1.000454555989037</v>
+      </c>
+      <c r="L8">
         <v>1.001453908561757</v>
       </c>
-      <c r="D8">
-        <v>0.9985909529796232</v>
-      </c>
-      <c r="E8">
-        <v>0.9999922596847987</v>
-      </c>
-      <c r="F8">
+      <c r="M8">
         <v>1.001453908561757</v>
-      </c>
-      <c r="G8">
-        <v>0.9997193196738829</v>
-      </c>
-      <c r="H8">
-        <v>1.000454555989036</v>
-      </c>
-      <c r="I8">
-        <v>1.00145390858552</v>
-      </c>
-      <c r="J8">
-        <v>0.9985909529796232</v>
-      </c>
-      <c r="K8">
-        <v>0.9995337282971535</v>
-      </c>
-      <c r="L8">
-        <v>1.000538859879839</v>
-      </c>
-      <c r="M8">
-        <v>0.9990615045547717</v>
       </c>
       <c r="N8">
         <v>1.001453908561757</v>
       </c>
       <c r="O8">
-        <v>0.9999922596847987</v>
+        <v>0.9999922596847984</v>
       </c>
       <c r="P8">
-        <v>0.9992916063322109</v>
+        <v>0.999291606332211</v>
       </c>
       <c r="Q8">
         <v>0.9998557896793407</v>
@@ -1176,10 +1068,10 @@
         <v>1.000242069892364</v>
       </c>
       <c r="W8">
-        <v>0.9999181362026078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999181362026079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,49 +1079,49 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.00238572107837</v>
+      </c>
+      <c r="D9">
+        <v>0.999961194679349</v>
+      </c>
+      <c r="E9">
+        <v>0.9978259087387067</v>
+      </c>
+      <c r="F9">
+        <v>0.9978259087387067</v>
+      </c>
+      <c r="G9">
+        <v>0.9992319357608671</v>
+      </c>
+      <c r="H9">
+        <v>0.9985189080545973</v>
+      </c>
+      <c r="I9">
+        <v>1.000853880104174</v>
+      </c>
+      <c r="J9">
+        <v>0.999532317683231</v>
+      </c>
+      <c r="K9">
+        <v>1.000719604077231</v>
+      </c>
+      <c r="L9">
         <v>1.002385721057856</v>
       </c>
-      <c r="D9">
-        <v>0.9978259087387069</v>
-      </c>
-      <c r="E9">
-        <v>0.9999611946793487</v>
-      </c>
-      <c r="F9">
+      <c r="M9">
         <v>1.002385721057856</v>
-      </c>
-      <c r="G9">
-        <v>0.9995323176832311</v>
-      </c>
-      <c r="H9">
-        <v>1.000719604077231</v>
-      </c>
-      <c r="I9">
-        <v>1.00238572107837</v>
-      </c>
-      <c r="J9">
-        <v>0.9978259087387069</v>
-      </c>
-      <c r="K9">
-        <v>0.9992319357608671</v>
-      </c>
-      <c r="L9">
-        <v>1.000853880104174</v>
-      </c>
-      <c r="M9">
-        <v>0.9985189080545973</v>
       </c>
       <c r="N9">
         <v>1.002385721057856</v>
       </c>
       <c r="O9">
-        <v>0.9999611946793487</v>
+        <v>0.999961194679349</v>
       </c>
       <c r="P9">
         <v>0.9988935517090278</v>
       </c>
       <c r="Q9">
-        <v>0.9997467561812899</v>
+        <v>0.9997467561812901</v>
       </c>
       <c r="R9">
         <v>1.000057608158637</v>
@@ -1241,16 +1133,16 @@
         <v>1.000057608158637</v>
       </c>
       <c r="U9">
-        <v>0.9999262855397859</v>
+        <v>0.9999262855397858</v>
       </c>
       <c r="V9">
         <v>1.0004181726434</v>
       </c>
       <c r="W9">
-        <v>0.9998786837695016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9998786837695015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,46 +1150,46 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.004766633940443</v>
+      </c>
+      <c r="D10">
+        <v>0.9999811540726296</v>
+      </c>
+      <c r="E10">
+        <v>0.9954548708381928</v>
+      </c>
+      <c r="F10">
+        <v>0.9954548708381928</v>
+      </c>
+      <c r="G10">
+        <v>0.998473914404315</v>
+      </c>
+      <c r="H10">
+        <v>0.9969492412956806</v>
+      </c>
+      <c r="I10">
+        <v>1.001739221120548</v>
+      </c>
+      <c r="J10">
+        <v>0.9990644243818962</v>
+      </c>
+      <c r="K10">
+        <v>1.001484362164264</v>
+      </c>
+      <c r="L10">
         <v>1.004766633911955</v>
       </c>
-      <c r="D10">
-        <v>0.9954548708381928</v>
-      </c>
-      <c r="E10">
-        <v>0.9999811540726294</v>
-      </c>
-      <c r="F10">
+      <c r="M10">
         <v>1.004766633911955</v>
-      </c>
-      <c r="G10">
-        <v>0.9990644243818962</v>
-      </c>
-      <c r="H10">
-        <v>1.001484362164264</v>
-      </c>
-      <c r="I10">
-        <v>1.004766633940443</v>
-      </c>
-      <c r="J10">
-        <v>0.9954548708381928</v>
-      </c>
-      <c r="K10">
-        <v>0.998473914404315</v>
-      </c>
-      <c r="L10">
-        <v>1.001739221120548</v>
-      </c>
-      <c r="M10">
-        <v>0.9969492412956806</v>
       </c>
       <c r="N10">
         <v>1.004766633911955</v>
       </c>
       <c r="O10">
-        <v>0.9999811540726294</v>
+        <v>0.9999811540726296</v>
       </c>
       <c r="P10">
-        <v>0.9977180124554111</v>
+        <v>0.9977180124554113</v>
       </c>
       <c r="Q10">
         <v>0.9995227892272629</v>
@@ -1306,13 +1198,13 @@
         <v>1.000067552940926</v>
       </c>
       <c r="S10">
-        <v>0.9981668164309062</v>
+        <v>0.9981668164309063</v>
       </c>
       <c r="T10">
         <v>1.000067552940926</v>
       </c>
       <c r="U10">
-        <v>0.9998167708011683</v>
+        <v>0.9998167708011685</v>
       </c>
       <c r="V10">
         <v>1.000806743423326</v>
@@ -1321,7 +1213,7 @@
         <v>0.9997392277736852</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,55 +1221,55 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.008899989736096</v>
+      </c>
+      <c r="D11">
+        <v>0.9997537028176351</v>
+      </c>
+      <c r="E11">
+        <v>0.992046759409695</v>
+      </c>
+      <c r="F11">
+        <v>0.992046759409695</v>
+      </c>
+      <c r="G11">
+        <v>0.9971281722982016</v>
+      </c>
+      <c r="H11">
+        <v>0.9945679069843669</v>
+      </c>
+      <c r="I11">
+        <v>1.003180296161807</v>
+      </c>
+      <c r="J11">
+        <v>0.9982873629632139</v>
+      </c>
+      <c r="K11">
+        <v>1.002618363477602</v>
+      </c>
+      <c r="L11">
         <v>1.008899989715931</v>
       </c>
-      <c r="D11">
-        <v>0.992046759409695</v>
-      </c>
-      <c r="E11">
-        <v>0.9997537028176349</v>
-      </c>
-      <c r="F11">
+      <c r="M11">
         <v>1.008899989715931</v>
-      </c>
-      <c r="G11">
-        <v>0.9982873629632139</v>
-      </c>
-      <c r="H11">
-        <v>1.002618363477602</v>
-      </c>
-      <c r="I11">
-        <v>1.008899989736096</v>
-      </c>
-      <c r="J11">
-        <v>0.992046759409695</v>
-      </c>
-      <c r="K11">
-        <v>0.9971281722982016</v>
-      </c>
-      <c r="L11">
-        <v>1.003180296161807</v>
-      </c>
-      <c r="M11">
-        <v>0.9945679069843669</v>
       </c>
       <c r="N11">
         <v>1.008899989715931</v>
       </c>
       <c r="O11">
-        <v>0.9997537028176349</v>
+        <v>0.9997537028176351</v>
       </c>
       <c r="P11">
-        <v>0.9959002311136649</v>
+        <v>0.9959002311136651</v>
       </c>
       <c r="Q11">
-        <v>0.9990205328904244</v>
+        <v>0.9990205328904245</v>
       </c>
       <c r="R11">
         <v>1.000233483981087</v>
       </c>
       <c r="S11">
-        <v>0.9966959417301812</v>
+        <v>0.9966959417301814</v>
       </c>
       <c r="T11">
         <v>1.000233483981087</v>
@@ -1392,7 +1284,7 @@
         <v>0.9995603192285565</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,40 +1292,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9327505013771253</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="D12">
+        <v>0.9762330158735684</v>
+      </c>
+      <c r="E12">
         <v>1.077875566654152</v>
       </c>
-      <c r="E12">
-        <v>0.9762330158735684</v>
-      </c>
       <c r="F12">
-        <v>0.9327505013771253</v>
+        <v>1.077875566654152</v>
       </c>
       <c r="G12">
+        <v>1.021710955533463</v>
+      </c>
+      <c r="H12">
+        <v>1.057481408489811</v>
+      </c>
+      <c r="I12">
+        <v>0.9800838050218617</v>
+      </c>
+      <c r="J12">
         <v>1.024482490115383</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>0.9647171518032476</v>
       </c>
-      <c r="I12">
-        <v>0.9327505013771253</v>
-      </c>
-      <c r="J12">
-        <v>1.077875566654152</v>
-      </c>
-      <c r="K12">
-        <v>1.021710955533463</v>
-      </c>
       <c r="L12">
-        <v>0.9800838050218617</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="M12">
-        <v>1.057481408489811</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="N12">
-        <v>0.9327505013771253</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="O12">
         <v>0.9762330158735684</v>
@@ -1463,7 +1355,7 @@
         <v>1.004416861858576</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1474,34 +1366,34 @@
         <v>0.9900921358852428</v>
       </c>
       <c r="D13">
+        <v>0.9988463161350868</v>
+      </c>
+      <c r="E13">
         <v>1.036007240714741</v>
       </c>
-      <c r="E13">
-        <v>0.9988463161350868</v>
-      </c>
       <c r="F13">
+        <v>1.036007240714741</v>
+      </c>
+      <c r="G13">
+        <v>1.001451786031242</v>
+      </c>
+      <c r="H13">
+        <v>1.015546729611481</v>
+      </c>
+      <c r="I13">
+        <v>0.9900373190562111</v>
+      </c>
+      <c r="J13">
+        <v>0.9984324973959537</v>
+      </c>
+      <c r="K13">
+        <v>0.9946421571604955</v>
+      </c>
+      <c r="L13">
         <v>0.9900921358852428</v>
       </c>
-      <c r="G13">
-        <v>0.9984324973959536</v>
-      </c>
-      <c r="H13">
-        <v>0.9946421571604955</v>
-      </c>
-      <c r="I13">
+      <c r="M13">
         <v>0.9900921358852428</v>
-      </c>
-      <c r="J13">
-        <v>1.036007240714741</v>
-      </c>
-      <c r="K13">
-        <v>1.001451786031242</v>
-      </c>
-      <c r="L13">
-        <v>0.9900373190562111</v>
-      </c>
-      <c r="M13">
-        <v>1.015546729611481</v>
       </c>
       <c r="N13">
         <v>0.9900921358852428</v>
@@ -1534,7 +1426,7 @@
         <v>1.003132022748807</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1545,34 +1437,34 @@
         <v>1.040069747390838</v>
       </c>
       <c r="D14">
+        <v>1.209199652247677</v>
+      </c>
+      <c r="E14">
         <v>0.6516761450233303</v>
       </c>
-      <c r="E14">
-        <v>1.209199652247677</v>
-      </c>
       <c r="F14">
+        <v>0.6516761450233303</v>
+      </c>
+      <c r="G14">
+        <v>0.9987850161461427</v>
+      </c>
+      <c r="H14">
+        <v>0.7863873948201391</v>
+      </c>
+      <c r="I14">
+        <v>1.022359811491003</v>
+      </c>
+      <c r="J14">
+        <v>0.9237961077339254</v>
+      </c>
+      <c r="K14">
+        <v>1.148583995142008</v>
+      </c>
+      <c r="L14">
         <v>1.040069747390838</v>
       </c>
-      <c r="G14">
-        <v>0.9237961077339254</v>
-      </c>
-      <c r="H14">
-        <v>1.148583995142008</v>
-      </c>
-      <c r="I14">
+      <c r="M14">
         <v>1.040069747390838</v>
-      </c>
-      <c r="J14">
-        <v>0.6516761450233303</v>
-      </c>
-      <c r="K14">
-        <v>0.9987850161461427</v>
-      </c>
-      <c r="L14">
-        <v>1.022359811491003</v>
-      </c>
-      <c r="M14">
-        <v>0.7863873948201391</v>
       </c>
       <c r="N14">
         <v>1.040069747390838</v>
@@ -1605,7 +1497,7 @@
         <v>0.972607233749383</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1616,34 +1508,34 @@
         <v>1.106336191552012</v>
       </c>
       <c r="D15">
+        <v>0.9557661289157814</v>
+      </c>
+      <c r="E15">
         <v>0.9475836584497177</v>
       </c>
-      <c r="E15">
-        <v>0.9557661289157814</v>
-      </c>
       <c r="F15">
+        <v>0.9475836584497177</v>
+      </c>
+      <c r="G15">
+        <v>0.9646994135719857</v>
+      </c>
+      <c r="H15">
+        <v>0.9661180440581996</v>
+      </c>
+      <c r="I15">
+        <v>1.04113737355374</v>
+      </c>
+      <c r="J15">
+        <v>0.9959359028426287</v>
+      </c>
+      <c r="K15">
+        <v>1.005518914289981</v>
+      </c>
+      <c r="L15">
         <v>1.106336191552012</v>
       </c>
-      <c r="G15">
-        <v>0.9959359028426289</v>
-      </c>
-      <c r="H15">
-        <v>1.005518914289981</v>
-      </c>
-      <c r="I15">
+      <c r="M15">
         <v>1.106336191552012</v>
-      </c>
-      <c r="J15">
-        <v>0.9475836584497177</v>
-      </c>
-      <c r="K15">
-        <v>0.9646994135719857</v>
-      </c>
-      <c r="L15">
-        <v>1.04113737355374</v>
-      </c>
-      <c r="M15">
-        <v>0.9661180440581996</v>
       </c>
       <c r="N15">
         <v>1.106336191552012</v>
@@ -1676,7 +1568,7 @@
         <v>0.9978869534042556</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9995539263881777</v>
+        <v>1.054387896933233</v>
       </c>
       <c r="D16">
-        <v>0.9997535302191403</v>
+        <v>1.042011028186905</v>
       </c>
       <c r="E16">
-        <v>1.000459974676071</v>
+        <v>0.8715957600538962</v>
       </c>
       <c r="F16">
-        <v>0.9995539263881777</v>
+        <v>0.8715957600538962</v>
       </c>
       <c r="G16">
-        <v>0.9999368944194996</v>
+        <v>0.9862569692524942</v>
       </c>
       <c r="H16">
-        <v>1.000160177835483</v>
+        <v>0.9229064031691432</v>
       </c>
       <c r="I16">
-        <v>0.9995539264116411</v>
+        <v>1.02464763377713</v>
       </c>
       <c r="J16">
-        <v>0.9997535302191403</v>
+        <v>0.9777438440962896</v>
       </c>
       <c r="K16">
-        <v>1.000165272314364</v>
+        <v>1.04497904807802</v>
       </c>
       <c r="L16">
-        <v>0.9998544242145665</v>
+        <v>1.054387896929396</v>
       </c>
       <c r="M16">
-        <v>0.9998749812763579</v>
+        <v>1.054387896929396</v>
       </c>
       <c r="N16">
-        <v>0.9995539263881777</v>
+        <v>1.054387896929396</v>
       </c>
       <c r="O16">
-        <v>1.000459974676071</v>
+        <v>1.042011028186905</v>
       </c>
       <c r="P16">
-        <v>1.000106752447606</v>
+        <v>0.9568033941204005</v>
       </c>
       <c r="Q16">
-        <v>1.000198434547785</v>
+        <v>1.009877436141597</v>
       </c>
       <c r="R16">
-        <v>0.9999224770944631</v>
+        <v>0.989331561723399</v>
       </c>
       <c r="S16">
-        <v>1.000050133104904</v>
+        <v>0.9637835441123634</v>
       </c>
       <c r="T16">
-        <v>0.9999224770944629</v>
+        <v>0.989331561723399</v>
       </c>
       <c r="U16">
-        <v>0.9999260814257221</v>
+        <v>0.9864346323166217</v>
       </c>
       <c r="V16">
-        <v>0.9998516504182133</v>
+        <v>1.000025285239177</v>
       </c>
       <c r="W16">
-        <v>0.9999698976679576</v>
+        <v>0.9905660729429094</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001190818951468</v>
+        <v>1.050555182400746</v>
       </c>
       <c r="D17">
-        <v>0.9999031329269226</v>
+        <v>1.029149751462006</v>
       </c>
       <c r="E17">
-        <v>0.9992629722108833</v>
+        <v>0.8982725132339279</v>
       </c>
       <c r="F17">
-        <v>1.001190818951468</v>
+        <v>0.8982725132339279</v>
       </c>
       <c r="G17">
-        <v>1.000012579430458</v>
+        <v>0.9863453809683649</v>
       </c>
       <c r="H17">
-        <v>0.9998978580338117</v>
+        <v>0.938126043677041</v>
       </c>
       <c r="I17">
-        <v>1.001190818976242</v>
+        <v>1.021898588010934</v>
       </c>
       <c r="J17">
-        <v>0.9999031329269226</v>
+        <v>0.9820778834291868</v>
       </c>
       <c r="K17">
-        <v>0.9995806917951455</v>
+        <v>1.035279973851451</v>
       </c>
       <c r="L17">
-        <v>1.000419568695273</v>
+        <v>1.050555182393083</v>
       </c>
       <c r="M17">
-        <v>0.9998799172280165</v>
+        <v>1.050555182393083</v>
       </c>
       <c r="N17">
-        <v>1.001190818951468</v>
+        <v>1.050555182393083</v>
       </c>
       <c r="O17">
-        <v>0.9992629722108833</v>
+        <v>1.029149751462006</v>
       </c>
       <c r="P17">
-        <v>0.9995830525689029</v>
+        <v>0.9637111323479668</v>
       </c>
       <c r="Q17">
-        <v>0.9996377758206707</v>
+        <v>1.005613817445596</v>
       </c>
       <c r="R17">
-        <v>1.000118974696425</v>
+        <v>0.992659149029672</v>
       </c>
       <c r="S17">
-        <v>0.9997262281894214</v>
+        <v>0.9698333827083735</v>
       </c>
       <c r="T17">
-        <v>1.000118974696425</v>
+        <v>0.9926591490296719</v>
       </c>
       <c r="U17">
-        <v>1.000092375879933</v>
+        <v>0.9900138326295507</v>
       </c>
       <c r="V17">
-        <v>1.00031206449424</v>
+        <v>1.002122102582257</v>
       </c>
       <c r="W17">
-        <v>1.000018442408997</v>
+        <v>0.9927131646282492</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.999277125034813</v>
+        <v>1.043067873228613</v>
       </c>
       <c r="D18">
-        <v>0.9972085398464491</v>
+        <v>1.003509477633319</v>
       </c>
       <c r="E18">
-        <v>1.002221450650571</v>
+        <v>0.9514107704043208</v>
       </c>
       <c r="F18">
-        <v>0.999277125034813</v>
+        <v>0.9514107704043208</v>
       </c>
       <c r="G18">
-        <v>0.9994482749412861</v>
+        <v>0.9864696197883618</v>
       </c>
       <c r="H18">
-        <v>1.001228137797571</v>
+        <v>0.9684050433868739</v>
       </c>
       <c r="I18">
-        <v>0.9992771250380574</v>
+        <v>1.016444821763577</v>
       </c>
       <c r="J18">
-        <v>0.9972085398464491</v>
+        <v>0.9906717142358135</v>
       </c>
       <c r="K18">
-        <v>1.000368759505134</v>
+        <v>1.015983323928802</v>
       </c>
       <c r="L18">
-        <v>0.9998666525512149</v>
+        <v>1.043067873198007</v>
       </c>
       <c r="M18">
-        <v>0.9984076772647736</v>
+        <v>1.043067873198007</v>
       </c>
       <c r="N18">
-        <v>0.999277125034813</v>
+        <v>1.043067873198007</v>
       </c>
       <c r="O18">
-        <v>1.002221450650571</v>
+        <v>1.003509477633319</v>
       </c>
       <c r="P18">
-        <v>0.9997149952485098</v>
+        <v>0.9774601240188199</v>
       </c>
       <c r="Q18">
-        <v>1.000834862795928</v>
+        <v>0.9970905959345662</v>
       </c>
       <c r="R18">
-        <v>0.9995690385106109</v>
+        <v>0.9993293737452156</v>
       </c>
       <c r="S18">
-        <v>0.9996260884794351</v>
+        <v>0.9818639874244844</v>
       </c>
       <c r="T18">
-        <v>0.9995690385106109</v>
+        <v>0.9993293737452155</v>
       </c>
       <c r="U18">
-        <v>0.9995388476182796</v>
+        <v>0.9971649588678649</v>
       </c>
       <c r="V18">
-        <v>0.9994865031015863</v>
+        <v>1.006345541733893</v>
       </c>
       <c r="W18">
-        <v>0.9997533271989765</v>
+        <v>0.9969953305423842</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="D19">
+        <v>1.001099827940145</v>
+      </c>
+      <c r="E19">
+        <v>0.9472785816654185</v>
+      </c>
+      <c r="F19">
+        <v>0.9472785816654185</v>
+      </c>
+      <c r="G19">
+        <v>0.985025328391954</v>
+      </c>
+      <c r="H19">
+        <v>0.9664854295977515</v>
+      </c>
+      <c r="I19">
+        <v>1.018899400185619</v>
+      </c>
+      <c r="J19">
+        <v>0.9910328594487127</v>
+      </c>
+      <c r="K19">
+        <v>1.016098064989116</v>
+      </c>
+      <c r="L19">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="M19">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="N19">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="O19">
+        <v>1.001099827940145</v>
+      </c>
+      <c r="P19">
+        <v>0.9741892048027818</v>
+      </c>
+      <c r="Q19">
+        <v>0.996066343694429</v>
+      </c>
+      <c r="R19">
+        <v>0.9987146974851262</v>
+      </c>
+      <c r="S19">
+        <v>0.9798037563514255</v>
+      </c>
+      <c r="T19">
+        <v>0.9987146974851262</v>
+      </c>
+      <c r="U19">
+        <v>0.9967942379760228</v>
+      </c>
+      <c r="V19">
+        <v>1.006988526950781</v>
+      </c>
+      <c r="W19">
+        <v>0.9967106468835665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9995539264116406</v>
+      </c>
+      <c r="D20">
+        <v>1.000459974676071</v>
+      </c>
+      <c r="E20">
+        <v>0.99975353021914</v>
+      </c>
+      <c r="F20">
+        <v>0.99975353021914</v>
+      </c>
+      <c r="G20">
+        <v>1.000165272314364</v>
+      </c>
+      <c r="H20">
+        <v>0.9998749812763579</v>
+      </c>
+      <c r="I20">
+        <v>0.9998544242145665</v>
+      </c>
+      <c r="J20">
+        <v>0.9999368944194996</v>
+      </c>
+      <c r="K20">
+        <v>1.000160177835483</v>
+      </c>
+      <c r="L20">
+        <v>0.9995539263881773</v>
+      </c>
+      <c r="M20">
+        <v>0.9995539263881773</v>
+      </c>
+      <c r="N20">
+        <v>0.9995539263881773</v>
+      </c>
+      <c r="O20">
+        <v>1.000459974676071</v>
+      </c>
+      <c r="P20">
+        <v>1.000106752447605</v>
+      </c>
+      <c r="Q20">
+        <v>1.000198434547785</v>
+      </c>
+      <c r="R20">
+        <v>0.9999224770944627</v>
+      </c>
+      <c r="S20">
+        <v>1.000050133104903</v>
+      </c>
+      <c r="T20">
+        <v>0.9999224770944627</v>
+      </c>
+      <c r="U20">
+        <v>0.9999260814257219</v>
+      </c>
+      <c r="V20">
+        <v>0.9998516504182129</v>
+      </c>
+      <c r="W20">
+        <v>0.9999698976679574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.001190818976242</v>
+      </c>
+      <c r="D21">
+        <v>0.9992629722108834</v>
+      </c>
+      <c r="E21">
+        <v>0.9999031329269226</v>
+      </c>
+      <c r="F21">
+        <v>0.9999031329269226</v>
+      </c>
+      <c r="G21">
+        <v>0.9995806917951455</v>
+      </c>
+      <c r="H21">
+        <v>0.9998799172280165</v>
+      </c>
+      <c r="I21">
+        <v>1.000419568695273</v>
+      </c>
+      <c r="J21">
+        <v>1.000012579430458</v>
+      </c>
+      <c r="K21">
+        <v>0.9998978580338117</v>
+      </c>
+      <c r="L21">
+        <v>1.001190818951468</v>
+      </c>
+      <c r="M21">
+        <v>1.001190818951468</v>
+      </c>
+      <c r="N21">
+        <v>1.001190818951468</v>
+      </c>
+      <c r="O21">
+        <v>0.9992629722108834</v>
+      </c>
+      <c r="P21">
+        <v>0.999583052568903</v>
+      </c>
+      <c r="Q21">
+        <v>0.9996377758206707</v>
+      </c>
+      <c r="R21">
+        <v>1.000118974696425</v>
+      </c>
+      <c r="S21">
+        <v>0.9997262281894214</v>
+      </c>
+      <c r="T21">
+        <v>1.000118974696425</v>
+      </c>
+      <c r="U21">
+        <v>1.000092375879933</v>
+      </c>
+      <c r="V21">
+        <v>1.00031206449424</v>
+      </c>
+      <c r="W21">
+        <v>1.000018442408997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9992771250380578</v>
+      </c>
+      <c r="D22">
+        <v>1.002221450650571</v>
+      </c>
+      <c r="E22">
+        <v>0.997208539846449</v>
+      </c>
+      <c r="F22">
+        <v>0.997208539846449</v>
+      </c>
+      <c r="G22">
+        <v>1.000368759505134</v>
+      </c>
+      <c r="H22">
+        <v>0.9984076772647736</v>
+      </c>
+      <c r="I22">
+        <v>0.9998666525512149</v>
+      </c>
+      <c r="J22">
+        <v>0.999448274941286</v>
+      </c>
+      <c r="K22">
+        <v>1.001228137797571</v>
+      </c>
+      <c r="L22">
+        <v>0.9992771250348131</v>
+      </c>
+      <c r="M22">
+        <v>0.9992771250348131</v>
+      </c>
+      <c r="N22">
+        <v>0.9992771250348131</v>
+      </c>
+      <c r="O22">
+        <v>1.002221450650571</v>
+      </c>
+      <c r="P22">
+        <v>0.9997149952485098</v>
+      </c>
+      <c r="Q22">
+        <v>1.000834862795928</v>
+      </c>
+      <c r="R22">
+        <v>0.9995690385106109</v>
+      </c>
+      <c r="S22">
+        <v>0.9996260884794351</v>
+      </c>
+      <c r="T22">
+        <v>0.9995690385106109</v>
+      </c>
+      <c r="U22">
+        <v>0.9995388476182796</v>
+      </c>
+      <c r="V22">
+        <v>0.9994865031015863</v>
+      </c>
+      <c r="W22">
+        <v>0.9997533271989765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9952372218503378</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.008207147055852</v>
+      </c>
+      <c r="E23">
         <v>0.9919190465299018</v>
       </c>
-      <c r="E19">
+      <c r="F23">
+        <v>0.9919190465299018</v>
+      </c>
+      <c r="G23">
+        <v>1.002020141764278</v>
+      </c>
+      <c r="H23">
+        <v>0.9955393074390742</v>
+      </c>
+      <c r="I23">
+        <v>0.9986837438535473</v>
+      </c>
+      <c r="J23">
+        <v>0.9983395977520013</v>
+      </c>
+      <c r="K23">
+        <v>1.003864682690461</v>
+      </c>
+      <c r="L23">
+        <v>0.9952372218503378</v>
+      </c>
+      <c r="M23">
+        <v>0.9952372218503378</v>
+      </c>
+      <c r="N23">
+        <v>0.9952372218503378</v>
+      </c>
+      <c r="O23">
         <v>1.008207147055852</v>
       </c>
-      <c r="F19">
-        <v>0.9952372218503378</v>
-      </c>
-      <c r="G19">
-        <v>0.9983395977520011</v>
-      </c>
-      <c r="H19">
-        <v>1.003864682690461</v>
-      </c>
-      <c r="I19">
-        <v>0.9952372218503378</v>
-      </c>
-      <c r="J19">
-        <v>0.9919190465299018</v>
-      </c>
-      <c r="K19">
-        <v>1.002020141764278</v>
-      </c>
-      <c r="L19">
-        <v>0.9986837438535473</v>
-      </c>
-      <c r="M19">
-        <v>0.9955393074390739</v>
-      </c>
-      <c r="N19">
-        <v>0.9952372218503378</v>
-      </c>
-      <c r="O19">
-        <v>1.008207147055852</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000063096792877</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.003273372403927</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9984544718120306</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9994885971125852</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9984544718120306</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9984257532970233</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9977880470076862</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9992263611169317</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 3]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002671664511174</v>
+        <v>1.051174181311241</v>
       </c>
       <c r="D3">
-        <v>1.002226600131792</v>
+        <v>1.003732596844379</v>
       </c>
       <c r="E3">
-        <v>0.9933169647645588</v>
+        <v>0.9425004739985599</v>
       </c>
       <c r="F3">
-        <v>0.9933169647645588</v>
+        <v>0.9425004739985599</v>
       </c>
       <c r="G3">
-        <v>0.9993482534880845</v>
+        <v>0.983912892233429</v>
       </c>
       <c r="H3">
-        <v>0.9960256650070932</v>
+        <v>0.9627081147262241</v>
       </c>
       <c r="I3">
-        <v>1.001246583400158</v>
+        <v>1.019639532391929</v>
       </c>
       <c r="J3">
-        <v>0.9988746605865905</v>
+        <v>0.9891236677737751</v>
       </c>
       <c r="K3">
-        <v>1.002320038227315</v>
+        <v>1.018740850951009</v>
       </c>
       <c r="L3">
-        <v>1.00267166448829</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="M3">
-        <v>1.00267166448829</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="N3">
-        <v>1.00267166448829</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="O3">
-        <v>1.002226600131792</v>
+        <v>1.003732596844379</v>
       </c>
       <c r="P3">
-        <v>0.9977717824481754</v>
+        <v>0.9731165354214694</v>
       </c>
       <c r="Q3">
-        <v>1.000550630359191</v>
+        <v>0.996428132309077</v>
       </c>
       <c r="R3">
-        <v>0.9994050764615467</v>
+        <v>0.9991357507132568</v>
       </c>
       <c r="S3">
-        <v>0.9981394084943137</v>
+        <v>0.9784522462055714</v>
       </c>
       <c r="T3">
-        <v>0.9994050764615467</v>
+        <v>0.9991357507132568</v>
       </c>
       <c r="U3">
-        <v>0.9992724724928077</v>
+        <v>0.9966327299783864</v>
       </c>
       <c r="V3">
-        <v>0.9999523108919041</v>
+        <v>1.007541020242076</v>
       </c>
       <c r="W3">
-        <v>0.9995038037617351</v>
+        <v>0.9964415387770171</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005276694789274</v>
+        <v>1.046189834027212</v>
       </c>
       <c r="D4">
-        <v>1.004213841176238</v>
+        <v>1.003539356725688</v>
       </c>
       <c r="E4">
-        <v>0.9871959266931852</v>
+        <v>0.9479447169157659</v>
       </c>
       <c r="F4">
-        <v>0.9871959266931852</v>
+        <v>0.9479447169157659</v>
       </c>
       <c r="G4">
-        <v>0.9986899685888267</v>
+        <v>0.9854829444511727</v>
       </c>
       <c r="H4">
-        <v>0.9923534124558286</v>
+        <v>0.9662190226257901</v>
       </c>
       <c r="I4">
-        <v>1.002427532241045</v>
+        <v>1.017708404286246</v>
       </c>
       <c r="J4">
-        <v>0.9978180325451801</v>
+        <v>0.9901123034140886</v>
       </c>
       <c r="K4">
-        <v>1.004458110680987</v>
+        <v>1.017020331600823</v>
       </c>
       <c r="L4">
-        <v>1.005276694756781</v>
+        <v>1.046189834012303</v>
       </c>
       <c r="M4">
-        <v>1.005276694756781</v>
+        <v>1.046189834012303</v>
       </c>
       <c r="N4">
-        <v>1.005276694756781</v>
+        <v>1.046189834012303</v>
       </c>
       <c r="O4">
-        <v>1.004213841176238</v>
+        <v>1.003539356725688</v>
       </c>
       <c r="P4">
-        <v>0.9957048839347116</v>
+        <v>0.9757420368207268</v>
       </c>
       <c r="Q4">
-        <v>1.001015936860709</v>
+        <v>0.9968258300698881</v>
       </c>
       <c r="R4">
-        <v>0.9988954875420681</v>
+        <v>0.9992246358845858</v>
       </c>
       <c r="S4">
-        <v>0.9964092668048677</v>
+        <v>0.9805321256851807</v>
       </c>
       <c r="T4">
-        <v>0.9988954875420681</v>
+        <v>0.9992246358845857</v>
       </c>
       <c r="U4">
-        <v>0.9986261237928461</v>
+        <v>0.9969465527669614</v>
       </c>
       <c r="V4">
-        <v>0.9999562379856333</v>
+        <v>1.00679520901603</v>
       </c>
       <c r="W4">
-        <v>0.9990541898922589</v>
+        <v>0.9967771142539847</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.01004281721985</v>
+        <v>1.061039663692722</v>
       </c>
       <c r="D5">
-        <v>1.008090959389066</v>
+        <v>1.004042687412398</v>
       </c>
       <c r="E5">
-        <v>0.9753725090915787</v>
+        <v>0.9318996957412404</v>
       </c>
       <c r="F5">
-        <v>0.9753725090915787</v>
+        <v>0.9318996957412404</v>
       </c>
       <c r="G5">
-        <v>0.9975236739454477</v>
+        <v>0.9807981646900277</v>
       </c>
       <c r="H5">
-        <v>0.9853343008166783</v>
+        <v>0.9558470013746635</v>
       </c>
       <c r="I5">
-        <v>1.004659457496058</v>
+        <v>1.023440773773584</v>
       </c>
       <c r="J5">
-        <v>0.9958481074931417</v>
+        <v>0.9871798356064694</v>
       </c>
       <c r="K5">
-        <v>1.008538436822263</v>
+        <v>1.022094204636119</v>
       </c>
       <c r="L5">
-        <v>1.01004281721985</v>
+        <v>1.061039663638814</v>
       </c>
       <c r="M5">
-        <v>1.01004281721985</v>
+        <v>1.061039663638814</v>
       </c>
       <c r="N5">
-        <v>1.01004281721985</v>
+        <v>1.061039663638814</v>
       </c>
       <c r="O5">
-        <v>1.008090959389066</v>
+        <v>1.004042687412398</v>
       </c>
       <c r="P5">
-        <v>0.9917317342403225</v>
+        <v>0.9679711915768191</v>
       </c>
       <c r="Q5">
-        <v>1.001969533441104</v>
+        <v>0.9956112615094336</v>
       </c>
       <c r="R5">
-        <v>0.9978354285668317</v>
+        <v>0.9989940155974839</v>
       </c>
       <c r="S5">
-        <v>0.9931038586579288</v>
+        <v>0.9743740729200359</v>
       </c>
       <c r="T5">
-        <v>0.9978354285668317</v>
+        <v>0.9989940155974839</v>
       </c>
       <c r="U5">
-        <v>0.9973385982984092</v>
+        <v>0.9960404705997303</v>
       </c>
       <c r="V5">
-        <v>0.9998794420826973</v>
+        <v>1.009040309207547</v>
       </c>
       <c r="W5">
-        <v>0.9981762827842604</v>
+        <v>0.9957927533591644</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.01477481472087</v>
+        <v>1.070726320340909</v>
       </c>
       <c r="D6">
-        <v>1.011849321932448</v>
+        <v>1.004264562784091</v>
       </c>
       <c r="E6">
-        <v>0.9638568943251323</v>
+        <v>0.9216907353409094</v>
       </c>
       <c r="F6">
-        <v>0.9638568943251323</v>
+        <v>0.9216907353409094</v>
       </c>
       <c r="G6">
-        <v>0.9963859707685212</v>
+        <v>0.9777317579545456</v>
       </c>
       <c r="H6">
-        <v>0.9784935240810593</v>
+        <v>0.9492106690909086</v>
       </c>
       <c r="I6">
-        <v>1.006824511218225</v>
+        <v>1.027149119375001</v>
       </c>
       <c r="J6">
-        <v>0.9939080808302241</v>
+        <v>0.9852860361363636</v>
       </c>
       <c r="K6">
-        <v>1.012504904208836</v>
+        <v>1.025327381704547</v>
       </c>
       <c r="L6">
-        <v>1.01477481472087</v>
+        <v>1.070726320340909</v>
       </c>
       <c r="M6">
-        <v>1.01477481472087</v>
+        <v>1.070726320340909</v>
       </c>
       <c r="N6">
-        <v>1.01477481472087</v>
+        <v>1.070726320340909</v>
       </c>
       <c r="O6">
-        <v>1.011849321932448</v>
+        <v>1.004264562784091</v>
       </c>
       <c r="P6">
-        <v>0.98785310812879</v>
+        <v>0.9629776490625003</v>
       </c>
       <c r="Q6">
-        <v>1.002878701381336</v>
+        <v>0.9947752994602274</v>
       </c>
       <c r="R6">
-        <v>0.99682701032615</v>
+        <v>0.9988938728219697</v>
       </c>
       <c r="S6">
-        <v>0.9898714323626013</v>
+        <v>0.9704137780871213</v>
       </c>
       <c r="T6">
-        <v>0.99682701032615</v>
+        <v>0.9988938728219697</v>
       </c>
       <c r="U6">
-        <v>0.9960972779521685</v>
+        <v>0.9954919136505682</v>
       </c>
       <c r="V6">
-        <v>0.9998327853059088</v>
+        <v>1.010538794988636</v>
       </c>
       <c r="W6">
-        <v>0.9973247527606646</v>
+        <v>0.9951733228409094</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000481915295016</v>
+        <v>1.174482435569922</v>
       </c>
       <c r="D7">
-        <v>0.9999970677195539</v>
+        <v>0.9560524161515243</v>
       </c>
       <c r="E7">
-        <v>0.9995216955621606</v>
+        <v>0.938518525970448</v>
       </c>
       <c r="F7">
-        <v>0.9995216955621606</v>
+        <v>0.938518525970448</v>
       </c>
       <c r="G7">
-        <v>0.9998460809925818</v>
+        <v>0.938911732409394</v>
       </c>
       <c r="H7">
-        <v>0.9996853063747616</v>
+        <v>0.9404993245957217</v>
       </c>
       <c r="I7">
-        <v>1.000181704884647</v>
+        <v>1.051770608776415</v>
       </c>
       <c r="J7">
-        <v>0.9999089423381858</v>
+        <v>0.9734504510097792</v>
       </c>
       <c r="K7">
-        <v>1.000151231260311</v>
+        <v>1.023814710803869</v>
       </c>
       <c r="L7">
-        <v>1.000481915271186</v>
+        <v>1.174482435569922</v>
       </c>
       <c r="M7">
-        <v>1.000481915271186</v>
+        <v>1.174482435569922</v>
       </c>
       <c r="N7">
-        <v>1.000481915271186</v>
+        <v>1.174482435569922</v>
       </c>
       <c r="O7">
-        <v>0.9999970677195539</v>
+        <v>0.9560524161515243</v>
       </c>
       <c r="P7">
-        <v>0.9997593816408572</v>
+        <v>0.9472854710609862</v>
       </c>
       <c r="Q7">
-        <v>0.9999530050288699</v>
+        <v>0.9647514335806517</v>
       </c>
       <c r="R7">
-        <v>1.0000002261843</v>
+        <v>1.023017792563965</v>
       </c>
       <c r="S7">
-        <v>0.9998092352066333</v>
+        <v>0.9560071310439172</v>
       </c>
       <c r="T7">
-        <v>1.0000002261843</v>
+        <v>1.023017792563965</v>
       </c>
       <c r="U7">
-        <v>0.9999774052227716</v>
+        <v>1.010625957175419</v>
       </c>
       <c r="V7">
-        <v>1.000078307232454</v>
+        <v>1.043397252854319</v>
       </c>
       <c r="W7">
-        <v>0.9999717430504235</v>
+        <v>0.9996875256608844</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001453908585521</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="D8">
-        <v>0.9999922596847984</v>
+        <v>0.956267196652189</v>
       </c>
       <c r="E8">
-        <v>0.9985909529796235</v>
+        <v>0.9360738724884426</v>
       </c>
       <c r="F8">
-        <v>0.9985909529796235</v>
+        <v>0.9360738724884426</v>
       </c>
       <c r="G8">
-        <v>0.9995337282971535</v>
+        <v>0.9382874353532754</v>
       </c>
       <c r="H8">
-        <v>0.9990615045547719</v>
+        <v>0.9389422246685208</v>
       </c>
       <c r="I8">
-        <v>1.000538859879839</v>
+        <v>1.052564233993229</v>
       </c>
       <c r="J8">
-        <v>0.9997193196738829</v>
+        <v>0.973007933011741</v>
       </c>
       <c r="K8">
-        <v>1.000454555989037</v>
+        <v>1.024601649194087</v>
       </c>
       <c r="L8">
-        <v>1.001453908561757</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="M8">
-        <v>1.001453908561757</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="N8">
-        <v>1.001453908561757</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="O8">
-        <v>0.9999922596847984</v>
+        <v>0.956267196652189</v>
       </c>
       <c r="P8">
-        <v>0.999291606332211</v>
+        <v>0.9461705345703157</v>
       </c>
       <c r="Q8">
-        <v>0.9998557896793407</v>
+        <v>0.9646375648319649</v>
       </c>
       <c r="R8">
-        <v>1.00001237374206</v>
+        <v>1.022950698871198</v>
       </c>
       <c r="S8">
-        <v>0.9994341774461016</v>
+        <v>0.9551163340507909</v>
       </c>
       <c r="T8">
-        <v>1.00001237374206</v>
+        <v>1.022950698871198</v>
       </c>
       <c r="U8">
-        <v>0.9999391102250155</v>
+        <v>1.010465007406334</v>
       </c>
       <c r="V8">
-        <v>1.000242069892364</v>
+        <v>1.04367421141966</v>
       </c>
       <c r="W8">
-        <v>0.9999181362026079</v>
+        <v>0.999531946604306</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00238572107837</v>
+        <v>1.177399643100892</v>
       </c>
       <c r="D9">
-        <v>0.999961194679349</v>
+        <v>0.9566112710221103</v>
       </c>
       <c r="E9">
-        <v>0.9978259087387067</v>
+        <v>0.9343993618803758</v>
       </c>
       <c r="F9">
-        <v>0.9978259087387067</v>
+        <v>0.9343993618803758</v>
       </c>
       <c r="G9">
-        <v>0.9992319357608671</v>
+        <v>0.9380366726863861</v>
       </c>
       <c r="H9">
-        <v>0.9985189080545973</v>
+        <v>0.9379553875039237</v>
       </c>
       <c r="I9">
-        <v>1.000853880104174</v>
+        <v>1.05298585178625</v>
       </c>
       <c r="J9">
-        <v>0.999532317683231</v>
+        <v>0.9727692067367278</v>
       </c>
       <c r="K9">
-        <v>1.000719604077231</v>
+        <v>1.025127321919141</v>
       </c>
       <c r="L9">
-        <v>1.002385721057856</v>
+        <v>1.177399643100892</v>
       </c>
       <c r="M9">
-        <v>1.002385721057856</v>
+        <v>1.177399643100892</v>
       </c>
       <c r="N9">
-        <v>1.002385721057856</v>
+        <v>1.177399643100892</v>
       </c>
       <c r="O9">
-        <v>0.999961194679349</v>
+        <v>0.9566112710221103</v>
       </c>
       <c r="P9">
-        <v>0.9988935517090278</v>
+        <v>0.945505316451243</v>
       </c>
       <c r="Q9">
-        <v>0.9997467561812901</v>
+        <v>0.9646902388794191</v>
       </c>
       <c r="R9">
-        <v>1.000057608158637</v>
+        <v>1.022803425334459</v>
       </c>
       <c r="S9">
-        <v>0.9991064737004289</v>
+        <v>0.954593279879738</v>
       </c>
       <c r="T9">
-        <v>1.000057608158637</v>
+        <v>1.022803425334459</v>
       </c>
       <c r="U9">
-        <v>0.9999262855397858</v>
+        <v>1.010294870685026</v>
       </c>
       <c r="V9">
-        <v>1.0004181726434</v>
+        <v>1.043715825168199</v>
       </c>
       <c r="W9">
-        <v>0.9998786837695015</v>
+        <v>0.9994105895794758</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004766633940443</v>
+        <v>1.18551553054989</v>
       </c>
       <c r="D10">
-        <v>0.9999811540726296</v>
+        <v>0.9573021687402791</v>
       </c>
       <c r="E10">
-        <v>0.9954548708381928</v>
+        <v>0.9255957454476224</v>
       </c>
       <c r="F10">
-        <v>0.9954548708381928</v>
+        <v>0.9255957454476224</v>
       </c>
       <c r="G10">
-        <v>0.998473914404315</v>
+        <v>0.9354936825639165</v>
       </c>
       <c r="H10">
-        <v>0.9969492412956806</v>
+        <v>0.9321226524057236</v>
       </c>
       <c r="I10">
-        <v>1.001739221120548</v>
+        <v>1.055959705819483</v>
       </c>
       <c r="J10">
-        <v>0.9990644243818962</v>
+        <v>0.9709392990431875</v>
       </c>
       <c r="K10">
-        <v>1.001484362164264</v>
+        <v>1.028114174035901</v>
       </c>
       <c r="L10">
-        <v>1.004766633911955</v>
+        <v>1.18551553054989</v>
       </c>
       <c r="M10">
-        <v>1.004766633911955</v>
+        <v>1.18551553054989</v>
       </c>
       <c r="N10">
-        <v>1.004766633911955</v>
+        <v>1.18551553054989</v>
       </c>
       <c r="O10">
-        <v>0.9999811540726296</v>
+        <v>0.9573021687402791</v>
       </c>
       <c r="P10">
-        <v>0.9977180124554113</v>
+        <v>0.9414489570939507</v>
       </c>
       <c r="Q10">
-        <v>0.9995227892272629</v>
+        <v>0.9641207338917333</v>
       </c>
       <c r="R10">
-        <v>1.000067552940926</v>
+        <v>1.022804481579264</v>
       </c>
       <c r="S10">
-        <v>0.9981668164309063</v>
+        <v>0.9512790710770297</v>
       </c>
       <c r="T10">
-        <v>1.000067552940926</v>
+        <v>1.022804481579264</v>
       </c>
       <c r="U10">
-        <v>0.9998167708011685</v>
+        <v>1.009838185945245</v>
       </c>
       <c r="V10">
-        <v>1.000806743423326</v>
+        <v>1.044973654866174</v>
       </c>
       <c r="W10">
-        <v>0.9997392277736852</v>
+        <v>0.9988803698257503</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008899989736096</v>
+        <v>1.004009545210625</v>
       </c>
       <c r="D11">
-        <v>0.9997537028176351</v>
+        <v>1.001816498238199</v>
       </c>
       <c r="E11">
-        <v>0.992046759409695</v>
+        <v>0.9930003412263579</v>
       </c>
       <c r="F11">
-        <v>0.992046759409695</v>
+        <v>0.9930003412263579</v>
       </c>
       <c r="G11">
-        <v>0.9971281722982016</v>
+        <v>0.9988740771248139</v>
       </c>
       <c r="H11">
-        <v>0.9945679069843669</v>
+        <v>0.9956511089315332</v>
       </c>
       <c r="I11">
-        <v>1.003180296161807</v>
+        <v>1.001627908581143</v>
       </c>
       <c r="J11">
-        <v>0.9982873629632139</v>
+        <v>0.9986876414029028</v>
       </c>
       <c r="K11">
-        <v>1.002618363477602</v>
+        <v>1.002451399740066</v>
       </c>
       <c r="L11">
-        <v>1.008899989715931</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="M11">
-        <v>1.008899989715931</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="N11">
-        <v>1.008899989715931</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="O11">
-        <v>0.9997537028176351</v>
+        <v>1.001816498238199</v>
       </c>
       <c r="P11">
-        <v>0.9959002311136651</v>
+        <v>0.9974084197322787</v>
       </c>
       <c r="Q11">
-        <v>0.9990205328904245</v>
+        <v>1.000252069820551</v>
       </c>
       <c r="R11">
-        <v>1.000233483981087</v>
+        <v>0.9996087948841289</v>
       </c>
       <c r="S11">
-        <v>0.9966959417301814</v>
+        <v>0.99783482695582</v>
       </c>
       <c r="T11">
-        <v>1.000233483981087</v>
+        <v>0.9996087948841289</v>
       </c>
       <c r="U11">
-        <v>0.9997469537266186</v>
+        <v>0.9993785065138223</v>
       </c>
       <c r="V11">
-        <v>1.001577560924481</v>
+        <v>1.000304714248624</v>
       </c>
       <c r="W11">
-        <v>0.9995603192285565</v>
+        <v>0.9995148150541057</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9327505013771252</v>
+        <v>1.002232153017499</v>
       </c>
       <c r="D12">
-        <v>0.9762330158735684</v>
+        <v>1.001087270663588</v>
       </c>
       <c r="E12">
-        <v>1.077875566654152</v>
+        <v>0.9960120806328292</v>
       </c>
       <c r="F12">
-        <v>1.077875566654152</v>
+        <v>0.9960120806328292</v>
       </c>
       <c r="G12">
-        <v>1.021710955533463</v>
+        <v>0.9993719458579553</v>
       </c>
       <c r="H12">
-        <v>1.057481408489811</v>
+        <v>0.9975154792033919</v>
       </c>
       <c r="I12">
-        <v>0.9800838050218617</v>
+        <v>1.000906864973491</v>
       </c>
       <c r="J12">
-        <v>1.024482490115383</v>
+        <v>0.9992412112081389</v>
       </c>
       <c r="K12">
-        <v>0.9647171518032476</v>
+        <v>1.001415440631827</v>
       </c>
       <c r="L12">
-        <v>0.9327505013771252</v>
+        <v>1.002232152994212</v>
       </c>
       <c r="M12">
-        <v>0.9327505013771252</v>
+        <v>1.002232152994212</v>
       </c>
       <c r="N12">
-        <v>0.9327505013771252</v>
+        <v>1.002232152994212</v>
       </c>
       <c r="O12">
-        <v>0.9762330158735684</v>
+        <v>1.001087270663588</v>
       </c>
       <c r="P12">
-        <v>1.02705429126386</v>
+        <v>0.9985496756482087</v>
       </c>
       <c r="Q12">
-        <v>1.000357752994476</v>
+        <v>1.000164240935864</v>
       </c>
       <c r="R12">
-        <v>0.9956196946349483</v>
+        <v>0.9997771680968764</v>
       </c>
       <c r="S12">
-        <v>1.026197024214367</v>
+        <v>0.9987801875015188</v>
       </c>
       <c r="T12">
-        <v>0.9956196946349484</v>
+        <v>0.9997771680968764</v>
       </c>
       <c r="U12">
-        <v>1.002835393505057</v>
+        <v>0.9996431788746921</v>
       </c>
       <c r="V12">
-        <v>0.9888184150794708</v>
+        <v>1.000160973698596</v>
       </c>
       <c r="W12">
-        <v>1.004416861858576</v>
+        <v>0.9997228057706791</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9900921358852428</v>
+        <v>1.008400656283092</v>
       </c>
       <c r="D13">
-        <v>0.9988463161350868</v>
+        <v>1.004693733384085</v>
       </c>
       <c r="E13">
-        <v>1.036007240714741</v>
+        <v>0.9838704744014333</v>
       </c>
       <c r="F13">
-        <v>1.036007240714741</v>
+        <v>0.9838704744014333</v>
       </c>
       <c r="G13">
-        <v>1.001451786031242</v>
+        <v>0.9976848957050348</v>
       </c>
       <c r="H13">
-        <v>1.015546729611481</v>
+        <v>0.9900338139146184</v>
       </c>
       <c r="I13">
-        <v>0.9900373190562111</v>
+        <v>1.003493721183762</v>
       </c>
       <c r="J13">
-        <v>0.9984324973959537</v>
+        <v>0.9969840053589663</v>
       </c>
       <c r="K13">
-        <v>0.9946421571604955</v>
+        <v>1.005732177892474</v>
       </c>
       <c r="L13">
-        <v>0.9900921358852428</v>
+        <v>1.008400656240297</v>
       </c>
       <c r="M13">
-        <v>0.9900921358852428</v>
+        <v>1.008400656240297</v>
       </c>
       <c r="N13">
-        <v>0.9900921358852428</v>
+        <v>1.008400656240297</v>
       </c>
       <c r="O13">
-        <v>0.9988463161350868</v>
+        <v>1.004693733384085</v>
       </c>
       <c r="P13">
-        <v>1.017426778424914</v>
+        <v>0.9942821038927593</v>
       </c>
       <c r="Q13">
-        <v>0.9986394067655202</v>
+        <v>1.000838869371526</v>
       </c>
       <c r="R13">
-        <v>1.00831523091169</v>
+        <v>0.9989882880086053</v>
       </c>
       <c r="S13">
-        <v>1.011095351415261</v>
+        <v>0.9951827377148282</v>
       </c>
       <c r="T13">
-        <v>1.008315230911691</v>
+        <v>0.9989882880086053</v>
       </c>
       <c r="U13">
-        <v>1.005844547532756</v>
+        <v>0.9984872173461956</v>
       </c>
       <c r="V13">
-        <v>1.002694065203254</v>
+        <v>1.000469905125016</v>
       </c>
       <c r="W13">
-        <v>1.003132022748807</v>
+        <v>0.998861684760084</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.040069747390838</v>
+        <v>1.007655490299739</v>
       </c>
       <c r="D14">
-        <v>1.209199652247677</v>
+        <v>1.006121845771479</v>
       </c>
       <c r="E14">
-        <v>0.6516761450233303</v>
+        <v>0.9814279153282647</v>
       </c>
       <c r="F14">
-        <v>0.6516761450233303</v>
+        <v>0.9814279153282647</v>
       </c>
       <c r="G14">
-        <v>0.9987850161461427</v>
+        <v>0.998093386399202</v>
       </c>
       <c r="H14">
-        <v>0.7863873948201391</v>
+        <v>0.9889011954967185</v>
       </c>
       <c r="I14">
-        <v>1.022359811491003</v>
+        <v>1.003522296511446</v>
       </c>
       <c r="J14">
-        <v>0.9237961077339254</v>
+        <v>0.9968290406398782</v>
       </c>
       <c r="K14">
-        <v>1.148583995142008</v>
+        <v>1.006475776642802</v>
       </c>
       <c r="L14">
-        <v>1.040069747390838</v>
+        <v>1.007655490299739</v>
       </c>
       <c r="M14">
-        <v>1.040069747390838</v>
+        <v>1.007655490299739</v>
       </c>
       <c r="N14">
-        <v>1.040069747390838</v>
+        <v>1.007655490299739</v>
       </c>
       <c r="O14">
-        <v>1.209199652247677</v>
+        <v>1.006121845771479</v>
       </c>
       <c r="P14">
-        <v>0.9304378986355035</v>
+        <v>0.9937748805498721</v>
       </c>
       <c r="Q14">
-        <v>1.066497879990801</v>
+        <v>1.001475443205679</v>
       </c>
       <c r="R14">
-        <v>0.9669818482206151</v>
+        <v>0.9984017504664945</v>
       </c>
       <c r="S14">
-        <v>0.9282239683349776</v>
+        <v>0.9947929339132074</v>
       </c>
       <c r="T14">
-        <v>0.9669818482206152</v>
+        <v>0.9984017504664945</v>
       </c>
       <c r="U14">
-        <v>0.9561854130989427</v>
+        <v>0.9980085730098404</v>
       </c>
       <c r="V14">
-        <v>0.9729622799573218</v>
+        <v>0.99993795646782</v>
       </c>
       <c r="W14">
-        <v>0.972607233749383</v>
+        <v>0.9986283683861912</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.106336191552012</v>
+        <v>1.002671664511174</v>
       </c>
       <c r="D15">
-        <v>0.9557661289157814</v>
+        <v>1.002226600131792</v>
       </c>
       <c r="E15">
-        <v>0.9475836584497177</v>
+        <v>0.9933169647645588</v>
       </c>
       <c r="F15">
-        <v>0.9475836584497177</v>
+        <v>0.9933169647645588</v>
       </c>
       <c r="G15">
-        <v>0.9646994135719857</v>
+        <v>0.9993482534880845</v>
       </c>
       <c r="H15">
-        <v>0.9661180440581996</v>
+        <v>0.9960256650070932</v>
       </c>
       <c r="I15">
-        <v>1.04113737355374</v>
+        <v>1.001246583400158</v>
       </c>
       <c r="J15">
-        <v>0.9959359028426287</v>
+        <v>0.9988746605865905</v>
       </c>
       <c r="K15">
-        <v>1.005518914289981</v>
+        <v>1.002320038227315</v>
       </c>
       <c r="L15">
-        <v>1.106336191552012</v>
+        <v>1.00267166448829</v>
       </c>
       <c r="M15">
-        <v>1.106336191552012</v>
+        <v>1.00267166448829</v>
       </c>
       <c r="N15">
-        <v>1.106336191552012</v>
+        <v>1.00267166448829</v>
       </c>
       <c r="O15">
-        <v>0.9557661289157814</v>
+        <v>1.002226600131792</v>
       </c>
       <c r="P15">
-        <v>0.9516748936827495</v>
+        <v>0.9977717824481754</v>
       </c>
       <c r="Q15">
-        <v>0.9758510158792051</v>
+        <v>1.000550630359191</v>
       </c>
       <c r="R15">
-        <v>1.00322865963917</v>
+        <v>0.9994050764615467</v>
       </c>
       <c r="S15">
-        <v>0.9664285634027093</v>
+        <v>0.9981394084943137</v>
       </c>
       <c r="T15">
-        <v>1.00322865963917</v>
+        <v>0.9994050764615467</v>
       </c>
       <c r="U15">
-        <v>1.001405470440035</v>
+        <v>0.9992724724928077</v>
       </c>
       <c r="V15">
-        <v>1.02239161466243</v>
+        <v>0.9999523108919041</v>
       </c>
       <c r="W15">
-        <v>0.9978869534042556</v>
+        <v>0.9995038037617351</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.054387896933233</v>
+        <v>1.005276694789274</v>
       </c>
       <c r="D16">
-        <v>1.042011028186905</v>
+        <v>1.004213841176238</v>
       </c>
       <c r="E16">
-        <v>0.8715957600538962</v>
+        <v>0.9871959266931852</v>
       </c>
       <c r="F16">
-        <v>0.8715957600538962</v>
+        <v>0.9871959266931852</v>
       </c>
       <c r="G16">
-        <v>0.9862569692524942</v>
+        <v>0.9986899685888267</v>
       </c>
       <c r="H16">
-        <v>0.9229064031691432</v>
+        <v>0.9923534124558286</v>
       </c>
       <c r="I16">
-        <v>1.02464763377713</v>
+        <v>1.002427532241045</v>
       </c>
       <c r="J16">
-        <v>0.9777438440962896</v>
+        <v>0.9978180325451801</v>
       </c>
       <c r="K16">
-        <v>1.04497904807802</v>
+        <v>1.004458110680987</v>
       </c>
       <c r="L16">
-        <v>1.054387896929396</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="M16">
-        <v>1.054387896929396</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="N16">
-        <v>1.054387896929396</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="O16">
-        <v>1.042011028186905</v>
+        <v>1.004213841176238</v>
       </c>
       <c r="P16">
-        <v>0.9568033941204005</v>
+        <v>0.9957048839347116</v>
       </c>
       <c r="Q16">
-        <v>1.009877436141597</v>
+        <v>1.001015936860709</v>
       </c>
       <c r="R16">
-        <v>0.989331561723399</v>
+        <v>0.9988954875420681</v>
       </c>
       <c r="S16">
-        <v>0.9637835441123634</v>
+        <v>0.9964092668048677</v>
       </c>
       <c r="T16">
-        <v>0.989331561723399</v>
+        <v>0.9988954875420681</v>
       </c>
       <c r="U16">
-        <v>0.9864346323166217</v>
+        <v>0.9986261237928461</v>
       </c>
       <c r="V16">
-        <v>1.000025285239177</v>
+        <v>0.9999562379856333</v>
       </c>
       <c r="W16">
-        <v>0.9905660729429094</v>
+        <v>0.9990541898922589</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.050555182400746</v>
+        <v>1.01004281721985</v>
       </c>
       <c r="D17">
-        <v>1.029149751462006</v>
+        <v>1.008090959389066</v>
       </c>
       <c r="E17">
-        <v>0.8982725132339279</v>
+        <v>0.9753725090915787</v>
       </c>
       <c r="F17">
-        <v>0.8982725132339279</v>
+        <v>0.9753725090915787</v>
       </c>
       <c r="G17">
-        <v>0.9863453809683649</v>
+        <v>0.9975236739454477</v>
       </c>
       <c r="H17">
-        <v>0.938126043677041</v>
+        <v>0.9853343008166783</v>
       </c>
       <c r="I17">
-        <v>1.021898588010934</v>
+        <v>1.004659457496058</v>
       </c>
       <c r="J17">
-        <v>0.9820778834291868</v>
+        <v>0.9958481074931417</v>
       </c>
       <c r="K17">
-        <v>1.035279973851451</v>
+        <v>1.008538436822263</v>
       </c>
       <c r="L17">
-        <v>1.050555182393083</v>
+        <v>1.01004281721985</v>
       </c>
       <c r="M17">
-        <v>1.050555182393083</v>
+        <v>1.01004281721985</v>
       </c>
       <c r="N17">
-        <v>1.050555182393083</v>
+        <v>1.01004281721985</v>
       </c>
       <c r="O17">
-        <v>1.029149751462006</v>
+        <v>1.008090959389066</v>
       </c>
       <c r="P17">
-        <v>0.9637111323479668</v>
+        <v>0.9917317342403225</v>
       </c>
       <c r="Q17">
-        <v>1.005613817445596</v>
+        <v>1.001969533441104</v>
       </c>
       <c r="R17">
-        <v>0.992659149029672</v>
+        <v>0.9978354285668317</v>
       </c>
       <c r="S17">
-        <v>0.9698333827083735</v>
+        <v>0.9931038586579288</v>
       </c>
       <c r="T17">
-        <v>0.9926591490296719</v>
+        <v>0.9978354285668317</v>
       </c>
       <c r="U17">
-        <v>0.9900138326295507</v>
+        <v>0.9973385982984092</v>
       </c>
       <c r="V17">
-        <v>1.002122102582257</v>
+        <v>0.9998794420826973</v>
       </c>
       <c r="W17">
-        <v>0.9927131646282492</v>
+        <v>0.9981762827842604</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.043067873228613</v>
+        <v>1.01477481472087</v>
       </c>
       <c r="D18">
-        <v>1.003509477633319</v>
+        <v>1.011849321932448</v>
       </c>
       <c r="E18">
-        <v>0.9514107704043208</v>
+        <v>0.9638568943251323</v>
       </c>
       <c r="F18">
-        <v>0.9514107704043208</v>
+        <v>0.9638568943251323</v>
       </c>
       <c r="G18">
-        <v>0.9864696197883618</v>
+        <v>0.9963859707685212</v>
       </c>
       <c r="H18">
-        <v>0.9684050433868739</v>
+        <v>0.9784935240810593</v>
       </c>
       <c r="I18">
-        <v>1.016444821763577</v>
+        <v>1.006824511218225</v>
       </c>
       <c r="J18">
-        <v>0.9906717142358135</v>
+        <v>0.9939080808302241</v>
       </c>
       <c r="K18">
-        <v>1.015983323928802</v>
+        <v>1.012504904208836</v>
       </c>
       <c r="L18">
-        <v>1.043067873198007</v>
+        <v>1.01477481472087</v>
       </c>
       <c r="M18">
-        <v>1.043067873198007</v>
+        <v>1.01477481472087</v>
       </c>
       <c r="N18">
-        <v>1.043067873198007</v>
+        <v>1.01477481472087</v>
       </c>
       <c r="O18">
-        <v>1.003509477633319</v>
+        <v>1.011849321932448</v>
       </c>
       <c r="P18">
-        <v>0.9774601240188199</v>
+        <v>0.98785310812879</v>
       </c>
       <c r="Q18">
-        <v>0.9970905959345662</v>
+        <v>1.002878701381336</v>
       </c>
       <c r="R18">
-        <v>0.9993293737452156</v>
+        <v>0.99682701032615</v>
       </c>
       <c r="S18">
-        <v>0.9818639874244844</v>
+        <v>0.9898714323626013</v>
       </c>
       <c r="T18">
-        <v>0.9993293737452155</v>
+        <v>0.99682701032615</v>
       </c>
       <c r="U18">
-        <v>0.9971649588678649</v>
+        <v>0.9960972779521685</v>
       </c>
       <c r="V18">
-        <v>1.006345541733893</v>
+        <v>0.9998327853059088</v>
       </c>
       <c r="W18">
-        <v>0.9969953305423842</v>
+        <v>0.9973247527606646</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.047765682849815</v>
+        <v>1.000481915295016</v>
       </c>
       <c r="D19">
-        <v>1.001099827940145</v>
+        <v>0.9999970677195539</v>
       </c>
       <c r="E19">
-        <v>0.9472785816654185</v>
+        <v>0.9995216955621606</v>
       </c>
       <c r="F19">
-        <v>0.9472785816654185</v>
+        <v>0.9995216955621606</v>
       </c>
       <c r="G19">
-        <v>0.985025328391954</v>
+        <v>0.9998460809925818</v>
       </c>
       <c r="H19">
-        <v>0.9664854295977515</v>
+        <v>0.9996853063747616</v>
       </c>
       <c r="I19">
-        <v>1.018899400185619</v>
+        <v>1.000181704884647</v>
       </c>
       <c r="J19">
-        <v>0.9910328594487127</v>
+        <v>0.9999089423381858</v>
       </c>
       <c r="K19">
-        <v>1.016098064989116</v>
+        <v>1.000151231260311</v>
       </c>
       <c r="L19">
-        <v>1.047765682849815</v>
+        <v>1.000481915271186</v>
       </c>
       <c r="M19">
-        <v>1.047765682849815</v>
+        <v>1.000481915271186</v>
       </c>
       <c r="N19">
-        <v>1.047765682849815</v>
+        <v>1.000481915271186</v>
       </c>
       <c r="O19">
-        <v>1.001099827940145</v>
+        <v>0.9999970677195539</v>
       </c>
       <c r="P19">
-        <v>0.9741892048027818</v>
+        <v>0.9997593816408572</v>
       </c>
       <c r="Q19">
-        <v>0.996066343694429</v>
+        <v>0.9999530050288699</v>
       </c>
       <c r="R19">
-        <v>0.9987146974851262</v>
+        <v>1.0000002261843</v>
       </c>
       <c r="S19">
-        <v>0.9798037563514255</v>
+        <v>0.9998092352066333</v>
       </c>
       <c r="T19">
-        <v>0.9987146974851262</v>
+        <v>1.0000002261843</v>
       </c>
       <c r="U19">
-        <v>0.9967942379760228</v>
+        <v>0.9999774052227716</v>
       </c>
       <c r="V19">
-        <v>1.006988526950781</v>
+        <v>1.000078307232454</v>
       </c>
       <c r="W19">
-        <v>0.9967106468835665</v>
+        <v>0.9999717430504235</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9995539264116406</v>
+        <v>1.001453908585521</v>
       </c>
       <c r="D20">
-        <v>1.000459974676071</v>
+        <v>0.9999922596847984</v>
       </c>
       <c r="E20">
-        <v>0.99975353021914</v>
+        <v>0.9985909529796235</v>
       </c>
       <c r="F20">
-        <v>0.99975353021914</v>
+        <v>0.9985909529796235</v>
       </c>
       <c r="G20">
-        <v>1.000165272314364</v>
+        <v>0.9995337282971535</v>
       </c>
       <c r="H20">
-        <v>0.9998749812763579</v>
+        <v>0.9990615045547719</v>
       </c>
       <c r="I20">
-        <v>0.9998544242145665</v>
+        <v>1.000538859879839</v>
       </c>
       <c r="J20">
-        <v>0.9999368944194996</v>
+        <v>0.9997193196738829</v>
       </c>
       <c r="K20">
-        <v>1.000160177835483</v>
+        <v>1.000454555989037</v>
       </c>
       <c r="L20">
-        <v>0.9995539263881773</v>
+        <v>1.001453908561757</v>
       </c>
       <c r="M20">
-        <v>0.9995539263881773</v>
+        <v>1.001453908561757</v>
       </c>
       <c r="N20">
-        <v>0.9995539263881773</v>
+        <v>1.001453908561757</v>
       </c>
       <c r="O20">
-        <v>1.000459974676071</v>
+        <v>0.9999922596847984</v>
       </c>
       <c r="P20">
-        <v>1.000106752447605</v>
+        <v>0.999291606332211</v>
       </c>
       <c r="Q20">
-        <v>1.000198434547785</v>
+        <v>0.9998557896793407</v>
       </c>
       <c r="R20">
-        <v>0.9999224770944627</v>
+        <v>1.00001237374206</v>
       </c>
       <c r="S20">
-        <v>1.000050133104903</v>
+        <v>0.9994341774461016</v>
       </c>
       <c r="T20">
-        <v>0.9999224770944627</v>
+        <v>1.00001237374206</v>
       </c>
       <c r="U20">
-        <v>0.9999260814257219</v>
+        <v>0.9999391102250155</v>
       </c>
       <c r="V20">
-        <v>0.9998516504182129</v>
+        <v>1.000242069892364</v>
       </c>
       <c r="W20">
-        <v>0.9999698976679574</v>
+        <v>0.9999181362026079</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.001190818976242</v>
+        <v>1.00238572107837</v>
       </c>
       <c r="D21">
-        <v>0.9992629722108834</v>
+        <v>0.999961194679349</v>
       </c>
       <c r="E21">
-        <v>0.9999031329269226</v>
+        <v>0.9978259087387067</v>
       </c>
       <c r="F21">
-        <v>0.9999031329269226</v>
+        <v>0.9978259087387067</v>
       </c>
       <c r="G21">
-        <v>0.9995806917951455</v>
+        <v>0.9992319357608671</v>
       </c>
       <c r="H21">
-        <v>0.9998799172280165</v>
+        <v>0.9985189080545973</v>
       </c>
       <c r="I21">
-        <v>1.000419568695273</v>
+        <v>1.000853880104174</v>
       </c>
       <c r="J21">
-        <v>1.000012579430458</v>
+        <v>0.999532317683231</v>
       </c>
       <c r="K21">
-        <v>0.9998978580338117</v>
+        <v>1.000719604077231</v>
       </c>
       <c r="L21">
-        <v>1.001190818951468</v>
+        <v>1.002385721057856</v>
       </c>
       <c r="M21">
-        <v>1.001190818951468</v>
+        <v>1.002385721057856</v>
       </c>
       <c r="N21">
-        <v>1.001190818951468</v>
+        <v>1.002385721057856</v>
       </c>
       <c r="O21">
-        <v>0.9992629722108834</v>
+        <v>0.999961194679349</v>
       </c>
       <c r="P21">
-        <v>0.999583052568903</v>
+        <v>0.9988935517090278</v>
       </c>
       <c r="Q21">
-        <v>0.9996377758206707</v>
+        <v>0.9997467561812901</v>
       </c>
       <c r="R21">
-        <v>1.000118974696425</v>
+        <v>1.000057608158637</v>
       </c>
       <c r="S21">
-        <v>0.9997262281894214</v>
+        <v>0.9991064737004289</v>
       </c>
       <c r="T21">
-        <v>1.000118974696425</v>
+        <v>1.000057608158637</v>
       </c>
       <c r="U21">
-        <v>1.000092375879933</v>
+        <v>0.9999262855397858</v>
       </c>
       <c r="V21">
-        <v>1.00031206449424</v>
+        <v>1.0004181726434</v>
       </c>
       <c r="W21">
-        <v>1.000018442408997</v>
+        <v>0.9998786837695015</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9992771250380578</v>
+        <v>1.004766633940443</v>
       </c>
       <c r="D22">
-        <v>1.002221450650571</v>
+        <v>0.9999811540726296</v>
       </c>
       <c r="E22">
-        <v>0.997208539846449</v>
+        <v>0.9954548708381928</v>
       </c>
       <c r="F22">
-        <v>0.997208539846449</v>
+        <v>0.9954548708381928</v>
       </c>
       <c r="G22">
-        <v>1.000368759505134</v>
+        <v>0.998473914404315</v>
       </c>
       <c r="H22">
-        <v>0.9984076772647736</v>
+        <v>0.9969492412956806</v>
       </c>
       <c r="I22">
-        <v>0.9998666525512149</v>
+        <v>1.001739221120548</v>
       </c>
       <c r="J22">
-        <v>0.999448274941286</v>
+        <v>0.9990644243818962</v>
       </c>
       <c r="K22">
-        <v>1.001228137797571</v>
+        <v>1.001484362164264</v>
       </c>
       <c r="L22">
-        <v>0.9992771250348131</v>
+        <v>1.004766633911955</v>
       </c>
       <c r="M22">
-        <v>0.9992771250348131</v>
+        <v>1.004766633911955</v>
       </c>
       <c r="N22">
-        <v>0.9992771250348131</v>
+        <v>1.004766633911955</v>
       </c>
       <c r="O22">
-        <v>1.002221450650571</v>
+        <v>0.9999811540726296</v>
       </c>
       <c r="P22">
-        <v>0.9997149952485098</v>
+        <v>0.9977180124554113</v>
       </c>
       <c r="Q22">
-        <v>1.000834862795928</v>
+        <v>0.9995227892272629</v>
       </c>
       <c r="R22">
-        <v>0.9995690385106109</v>
+        <v>1.000067552940926</v>
       </c>
       <c r="S22">
-        <v>0.9996260884794351</v>
+        <v>0.9981668164309063</v>
       </c>
       <c r="T22">
-        <v>0.9995690385106109</v>
+        <v>1.000067552940926</v>
       </c>
       <c r="U22">
-        <v>0.9995388476182796</v>
+        <v>0.9998167708011685</v>
       </c>
       <c r="V22">
-        <v>0.9994865031015863</v>
+        <v>1.000806743423326</v>
       </c>
       <c r="W22">
-        <v>0.9997533271989765</v>
+        <v>0.9997392277736852</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.008899989736096</v>
+      </c>
+      <c r="D23">
+        <v>0.9997537028176351</v>
+      </c>
+      <c r="E23">
+        <v>0.992046759409695</v>
+      </c>
+      <c r="F23">
+        <v>0.992046759409695</v>
+      </c>
+      <c r="G23">
+        <v>0.9971281722982016</v>
+      </c>
+      <c r="H23">
+        <v>0.9945679069843669</v>
+      </c>
+      <c r="I23">
+        <v>1.003180296161807</v>
+      </c>
+      <c r="J23">
+        <v>0.9982873629632139</v>
+      </c>
+      <c r="K23">
+        <v>1.002618363477602</v>
+      </c>
+      <c r="L23">
+        <v>1.008899989715931</v>
+      </c>
+      <c r="M23">
+        <v>1.008899989715931</v>
+      </c>
+      <c r="N23">
+        <v>1.008899989715931</v>
+      </c>
+      <c r="O23">
+        <v>0.9997537028176351</v>
+      </c>
+      <c r="P23">
+        <v>0.9959002311136651</v>
+      </c>
+      <c r="Q23">
+        <v>0.9990205328904245</v>
+      </c>
+      <c r="R23">
+        <v>1.000233483981087</v>
+      </c>
+      <c r="S23">
+        <v>0.9966959417301814</v>
+      </c>
+      <c r="T23">
+        <v>1.000233483981087</v>
+      </c>
+      <c r="U23">
+        <v>0.9997469537266186</v>
+      </c>
+      <c r="V23">
+        <v>1.001577560924481</v>
+      </c>
+      <c r="W23">
+        <v>0.9995603192285565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="D24">
+        <v>0.9762330158735684</v>
+      </c>
+      <c r="E24">
+        <v>1.077875566654152</v>
+      </c>
+      <c r="F24">
+        <v>1.077875566654152</v>
+      </c>
+      <c r="G24">
+        <v>1.021710955533463</v>
+      </c>
+      <c r="H24">
+        <v>1.057481408489811</v>
+      </c>
+      <c r="I24">
+        <v>0.9800838050218617</v>
+      </c>
+      <c r="J24">
+        <v>1.024482490115383</v>
+      </c>
+      <c r="K24">
+        <v>0.9647171518032476</v>
+      </c>
+      <c r="L24">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="M24">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="N24">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="O24">
+        <v>0.9762330158735684</v>
+      </c>
+      <c r="P24">
+        <v>1.02705429126386</v>
+      </c>
+      <c r="Q24">
+        <v>1.000357752994476</v>
+      </c>
+      <c r="R24">
+        <v>0.9956196946349483</v>
+      </c>
+      <c r="S24">
+        <v>1.026197024214367</v>
+      </c>
+      <c r="T24">
+        <v>0.9956196946349484</v>
+      </c>
+      <c r="U24">
+        <v>1.002835393505057</v>
+      </c>
+      <c r="V24">
+        <v>0.9888184150794708</v>
+      </c>
+      <c r="W24">
+        <v>1.004416861858576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="D25">
+        <v>0.9988463161350868</v>
+      </c>
+      <c r="E25">
+        <v>1.036007240714741</v>
+      </c>
+      <c r="F25">
+        <v>1.036007240714741</v>
+      </c>
+      <c r="G25">
+        <v>1.001451786031242</v>
+      </c>
+      <c r="H25">
+        <v>1.015546729611481</v>
+      </c>
+      <c r="I25">
+        <v>0.9900373190562111</v>
+      </c>
+      <c r="J25">
+        <v>0.9984324973959537</v>
+      </c>
+      <c r="K25">
+        <v>0.9946421571604955</v>
+      </c>
+      <c r="L25">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="M25">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="N25">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="O25">
+        <v>0.9988463161350868</v>
+      </c>
+      <c r="P25">
+        <v>1.017426778424914</v>
+      </c>
+      <c r="Q25">
+        <v>0.9986394067655202</v>
+      </c>
+      <c r="R25">
+        <v>1.00831523091169</v>
+      </c>
+      <c r="S25">
+        <v>1.011095351415261</v>
+      </c>
+      <c r="T25">
+        <v>1.008315230911691</v>
+      </c>
+      <c r="U25">
+        <v>1.005844547532756</v>
+      </c>
+      <c r="V25">
+        <v>1.002694065203254</v>
+      </c>
+      <c r="W25">
+        <v>1.003132022748807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="D26">
+        <v>1.209199652247677</v>
+      </c>
+      <c r="E26">
+        <v>0.6516761450233303</v>
+      </c>
+      <c r="F26">
+        <v>0.6516761450233303</v>
+      </c>
+      <c r="G26">
+        <v>0.9987850161461427</v>
+      </c>
+      <c r="H26">
+        <v>0.7863873948201391</v>
+      </c>
+      <c r="I26">
+        <v>1.022359811491003</v>
+      </c>
+      <c r="J26">
+        <v>0.9237961077339254</v>
+      </c>
+      <c r="K26">
+        <v>1.148583995142008</v>
+      </c>
+      <c r="L26">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="M26">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="N26">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="O26">
+        <v>1.209199652247677</v>
+      </c>
+      <c r="P26">
+        <v>0.9304378986355035</v>
+      </c>
+      <c r="Q26">
+        <v>1.066497879990801</v>
+      </c>
+      <c r="R26">
+        <v>0.9669818482206151</v>
+      </c>
+      <c r="S26">
+        <v>0.9282239683349776</v>
+      </c>
+      <c r="T26">
+        <v>0.9669818482206152</v>
+      </c>
+      <c r="U26">
+        <v>0.9561854130989427</v>
+      </c>
+      <c r="V26">
+        <v>0.9729622799573218</v>
+      </c>
+      <c r="W26">
+        <v>0.972607233749383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="D27">
+        <v>0.9557661289157814</v>
+      </c>
+      <c r="E27">
+        <v>0.9475836584497177</v>
+      </c>
+      <c r="F27">
+        <v>0.9475836584497177</v>
+      </c>
+      <c r="G27">
+        <v>0.9646994135719857</v>
+      </c>
+      <c r="H27">
+        <v>0.9661180440581996</v>
+      </c>
+      <c r="I27">
+        <v>1.04113737355374</v>
+      </c>
+      <c r="J27">
+        <v>0.9959359028426287</v>
+      </c>
+      <c r="K27">
+        <v>1.005518914289981</v>
+      </c>
+      <c r="L27">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="M27">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="N27">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="O27">
+        <v>0.9557661289157814</v>
+      </c>
+      <c r="P27">
+        <v>0.9516748936827495</v>
+      </c>
+      <c r="Q27">
+        <v>0.9758510158792051</v>
+      </c>
+      <c r="R27">
+        <v>1.00322865963917</v>
+      </c>
+      <c r="S27">
+        <v>0.9664285634027093</v>
+      </c>
+      <c r="T27">
+        <v>1.00322865963917</v>
+      </c>
+      <c r="U27">
+        <v>1.001405470440035</v>
+      </c>
+      <c r="V27">
+        <v>1.02239161466243</v>
+      </c>
+      <c r="W27">
+        <v>0.9978869534042556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.054387896933233</v>
+      </c>
+      <c r="D28">
+        <v>1.042011028186905</v>
+      </c>
+      <c r="E28">
+        <v>0.8715957600538962</v>
+      </c>
+      <c r="F28">
+        <v>0.8715957600538962</v>
+      </c>
+      <c r="G28">
+        <v>0.9862569692524942</v>
+      </c>
+      <c r="H28">
+        <v>0.9229064031691432</v>
+      </c>
+      <c r="I28">
+        <v>1.02464763377713</v>
+      </c>
+      <c r="J28">
+        <v>0.9777438440962896</v>
+      </c>
+      <c r="K28">
+        <v>1.04497904807802</v>
+      </c>
+      <c r="L28">
+        <v>1.054387896929396</v>
+      </c>
+      <c r="M28">
+        <v>1.054387896929396</v>
+      </c>
+      <c r="N28">
+        <v>1.054387896929396</v>
+      </c>
+      <c r="O28">
+        <v>1.042011028186905</v>
+      </c>
+      <c r="P28">
+        <v>0.9568033941204005</v>
+      </c>
+      <c r="Q28">
+        <v>1.009877436141597</v>
+      </c>
+      <c r="R28">
+        <v>0.989331561723399</v>
+      </c>
+      <c r="S28">
+        <v>0.9637835441123634</v>
+      </c>
+      <c r="T28">
+        <v>0.989331561723399</v>
+      </c>
+      <c r="U28">
+        <v>0.9864346323166217</v>
+      </c>
+      <c r="V28">
+        <v>1.000025285239177</v>
+      </c>
+      <c r="W28">
+        <v>0.9905660729429094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.050555182400746</v>
+      </c>
+      <c r="D29">
+        <v>1.029149751462006</v>
+      </c>
+      <c r="E29">
+        <v>0.8982725132339279</v>
+      </c>
+      <c r="F29">
+        <v>0.8982725132339279</v>
+      </c>
+      <c r="G29">
+        <v>0.9863453809683649</v>
+      </c>
+      <c r="H29">
+        <v>0.938126043677041</v>
+      </c>
+      <c r="I29">
+        <v>1.021898588010934</v>
+      </c>
+      <c r="J29">
+        <v>0.9820778834291868</v>
+      </c>
+      <c r="K29">
+        <v>1.035279973851451</v>
+      </c>
+      <c r="L29">
+        <v>1.050555182393083</v>
+      </c>
+      <c r="M29">
+        <v>1.050555182393083</v>
+      </c>
+      <c r="N29">
+        <v>1.050555182393083</v>
+      </c>
+      <c r="O29">
+        <v>1.029149751462006</v>
+      </c>
+      <c r="P29">
+        <v>0.9637111323479668</v>
+      </c>
+      <c r="Q29">
+        <v>1.005613817445596</v>
+      </c>
+      <c r="R29">
+        <v>0.992659149029672</v>
+      </c>
+      <c r="S29">
+        <v>0.9698333827083735</v>
+      </c>
+      <c r="T29">
+        <v>0.9926591490296719</v>
+      </c>
+      <c r="U29">
+        <v>0.9900138326295507</v>
+      </c>
+      <c r="V29">
+        <v>1.002122102582257</v>
+      </c>
+      <c r="W29">
+        <v>0.9927131646282492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.043067873228613</v>
+      </c>
+      <c r="D30">
+        <v>1.003509477633319</v>
+      </c>
+      <c r="E30">
+        <v>0.9514107704043208</v>
+      </c>
+      <c r="F30">
+        <v>0.9514107704043208</v>
+      </c>
+      <c r="G30">
+        <v>0.9864696197883618</v>
+      </c>
+      <c r="H30">
+        <v>0.9684050433868739</v>
+      </c>
+      <c r="I30">
+        <v>1.016444821763577</v>
+      </c>
+      <c r="J30">
+        <v>0.9906717142358135</v>
+      </c>
+      <c r="K30">
+        <v>1.015983323928802</v>
+      </c>
+      <c r="L30">
+        <v>1.043067873198007</v>
+      </c>
+      <c r="M30">
+        <v>1.043067873198007</v>
+      </c>
+      <c r="N30">
+        <v>1.043067873198007</v>
+      </c>
+      <c r="O30">
+        <v>1.003509477633319</v>
+      </c>
+      <c r="P30">
+        <v>0.9774601240188199</v>
+      </c>
+      <c r="Q30">
+        <v>0.9970905959345662</v>
+      </c>
+      <c r="R30">
+        <v>0.9993293737452156</v>
+      </c>
+      <c r="S30">
+        <v>0.9818639874244844</v>
+      </c>
+      <c r="T30">
+        <v>0.9993293737452155</v>
+      </c>
+      <c r="U30">
+        <v>0.9971649588678649</v>
+      </c>
+      <c r="V30">
+        <v>1.006345541733893</v>
+      </c>
+      <c r="W30">
+        <v>0.9969953305423842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="D31">
+        <v>1.001099827940145</v>
+      </c>
+      <c r="E31">
+        <v>0.9472785816654185</v>
+      </c>
+      <c r="F31">
+        <v>0.9472785816654185</v>
+      </c>
+      <c r="G31">
+        <v>0.985025328391954</v>
+      </c>
+      <c r="H31">
+        <v>0.9664854295977515</v>
+      </c>
+      <c r="I31">
+        <v>1.018899400185619</v>
+      </c>
+      <c r="J31">
+        <v>0.9910328594487127</v>
+      </c>
+      <c r="K31">
+        <v>1.016098064989116</v>
+      </c>
+      <c r="L31">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="M31">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="N31">
+        <v>1.047765682849815</v>
+      </c>
+      <c r="O31">
+        <v>1.001099827940145</v>
+      </c>
+      <c r="P31">
+        <v>0.9741892048027818</v>
+      </c>
+      <c r="Q31">
+        <v>0.996066343694429</v>
+      </c>
+      <c r="R31">
+        <v>0.9987146974851262</v>
+      </c>
+      <c r="S31">
+        <v>0.9798037563514255</v>
+      </c>
+      <c r="T31">
+        <v>0.9987146974851262</v>
+      </c>
+      <c r="U31">
+        <v>0.9967942379760228</v>
+      </c>
+      <c r="V31">
+        <v>1.006988526950781</v>
+      </c>
+      <c r="W31">
+        <v>0.9967106468835665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.070725788219178</v>
+      </c>
+      <c r="D32">
+        <v>1.053573480547945</v>
+      </c>
+      <c r="E32">
+        <v>0.8365002720547943</v>
+      </c>
+      <c r="F32">
+        <v>0.8365002720547943</v>
+      </c>
+      <c r="G32">
+        <v>0.9820213719178084</v>
+      </c>
+      <c r="H32">
+        <v>0.901367941780822</v>
+      </c>
+      <c r="I32">
+        <v>1.031463550410958</v>
+      </c>
+      <c r="J32">
+        <v>0.9711027775342467</v>
+      </c>
+      <c r="K32">
+        <v>1.057636789589041</v>
+      </c>
+      <c r="L32">
+        <v>1.070725788219178</v>
+      </c>
+      <c r="M32">
+        <v>1.070725788219178</v>
+      </c>
+      <c r="N32">
+        <v>1.070725788219178</v>
+      </c>
+      <c r="O32">
+        <v>1.053573480547945</v>
+      </c>
+      <c r="P32">
+        <v>0.9450368763013697</v>
+      </c>
+      <c r="Q32">
+        <v>1.012338129041096</v>
+      </c>
+      <c r="R32">
+        <v>0.9869331802739724</v>
+      </c>
+      <c r="S32">
+        <v>0.9537255100456621</v>
+      </c>
+      <c r="T32">
+        <v>0.9869331802739724</v>
+      </c>
+      <c r="U32">
+        <v>0.9829755795890409</v>
+      </c>
+      <c r="V32">
+        <v>1.000525621315068</v>
+      </c>
+      <c r="W32">
+        <v>0.9880489965068492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="D33">
+        <v>1.179875067894737</v>
+      </c>
+      <c r="E33">
+        <v>0.5981558321052632</v>
+      </c>
+      <c r="F33">
+        <v>0.5981558321052632</v>
+      </c>
+      <c r="G33">
+        <v>0.9648886836842107</v>
+      </c>
+      <c r="H33">
+        <v>0.7479798968421051</v>
+      </c>
+      <c r="I33">
+        <v>1.05855405368421</v>
+      </c>
+      <c r="J33">
+        <v>0.9142199231578947</v>
+      </c>
+      <c r="K33">
+        <v>1.161190721052632</v>
+      </c>
+      <c r="L33">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="M33">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="N33">
+        <v>1.138784727894737</v>
+      </c>
+      <c r="O33">
+        <v>1.179875067894737</v>
+      </c>
+      <c r="P33">
+        <v>0.88901545</v>
+      </c>
+      <c r="Q33">
+        <v>1.047047495526316</v>
+      </c>
+      <c r="R33">
+        <v>0.9722718759649123</v>
+      </c>
+      <c r="S33">
+        <v>0.8974169410526316</v>
+      </c>
+      <c r="T33">
+        <v>0.9722718759649123</v>
+      </c>
+      <c r="U33">
+        <v>0.9577588877631579</v>
+      </c>
+      <c r="V33">
+        <v>0.9939640557894738</v>
+      </c>
+      <c r="W33">
+        <v>0.9704561132894737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9584450536842106</v>
+      </c>
+      <c r="E34">
+        <v>0.902852880526316</v>
+      </c>
+      <c r="F34">
+        <v>0.902852880526316</v>
+      </c>
+      <c r="G34">
+        <v>0.9299733673684212</v>
+      </c>
+      <c r="H34">
+        <v>0.9182136068421052</v>
+      </c>
+      <c r="I34">
+        <v>1.063570825263158</v>
+      </c>
+      <c r="J34">
+        <v>0.9675590763157895</v>
+      </c>
+      <c r="K34">
+        <v>1.034787876842105</v>
+      </c>
+      <c r="L34">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="M34">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="N34">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="O34">
+        <v>0.9584450536842106</v>
+      </c>
+      <c r="P34">
+        <v>0.9306489671052633</v>
+      </c>
+      <c r="Q34">
+        <v>0.9630020650000001</v>
+      </c>
+      <c r="R34">
+        <v>1.021648440877193</v>
+      </c>
+      <c r="S34">
+        <v>0.9429523368421053</v>
+      </c>
+      <c r="T34">
+        <v>1.021648440877193</v>
+      </c>
+      <c r="U34">
+        <v>1.008126099736842</v>
+      </c>
+      <c r="V34">
+        <v>1.047230357473684</v>
+      </c>
+      <c r="W34">
+        <v>0.9973812594078948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.178453998079378</v>
+      </c>
+      <c r="D35">
+        <v>0.9975549562659881</v>
+      </c>
+      <c r="E35">
+        <v>0.8134471270860065</v>
+      </c>
+      <c r="F35">
+        <v>0.8134471270860065</v>
+      </c>
+      <c r="G35">
+        <v>0.9432087571217526</v>
+      </c>
+      <c r="H35">
+        <v>0.8806627868739442</v>
+      </c>
+      <c r="I35">
+        <v>1.07053587436342</v>
+      </c>
+      <c r="J35">
+        <v>0.96852651723936</v>
+      </c>
+      <c r="K35">
+        <v>1.056120117602346</v>
+      </c>
+      <c r="L35">
+        <v>1.178453998076614</v>
+      </c>
+      <c r="M35">
+        <v>1.178453998076614</v>
+      </c>
+      <c r="N35">
+        <v>1.178453998076614</v>
+      </c>
+      <c r="O35">
+        <v>0.9975549562659881</v>
+      </c>
+      <c r="P35">
+        <v>0.9055010416759973</v>
+      </c>
+      <c r="Q35">
+        <v>0.9830407367526741</v>
+      </c>
+      <c r="R35">
+        <v>0.996485360476203</v>
+      </c>
+      <c r="S35">
+        <v>0.9265095335304515</v>
+      </c>
+      <c r="T35">
+        <v>0.996485360476203</v>
+      </c>
+      <c r="U35">
+        <v>0.9894956496669922</v>
+      </c>
+      <c r="V35">
+        <v>1.027287319348917</v>
+      </c>
+      <c r="W35">
+        <v>0.9885637668286789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9995539264116406</v>
+      </c>
+      <c r="D36">
+        <v>1.000459974676071</v>
+      </c>
+      <c r="E36">
+        <v>0.99975353021914</v>
+      </c>
+      <c r="F36">
+        <v>0.99975353021914</v>
+      </c>
+      <c r="G36">
+        <v>1.000165272314364</v>
+      </c>
+      <c r="H36">
+        <v>0.9998749812763579</v>
+      </c>
+      <c r="I36">
+        <v>0.9998544242145665</v>
+      </c>
+      <c r="J36">
+        <v>0.9999368944194996</v>
+      </c>
+      <c r="K36">
+        <v>1.000160177835483</v>
+      </c>
+      <c r="L36">
+        <v>0.9995539263881773</v>
+      </c>
+      <c r="M36">
+        <v>0.9995539263881773</v>
+      </c>
+      <c r="N36">
+        <v>0.9995539263881773</v>
+      </c>
+      <c r="O36">
+        <v>1.000459974676071</v>
+      </c>
+      <c r="P36">
+        <v>1.000106752447605</v>
+      </c>
+      <c r="Q36">
+        <v>1.000198434547785</v>
+      </c>
+      <c r="R36">
+        <v>0.9999224770944627</v>
+      </c>
+      <c r="S36">
+        <v>1.000050133104903</v>
+      </c>
+      <c r="T36">
+        <v>0.9999224770944627</v>
+      </c>
+      <c r="U36">
+        <v>0.9999260814257219</v>
+      </c>
+      <c r="V36">
+        <v>0.9998516504182129</v>
+      </c>
+      <c r="W36">
+        <v>0.9999698976679574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.001190818976242</v>
+      </c>
+      <c r="D37">
+        <v>0.9992629722108834</v>
+      </c>
+      <c r="E37">
+        <v>0.9999031329269226</v>
+      </c>
+      <c r="F37">
+        <v>0.9999031329269226</v>
+      </c>
+      <c r="G37">
+        <v>0.9995806917951455</v>
+      </c>
+      <c r="H37">
+        <v>0.9998799172280165</v>
+      </c>
+      <c r="I37">
+        <v>1.000419568695273</v>
+      </c>
+      <c r="J37">
+        <v>1.000012579430458</v>
+      </c>
+      <c r="K37">
+        <v>0.9998978580338117</v>
+      </c>
+      <c r="L37">
+        <v>1.001190818951468</v>
+      </c>
+      <c r="M37">
+        <v>1.001190818951468</v>
+      </c>
+      <c r="N37">
+        <v>1.001190818951468</v>
+      </c>
+      <c r="O37">
+        <v>0.9992629722108834</v>
+      </c>
+      <c r="P37">
+        <v>0.999583052568903</v>
+      </c>
+      <c r="Q37">
+        <v>0.9996377758206707</v>
+      </c>
+      <c r="R37">
+        <v>1.000118974696425</v>
+      </c>
+      <c r="S37">
+        <v>0.9997262281894214</v>
+      </c>
+      <c r="T37">
+        <v>1.000118974696425</v>
+      </c>
+      <c r="U37">
+        <v>1.000092375879933</v>
+      </c>
+      <c r="V37">
+        <v>1.00031206449424</v>
+      </c>
+      <c r="W37">
+        <v>1.000018442408997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9992771250380578</v>
+      </c>
+      <c r="D38">
+        <v>1.002221450650571</v>
+      </c>
+      <c r="E38">
+        <v>0.997208539846449</v>
+      </c>
+      <c r="F38">
+        <v>0.997208539846449</v>
+      </c>
+      <c r="G38">
+        <v>1.000368759505134</v>
+      </c>
+      <c r="H38">
+        <v>0.9984076772647736</v>
+      </c>
+      <c r="I38">
+        <v>0.9998666525512149</v>
+      </c>
+      <c r="J38">
+        <v>0.999448274941286</v>
+      </c>
+      <c r="K38">
+        <v>1.001228137797571</v>
+      </c>
+      <c r="L38">
+        <v>0.9992771250348131</v>
+      </c>
+      <c r="M38">
+        <v>0.9992771250348131</v>
+      </c>
+      <c r="N38">
+        <v>0.9992771250348131</v>
+      </c>
+      <c r="O38">
+        <v>1.002221450650571</v>
+      </c>
+      <c r="P38">
+        <v>0.9997149952485098</v>
+      </c>
+      <c r="Q38">
+        <v>1.000834862795928</v>
+      </c>
+      <c r="R38">
+        <v>0.9995690385106109</v>
+      </c>
+      <c r="S38">
+        <v>0.9996260884794351</v>
+      </c>
+      <c r="T38">
+        <v>0.9995690385106109</v>
+      </c>
+      <c r="U38">
+        <v>0.9995388476182796</v>
+      </c>
+      <c r="V38">
+        <v>0.9994865031015863</v>
+      </c>
+      <c r="W38">
+        <v>0.9997533271989765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9952372218503378</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.008207147055852</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9919190465299018</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9919190465299018</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.002020141764278</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9955393074390742</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9986837438535473</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9983395977520013</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.003864682690461</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9952372218503378</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9952372218503378</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9952372218503378</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.008207147055852</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000063096792877</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.003273372403927</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9984544718120306</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9994885971125852</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9984544718120306</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9984257532970233</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9977880470076862</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9992263611169317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.01071250500818</v>
+      </c>
+      <c r="D40">
+        <v>1.040265654633806</v>
+      </c>
+      <c r="E40">
+        <v>0.9310673697654354</v>
+      </c>
+      <c r="F40">
+        <v>0.9310673697654354</v>
+      </c>
+      <c r="G40">
+        <v>0.9987190276508187</v>
+      </c>
+      <c r="H40">
+        <v>0.9572668719776942</v>
+      </c>
+      <c r="I40">
+        <v>1.005164394097468</v>
+      </c>
+      <c r="J40">
+        <v>0.9845842931061094</v>
+      </c>
+      <c r="K40">
+        <v>1.029494647550004</v>
+      </c>
+      <c r="L40">
+        <v>1.010712504989131</v>
+      </c>
+      <c r="M40">
+        <v>1.010712504989131</v>
+      </c>
+      <c r="N40">
+        <v>1.010712504989131</v>
+      </c>
+      <c r="O40">
+        <v>1.040265654633806</v>
+      </c>
+      <c r="P40">
+        <v>0.9856665121996206</v>
+      </c>
+      <c r="Q40">
+        <v>1.012424973869958</v>
+      </c>
+      <c r="R40">
+        <v>0.9940151764627908</v>
+      </c>
+      <c r="S40">
+        <v>0.9853057725017836</v>
+      </c>
+      <c r="T40">
+        <v>0.9940151764627908</v>
+      </c>
+      <c r="U40">
+        <v>0.9916574556236205</v>
+      </c>
+      <c r="V40">
+        <v>0.9954684654967227</v>
+      </c>
+      <c r="W40">
+        <v>0.9946593454713084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9509754600274932</v>
+      </c>
+      <c r="D41">
+        <v>0.9708705718041144</v>
+      </c>
+      <c r="E41">
+        <v>1.091599289910639</v>
+      </c>
+      <c r="F41">
+        <v>1.091599289910639</v>
+      </c>
+      <c r="G41">
+        <v>1.013950442253179</v>
+      </c>
+      <c r="H41">
+        <v>1.058155600656158</v>
+      </c>
+      <c r="I41">
+        <v>0.9806872025919788</v>
+      </c>
+      <c r="J41">
+        <v>1.018971090641601</v>
+      </c>
+      <c r="K41">
+        <v>0.9656000544531861</v>
+      </c>
+      <c r="L41">
+        <v>0.9509754599932896</v>
+      </c>
+      <c r="M41">
+        <v>0.9509754599932896</v>
+      </c>
+      <c r="N41">
+        <v>0.9509754599932896</v>
+      </c>
+      <c r="O41">
+        <v>0.9708705718041144</v>
+      </c>
+      <c r="P41">
+        <v>1.031234930857377</v>
+      </c>
+      <c r="Q41">
+        <v>0.9949208312228576</v>
+      </c>
+      <c r="R41">
+        <v>1.004481773902681</v>
+      </c>
+      <c r="S41">
+        <v>1.027146984118785</v>
+      </c>
+      <c r="T41">
+        <v>1.004481773902681</v>
+      </c>
+      <c r="U41">
+        <v>1.008104103087411</v>
+      </c>
+      <c r="V41">
+        <v>0.9966783744685868</v>
+      </c>
+      <c r="W41">
+        <v>1.006351214038018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9724321037761033</v>
+      </c>
+      <c r="D42">
+        <v>1.047847145606518</v>
+      </c>
+      <c r="E42">
+        <v>0.949479973563802</v>
+      </c>
+      <c r="F42">
+        <v>0.949479973563802</v>
+      </c>
+      <c r="G42">
+        <v>1.011848384296371</v>
+      </c>
+      <c r="H42">
+        <v>0.9727661232758897</v>
+      </c>
+      <c r="I42">
+        <v>0.9932813264576004</v>
+      </c>
+      <c r="J42">
+        <v>0.9907870591287057</v>
+      </c>
+      <c r="K42">
+        <v>1.022839234888711</v>
+      </c>
+      <c r="L42">
+        <v>0.9724321037218896</v>
+      </c>
+      <c r="M42">
+        <v>0.9724321037218896</v>
+      </c>
+      <c r="N42">
+        <v>0.9724321037218896</v>
+      </c>
+      <c r="O42">
+        <v>1.047847145606518</v>
+      </c>
+      <c r="P42">
+        <v>0.9986635595851601</v>
+      </c>
+      <c r="Q42">
+        <v>1.019317102367612</v>
+      </c>
+      <c r="R42">
+        <v>0.98991974096407</v>
+      </c>
+      <c r="S42">
+        <v>0.9960380594330086</v>
+      </c>
+      <c r="T42">
+        <v>0.9899197409640698</v>
+      </c>
+      <c r="U42">
+        <v>0.9901365705052287</v>
+      </c>
+      <c r="V42">
+        <v>0.9865956771485609</v>
+      </c>
+      <c r="W42">
+        <v>0.9951601688674361</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00267166448829</v>
+        <v>1.001453908585521</v>
       </c>
       <c r="D3">
-        <v>0.9933169647645588</v>
+        <v>0.9999922596847984</v>
       </c>
       <c r="E3">
-        <v>1.002226600131792</v>
+        <v>0.9985909529796235</v>
       </c>
       <c r="F3">
-        <v>1.00267166448829</v>
+        <v>0.9985909529796235</v>
       </c>
       <c r="G3">
-        <v>0.9988746605865905</v>
+        <v>0.9995337282971535</v>
       </c>
       <c r="H3">
-        <v>1.002320038227315</v>
+        <v>0.9990615045547719</v>
       </c>
       <c r="I3">
-        <v>1.002671664511174</v>
+        <v>1.000538859879839</v>
       </c>
       <c r="J3">
-        <v>0.9933169647645588</v>
+        <v>0.9997193196738829</v>
       </c>
       <c r="K3">
-        <v>0.9993482534880845</v>
+        <v>1.000454555989037</v>
       </c>
       <c r="L3">
-        <v>1.001246583400158</v>
+        <v>1.001453908561757</v>
       </c>
       <c r="M3">
-        <v>0.9960256650070932</v>
+        <v>1.001453908561757</v>
       </c>
       <c r="N3">
-        <v>1.00267166448829</v>
+        <v>1.001453908561757</v>
       </c>
       <c r="O3">
-        <v>1.002226600131792</v>
+        <v>0.9999922596847984</v>
       </c>
       <c r="P3">
-        <v>0.9977717824481754</v>
+        <v>0.999291606332211</v>
       </c>
       <c r="Q3">
-        <v>1.000550630359191</v>
+        <v>0.9998557896793407</v>
       </c>
       <c r="R3">
-        <v>0.9994050764615467</v>
+        <v>1.00001237374206</v>
       </c>
       <c r="S3">
-        <v>0.9981394084943137</v>
+        <v>0.9994341774461016</v>
       </c>
       <c r="T3">
-        <v>0.9994050764615467</v>
+        <v>1.00001237374206</v>
       </c>
       <c r="U3">
-        <v>0.9992724724928077</v>
+        <v>0.9999391102250155</v>
       </c>
       <c r="V3">
-        <v>0.9999523108919041</v>
+        <v>1.000242069892364</v>
       </c>
       <c r="W3">
-        <v>0.9995038037617351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999181362026079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005276694756781</v>
+        <v>1.01071250500818</v>
       </c>
       <c r="D4">
-        <v>0.9871959266931852</v>
+        <v>1.040265654633806</v>
       </c>
       <c r="E4">
-        <v>1.004213841176238</v>
+        <v>0.9310673697654354</v>
       </c>
       <c r="F4">
-        <v>1.005276694756781</v>
+        <v>0.9310673697654354</v>
       </c>
       <c r="G4">
-        <v>0.9978180325451801</v>
+        <v>0.9987190276508187</v>
       </c>
       <c r="H4">
-        <v>1.004458110680987</v>
+        <v>0.9572668719776942</v>
       </c>
       <c r="I4">
-        <v>1.005276694789274</v>
+        <v>1.005164394097468</v>
       </c>
       <c r="J4">
-        <v>0.9871959266931852</v>
+        <v>0.9845842931061094</v>
       </c>
       <c r="K4">
-        <v>0.9986899685888271</v>
+        <v>1.029494647550004</v>
       </c>
       <c r="L4">
-        <v>1.002427532241045</v>
+        <v>1.010712504989131</v>
       </c>
       <c r="M4">
-        <v>0.9923534124558286</v>
+        <v>1.010712504989131</v>
       </c>
       <c r="N4">
-        <v>1.005276694756781</v>
+        <v>1.010712504989131</v>
       </c>
       <c r="O4">
-        <v>1.004213841176238</v>
+        <v>1.040265654633806</v>
       </c>
       <c r="P4">
-        <v>0.9957048839347116</v>
+        <v>0.9856665121996206</v>
       </c>
       <c r="Q4">
-        <v>1.001015936860709</v>
+        <v>1.012424973869958</v>
       </c>
       <c r="R4">
-        <v>0.9988954875420681</v>
+        <v>0.9940151764627908</v>
       </c>
       <c r="S4">
-        <v>0.9964092668048677</v>
+        <v>0.9853057725017836</v>
       </c>
       <c r="T4">
-        <v>0.9988954875420681</v>
+        <v>0.9940151764627908</v>
       </c>
       <c r="U4">
-        <v>0.9986261237928461</v>
+        <v>0.9916574556236205</v>
       </c>
       <c r="V4">
-        <v>0.9999562379856333</v>
+        <v>0.9954684654967227</v>
       </c>
       <c r="W4">
-        <v>0.9990541898922591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9946593454713084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.01004281721985</v>
+        <v>1.051174181311241</v>
       </c>
       <c r="D5">
-        <v>0.9753725090915787</v>
+        <v>1.003732596844379</v>
       </c>
       <c r="E5">
-        <v>1.008090959389066</v>
+        <v>0.9425004739985599</v>
       </c>
       <c r="F5">
-        <v>1.01004281721985</v>
+        <v>0.9425004739985599</v>
       </c>
       <c r="G5">
-        <v>0.9958481074931417</v>
+        <v>0.983912892233429</v>
       </c>
       <c r="H5">
-        <v>1.008538436822263</v>
+        <v>0.9627081147262241</v>
       </c>
       <c r="I5">
-        <v>1.01004281721985</v>
+        <v>1.019639532391929</v>
       </c>
       <c r="J5">
-        <v>0.9753725090915787</v>
+        <v>0.9891236677737751</v>
       </c>
       <c r="K5">
-        <v>0.9975236739454477</v>
+        <v>1.018740850951009</v>
       </c>
       <c r="L5">
-        <v>1.004659457496058</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="M5">
-        <v>0.9853343008166785</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="N5">
-        <v>1.01004281721985</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="O5">
-        <v>1.008090959389066</v>
+        <v>1.003732596844379</v>
       </c>
       <c r="P5">
-        <v>0.9917317342403225</v>
+        <v>0.9731165354214694</v>
       </c>
       <c r="Q5">
-        <v>1.001969533441104</v>
+        <v>0.996428132309077</v>
       </c>
       <c r="R5">
-        <v>0.9978354285668317</v>
+        <v>0.9991357507132568</v>
       </c>
       <c r="S5">
-        <v>0.9931038586579288</v>
+        <v>0.9784522462055714</v>
       </c>
       <c r="T5">
-        <v>0.9978354285668317</v>
+        <v>0.9991357507132568</v>
       </c>
       <c r="U5">
-        <v>0.9973385982984092</v>
+        <v>0.9966327299783864</v>
       </c>
       <c r="V5">
-        <v>0.9998794420826973</v>
+        <v>1.007541020242076</v>
       </c>
       <c r="W5">
-        <v>0.9981762827842604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9964415387770171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.01477481472087</v>
+        <v>1.178453998079378</v>
       </c>
       <c r="D6">
-        <v>0.9638568943251323</v>
+        <v>0.9975549562659881</v>
       </c>
       <c r="E6">
-        <v>1.011849321932447</v>
+        <v>0.8134471270860065</v>
       </c>
       <c r="F6">
-        <v>1.01477481472087</v>
+        <v>0.8134471270860065</v>
       </c>
       <c r="G6">
-        <v>0.9939080808302241</v>
+        <v>0.9432087571217526</v>
       </c>
       <c r="H6">
-        <v>1.012504904208836</v>
+        <v>0.8806627868739442</v>
       </c>
       <c r="I6">
-        <v>1.01477481472087</v>
+        <v>1.07053587436342</v>
       </c>
       <c r="J6">
-        <v>0.9638568943251323</v>
+        <v>0.96852651723936</v>
       </c>
       <c r="K6">
-        <v>0.9963859707685212</v>
+        <v>1.056120117602346</v>
       </c>
       <c r="L6">
-        <v>1.006824511218225</v>
+        <v>1.178453998076614</v>
       </c>
       <c r="M6">
-        <v>0.9784935240810593</v>
+        <v>1.178453998076614</v>
       </c>
       <c r="N6">
-        <v>1.01477481472087</v>
+        <v>1.178453998076614</v>
       </c>
       <c r="O6">
-        <v>1.011849321932447</v>
+        <v>0.9975549562659881</v>
       </c>
       <c r="P6">
-        <v>0.9878531081287898</v>
+        <v>0.9055010416759973</v>
       </c>
       <c r="Q6">
-        <v>1.002878701381336</v>
+        <v>0.9830407367526741</v>
       </c>
       <c r="R6">
-        <v>0.9968270103261498</v>
+        <v>0.996485360476203</v>
       </c>
       <c r="S6">
-        <v>0.9898714323626012</v>
+        <v>0.9265095335304515</v>
       </c>
       <c r="T6">
-        <v>0.99682701032615</v>
+        <v>0.996485360476203</v>
       </c>
       <c r="U6">
-        <v>0.9960972779521685</v>
+        <v>0.9894956496669922</v>
       </c>
       <c r="V6">
-        <v>0.9998327853059088</v>
+        <v>1.027287319348917</v>
       </c>
       <c r="W6">
-        <v>0.9973247527606645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.9885637668286789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000481915271186</v>
+        <v>1.004009545210625</v>
       </c>
       <c r="D7">
-        <v>0.9995216955621613</v>
+        <v>1.001816498238199</v>
       </c>
       <c r="E7">
-        <v>0.9999970677195539</v>
+        <v>0.9930003412263579</v>
       </c>
       <c r="F7">
-        <v>1.000481915271186</v>
+        <v>0.9930003412263579</v>
       </c>
       <c r="G7">
-        <v>0.9999089423381856</v>
+        <v>0.9988740771248139</v>
       </c>
       <c r="H7">
-        <v>1.00015123126031</v>
+        <v>0.9956511089315332</v>
       </c>
       <c r="I7">
-        <v>1.000481915295016</v>
+        <v>1.001627908581143</v>
       </c>
       <c r="J7">
-        <v>0.9995216955621613</v>
+        <v>0.9986876414029028</v>
       </c>
       <c r="K7">
-        <v>0.9998460809925815</v>
+        <v>1.002451399740066</v>
       </c>
       <c r="L7">
-        <v>1.000181704884647</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="M7">
-        <v>0.9996853063747616</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="N7">
-        <v>1.000481915271186</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="O7">
-        <v>0.9999970677195539</v>
+        <v>1.001816498238199</v>
       </c>
       <c r="P7">
-        <v>0.9997593816408576</v>
+        <v>0.9974084197322787</v>
       </c>
       <c r="Q7">
-        <v>0.9999530050288697</v>
+        <v>1.000252069820551</v>
       </c>
       <c r="R7">
-        <v>1.0000002261843</v>
+        <v>0.9996087948841289</v>
       </c>
       <c r="S7">
-        <v>0.9998092352066337</v>
+        <v>0.99783482695582</v>
       </c>
       <c r="T7">
-        <v>1.0000002261843</v>
+        <v>0.9996087948841289</v>
       </c>
       <c r="U7">
-        <v>0.9999774052227718</v>
+        <v>0.9993785065138223</v>
       </c>
       <c r="V7">
-        <v>1.000078307232455</v>
+        <v>1.000304714248624</v>
       </c>
       <c r="W7">
-        <v>0.9999717430504234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9995148150541057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001453908561757</v>
+        <v>1.001190818976242</v>
       </c>
       <c r="D8">
-        <v>0.9985909529796232</v>
+        <v>0.9992629722108834</v>
       </c>
       <c r="E8">
-        <v>0.9999922596847987</v>
+        <v>0.9999031329269226</v>
       </c>
       <c r="F8">
-        <v>1.001453908561757</v>
+        <v>0.9999031329269226</v>
       </c>
       <c r="G8">
-        <v>0.9997193196738829</v>
+        <v>0.9995806917951455</v>
       </c>
       <c r="H8">
-        <v>1.000454555989036</v>
+        <v>0.9998799172280165</v>
       </c>
       <c r="I8">
-        <v>1.00145390858552</v>
+        <v>1.000419568695273</v>
       </c>
       <c r="J8">
-        <v>0.9985909529796232</v>
+        <v>1.000012579430458</v>
       </c>
       <c r="K8">
-        <v>0.9995337282971535</v>
+        <v>0.9998978580338117</v>
       </c>
       <c r="L8">
-        <v>1.000538859879839</v>
+        <v>1.001190818951468</v>
       </c>
       <c r="M8">
-        <v>0.9990615045547717</v>
+        <v>1.001190818951468</v>
       </c>
       <c r="N8">
-        <v>1.001453908561757</v>
+        <v>1.001190818951468</v>
       </c>
       <c r="O8">
-        <v>0.9999922596847987</v>
+        <v>0.9992629722108834</v>
       </c>
       <c r="P8">
-        <v>0.9992916063322109</v>
+        <v>0.999583052568903</v>
       </c>
       <c r="Q8">
-        <v>0.9998557896793407</v>
+        <v>0.9996377758206707</v>
       </c>
       <c r="R8">
-        <v>1.00001237374206</v>
+        <v>1.000118974696425</v>
       </c>
       <c r="S8">
-        <v>0.9994341774461016</v>
+        <v>0.9997262281894214</v>
       </c>
       <c r="T8">
-        <v>1.00001237374206</v>
+        <v>1.000118974696425</v>
       </c>
       <c r="U8">
-        <v>0.9999391102250155</v>
+        <v>1.000092375879933</v>
       </c>
       <c r="V8">
-        <v>1.000242069892364</v>
+        <v>1.00031206449424</v>
       </c>
       <c r="W8">
-        <v>0.9999181362026078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>1.000018442408997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002385721057856</v>
+        <v>1.005276694789274</v>
       </c>
       <c r="D9">
-        <v>0.9978259087387069</v>
+        <v>1.004213841176238</v>
       </c>
       <c r="E9">
-        <v>0.9999611946793487</v>
+        <v>0.9871959266931852</v>
       </c>
       <c r="F9">
-        <v>1.002385721057856</v>
+        <v>0.9871959266931852</v>
       </c>
       <c r="G9">
-        <v>0.9995323176832311</v>
+        <v>0.9986899685888267</v>
       </c>
       <c r="H9">
-        <v>1.000719604077231</v>
+        <v>0.9923534124558286</v>
       </c>
       <c r="I9">
-        <v>1.00238572107837</v>
+        <v>1.002427532241045</v>
       </c>
       <c r="J9">
-        <v>0.9978259087387069</v>
+        <v>0.9978180325451801</v>
       </c>
       <c r="K9">
-        <v>0.9992319357608671</v>
+        <v>1.004458110680987</v>
       </c>
       <c r="L9">
-        <v>1.000853880104174</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="M9">
-        <v>0.9985189080545973</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="N9">
-        <v>1.002385721057856</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="O9">
-        <v>0.9999611946793487</v>
+        <v>1.004213841176238</v>
       </c>
       <c r="P9">
-        <v>0.9988935517090278</v>
+        <v>0.9957048839347116</v>
       </c>
       <c r="Q9">
-        <v>0.9997467561812899</v>
+        <v>1.001015936860709</v>
       </c>
       <c r="R9">
-        <v>1.000057608158637</v>
+        <v>0.9988954875420681</v>
       </c>
       <c r="S9">
-        <v>0.9991064737004289</v>
+        <v>0.9964092668048677</v>
       </c>
       <c r="T9">
-        <v>1.000057608158637</v>
+        <v>0.9988954875420681</v>
       </c>
       <c r="U9">
-        <v>0.9999262855397859</v>
+        <v>0.9986261237928461</v>
       </c>
       <c r="V9">
-        <v>1.0004181726434</v>
+        <v>0.9999562379856333</v>
       </c>
       <c r="W9">
-        <v>0.9998786837695016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.9990541898922589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004766633911955</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="D10">
-        <v>0.9954548708381928</v>
+        <v>0.9964151800063394</v>
       </c>
       <c r="E10">
-        <v>0.9999811540726294</v>
+        <v>0.8104724873023529</v>
       </c>
       <c r="F10">
-        <v>1.004766633911955</v>
+        <v>0.8104724873023529</v>
       </c>
       <c r="G10">
-        <v>0.9990644243818962</v>
+        <v>0.9422004087823983</v>
       </c>
       <c r="H10">
-        <v>1.001484362164264</v>
+        <v>0.8790819091992212</v>
       </c>
       <c r="I10">
-        <v>1.004766633940443</v>
+        <v>1.072077946500672</v>
       </c>
       <c r="J10">
-        <v>0.9954548708381928</v>
+        <v>0.9684965268266118</v>
       </c>
       <c r="K10">
-        <v>0.998473914404315</v>
+        <v>1.056498335036442</v>
       </c>
       <c r="L10">
-        <v>1.001739221120548</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="M10">
-        <v>0.9969492412956806</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="N10">
-        <v>1.004766633911955</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="O10">
-        <v>0.9999811540726294</v>
+        <v>0.9964151800063394</v>
       </c>
       <c r="P10">
-        <v>0.9977180124554111</v>
+        <v>0.9034438336543462</v>
       </c>
       <c r="Q10">
-        <v>0.9995227892272629</v>
+        <v>0.9824558534164756</v>
       </c>
       <c r="R10">
-        <v>1.000067552940926</v>
+        <v>0.9962001590007752</v>
       </c>
       <c r="S10">
-        <v>0.9981668164309062</v>
+        <v>0.925128064711768</v>
       </c>
       <c r="T10">
-        <v>1.000067552940926</v>
+        <v>0.9962001590007751</v>
       </c>
       <c r="U10">
-        <v>0.9998167708011683</v>
+        <v>0.9892742509572342</v>
       </c>
       <c r="V10">
-        <v>1.000806743423326</v>
+        <v>1.027761962704514</v>
       </c>
       <c r="W10">
-        <v>0.9997392277736852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9883694504184588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008899989715931</v>
+        <v>0.9597395097240496</v>
       </c>
       <c r="D11">
-        <v>0.992046759409695</v>
+        <v>1.01133218133885</v>
       </c>
       <c r="E11">
-        <v>0.9997537028176349</v>
+        <v>1.024229790480107</v>
       </c>
       <c r="F11">
-        <v>1.008899989715931</v>
+        <v>1.024229790480107</v>
       </c>
       <c r="G11">
-        <v>0.9982873629632139</v>
+        <v>1.013369921165327</v>
       </c>
       <c r="H11">
-        <v>1.002618363477602</v>
+        <v>1.016531598059415</v>
       </c>
       <c r="I11">
-        <v>1.008899989736096</v>
+        <v>0.9850993202904015</v>
       </c>
       <c r="J11">
-        <v>0.992046759409695</v>
+        <v>1.003878876099057</v>
       </c>
       <c r="K11">
-        <v>0.9971281722982016</v>
+        <v>0.994569199862227</v>
       </c>
       <c r="L11">
-        <v>1.003180296161807</v>
+        <v>0.9597395096958578</v>
       </c>
       <c r="M11">
-        <v>0.9945679069843669</v>
+        <v>0.9597395096958578</v>
       </c>
       <c r="N11">
-        <v>1.008899989715931</v>
+        <v>0.9597395096958578</v>
       </c>
       <c r="O11">
-        <v>0.9997537028176349</v>
+        <v>1.01133218133885</v>
       </c>
       <c r="P11">
-        <v>0.9959002311136649</v>
+        <v>1.017780985909479</v>
       </c>
       <c r="Q11">
-        <v>0.9990205328904244</v>
+        <v>1.007605528718954</v>
       </c>
       <c r="R11">
-        <v>1.000233483981087</v>
+        <v>0.9984338271716053</v>
       </c>
       <c r="S11">
-        <v>0.9966959417301812</v>
+        <v>1.013146949306005</v>
       </c>
       <c r="T11">
-        <v>1.000233483981087</v>
+        <v>0.9984338271716052</v>
       </c>
       <c r="U11">
-        <v>0.9997469537266186</v>
+        <v>0.9997950894034682</v>
       </c>
       <c r="V11">
-        <v>1.001577560924481</v>
+        <v>0.9917839734619461</v>
       </c>
       <c r="W11">
-        <v>0.9995603192285565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>1.001093799623905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9327505013771253</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="D12">
-        <v>1.077875566654152</v>
+        <v>0.9976588557368424</v>
       </c>
       <c r="E12">
-        <v>0.9762330158735684</v>
+        <v>0.9457673339157907</v>
       </c>
       <c r="F12">
-        <v>0.9327505013771253</v>
+        <v>0.9457673339157907</v>
       </c>
       <c r="G12">
-        <v>1.024482490115383</v>
+        <v>0.9826218307473674</v>
       </c>
       <c r="H12">
-        <v>0.9647171518032476</v>
+        <v>0.9651468766631569</v>
       </c>
       <c r="I12">
-        <v>0.9327505013771253</v>
+        <v>1.02130981248421</v>
       </c>
       <c r="J12">
-        <v>1.077875566654152</v>
+        <v>0.9908253970421042</v>
       </c>
       <c r="K12">
-        <v>1.021710955533463</v>
+        <v>1.016028760926317</v>
       </c>
       <c r="L12">
-        <v>0.9800838050218617</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="M12">
-        <v>1.057481408489811</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="N12">
-        <v>0.9327505013771253</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="O12">
-        <v>0.9762330158735684</v>
+        <v>0.9976588557368424</v>
       </c>
       <c r="P12">
-        <v>1.02705429126386</v>
+        <v>0.9717130948263166</v>
       </c>
       <c r="Q12">
-        <v>1.000357752994476</v>
+        <v>0.9942421263894733</v>
       </c>
       <c r="R12">
-        <v>0.9956196946349483</v>
+        <v>0.9993311074982466</v>
       </c>
       <c r="S12">
-        <v>1.026197024214367</v>
+        <v>0.9780838622315792</v>
       </c>
       <c r="T12">
-        <v>0.9956196946349484</v>
+        <v>0.9993311074982465</v>
       </c>
       <c r="U12">
-        <v>1.002835393505057</v>
+        <v>0.9972046798842109</v>
       </c>
       <c r="V12">
-        <v>0.9888184150794708</v>
+        <v>1.00867717047579</v>
       </c>
       <c r="W12">
-        <v>1.004416861858576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9967407500447368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9900921358852428</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="D13">
-        <v>1.036007240714741</v>
+        <v>0.9915499824489222</v>
       </c>
       <c r="E13">
-        <v>0.9988463161350868</v>
+        <v>1.036894563430609</v>
       </c>
       <c r="F13">
-        <v>0.9900921358852428</v>
+        <v>1.036894563430609</v>
       </c>
       <c r="G13">
-        <v>0.9984324973959536</v>
+        <v>1.009492132866322</v>
       </c>
       <c r="H13">
-        <v>0.9946421571604955</v>
+        <v>1.025488077401818</v>
       </c>
       <c r="I13">
-        <v>0.9900921358852428</v>
+        <v>0.9898025199378065</v>
       </c>
       <c r="J13">
-        <v>1.036007240714741</v>
+        <v>1.009380526648756</v>
       </c>
       <c r="K13">
-        <v>1.001451786031242</v>
+        <v>0.9853086209559582</v>
       </c>
       <c r="L13">
-        <v>0.9900373190562111</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="M13">
-        <v>1.015546729611481</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="N13">
-        <v>0.9900921358852428</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="O13">
-        <v>0.9988463161350868</v>
+        <v>0.9915499824489222</v>
       </c>
       <c r="P13">
-        <v>1.017426778424914</v>
+        <v>1.014222272939765</v>
       </c>
       <c r="Q13">
-        <v>0.9986394067655202</v>
+        <v>1.000465254548839</v>
       </c>
       <c r="R13">
-        <v>1.00831523091169</v>
+        <v>0.9994793742807523</v>
       </c>
       <c r="S13">
-        <v>1.011095351415261</v>
+        <v>1.012608357509429</v>
       </c>
       <c r="T13">
-        <v>1.008315230911691</v>
+        <v>0.9994793742807523</v>
       </c>
       <c r="U13">
-        <v>1.005844547532756</v>
+        <v>1.001954662372753</v>
       </c>
       <c r="V13">
-        <v>1.002694065203254</v>
+        <v>0.9955624452907477</v>
       </c>
       <c r="W13">
-        <v>1.003132022748807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.002238750081615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.040069747390838</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="D14">
-        <v>0.6516761450233303</v>
+        <v>0.9917924599999995</v>
       </c>
       <c r="E14">
-        <v>1.209199652247677</v>
+        <v>0.6734232199999988</v>
       </c>
       <c r="F14">
-        <v>1.040069747390838</v>
+        <v>0.6734232199999988</v>
       </c>
       <c r="G14">
-        <v>0.9237961077339254</v>
+        <v>0.8993632600000008</v>
       </c>
       <c r="H14">
-        <v>1.148583995142008</v>
+        <v>0.7915523699999995</v>
       </c>
       <c r="I14">
-        <v>1.040069747390838</v>
+        <v>1.1253076</v>
       </c>
       <c r="J14">
-        <v>0.6516761450233303</v>
+        <v>0.9459444800000008</v>
       </c>
       <c r="K14">
-        <v>0.9987850161461427</v>
+        <v>1.0969651</v>
       </c>
       <c r="L14">
-        <v>1.022359811491003</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="M14">
-        <v>0.7863873948201391</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="N14">
-        <v>1.040069747390838</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="O14">
-        <v>1.209199652247677</v>
+        <v>0.9917924599999995</v>
       </c>
       <c r="P14">
-        <v>0.9304378986355035</v>
+        <v>0.8326078399999992</v>
       </c>
       <c r="Q14">
-        <v>1.066497879990801</v>
+        <v>0.9688684700000001</v>
       </c>
       <c r="R14">
-        <v>0.9669818482206151</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="S14">
-        <v>0.9282239683349776</v>
+        <v>0.8703867199999996</v>
       </c>
       <c r="T14">
-        <v>0.9669818482206152</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="U14">
-        <v>0.9561854130989427</v>
+        <v>0.98171889</v>
       </c>
       <c r="V14">
-        <v>0.9729622799573218</v>
+        <v>1.048518192</v>
       </c>
       <c r="W14">
-        <v>0.972607233749383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.98000798625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.106336191552012</v>
+        <v>1.9473815</v>
       </c>
       <c r="D15">
-        <v>0.9475836584497177</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E15">
-        <v>0.9557661289157814</v>
+        <v>0.25020352</v>
       </c>
       <c r="F15">
-        <v>1.106336191552012</v>
+        <v>0.25020352</v>
       </c>
       <c r="G15">
-        <v>0.9959359028426289</v>
+        <v>0.69115297</v>
       </c>
       <c r="H15">
-        <v>1.005518914289981</v>
+        <v>0.46000639</v>
       </c>
       <c r="I15">
-        <v>1.106336191552012</v>
+        <v>1.3157358</v>
       </c>
       <c r="J15">
-        <v>0.9475836584497177</v>
+        <v>0.80914508</v>
       </c>
       <c r="K15">
-        <v>0.9646994135719857</v>
+        <v>1.2643698</v>
       </c>
       <c r="L15">
-        <v>1.04113737355374</v>
+        <v>1.9473815</v>
       </c>
       <c r="M15">
-        <v>0.9661180440581996</v>
+        <v>1.9473815</v>
       </c>
       <c r="N15">
-        <v>1.106336191552012</v>
+        <v>1.9473815</v>
       </c>
       <c r="O15">
-        <v>0.9557661289157814</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="P15">
-        <v>0.9516748936827495</v>
+        <v>0.60601912</v>
       </c>
       <c r="Q15">
-        <v>0.9758510158792051</v>
+        <v>0.8854899000000001</v>
       </c>
       <c r="R15">
-        <v>1.00322865963917</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="S15">
-        <v>0.9664285634027093</v>
+        <v>0.6737277733333333</v>
       </c>
       <c r="T15">
-        <v>1.00322865963917</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="U15">
-        <v>1.001405470440035</v>
+        <v>0.992141205</v>
       </c>
       <c r="V15">
-        <v>1.02239161466243</v>
+        <v>1.183189264</v>
       </c>
       <c r="W15">
-        <v>0.9978869534042556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.9624787225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9995539263881777</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="D16">
-        <v>0.9997535302191403</v>
+        <v>1.3679559</v>
       </c>
       <c r="E16">
-        <v>1.000459974676071</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F16">
-        <v>0.9995539263881777</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="G16">
-        <v>0.9999368944194996</v>
+        <v>1.0304204</v>
       </c>
       <c r="H16">
-        <v>1.000160177835483</v>
+        <v>0.7044202899999999</v>
       </c>
       <c r="I16">
-        <v>0.9995539264116411</v>
+        <v>0.99179431</v>
       </c>
       <c r="J16">
-        <v>0.9997535302191403</v>
+        <v>0.88250028</v>
       </c>
       <c r="K16">
-        <v>1.000165272314364</v>
+        <v>1.2254093</v>
       </c>
       <c r="L16">
-        <v>0.9998544242145665</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="M16">
-        <v>0.9998749812763579</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="N16">
-        <v>0.9995539263881777</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="O16">
-        <v>1.000459974676071</v>
+        <v>1.3679559</v>
       </c>
       <c r="P16">
-        <v>1.000106752447606</v>
+        <v>0.9454310349999998</v>
       </c>
       <c r="Q16">
-        <v>1.000198434547785</v>
+        <v>1.12522809</v>
       </c>
       <c r="R16">
-        <v>0.9999224770944631</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="S16">
-        <v>1.000050133104904</v>
+        <v>0.9244541166666665</v>
       </c>
       <c r="T16">
-        <v>0.9999224770944629</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="U16">
-        <v>0.9999260814257221</v>
+        <v>0.9337992674999999</v>
       </c>
       <c r="V16">
-        <v>0.9998516504182133</v>
+        <v>0.9394063579999999</v>
       </c>
       <c r="W16">
-        <v>0.9999698976679576</v>
+        <v>0.9609051712499999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001190818951468</v>
+        <v>1.315746</v>
       </c>
       <c r="D17">
-        <v>0.9999031329269226</v>
+        <v>0.99179523</v>
       </c>
       <c r="E17">
-        <v>0.9992629722108833</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="F17">
-        <v>1.001190818951468</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="G17">
-        <v>1.000012579430458</v>
+        <v>0.89935332</v>
       </c>
       <c r="H17">
-        <v>0.9998978580338117</v>
+        <v>0.79153199</v>
       </c>
       <c r="I17">
-        <v>1.001190818976242</v>
+        <v>1.1253174</v>
       </c>
       <c r="J17">
-        <v>0.9999031329269226</v>
+        <v>0.9459367000000001</v>
       </c>
       <c r="K17">
-        <v>0.9995806917951455</v>
+        <v>1.0969762</v>
       </c>
       <c r="L17">
-        <v>1.000419568695273</v>
+        <v>1.315746</v>
       </c>
       <c r="M17">
-        <v>0.9998799172280165</v>
+        <v>1.315746</v>
       </c>
       <c r="N17">
-        <v>1.001190818951468</v>
+        <v>1.315746</v>
       </c>
       <c r="O17">
-        <v>0.9992629722108833</v>
+        <v>0.99179523</v>
       </c>
       <c r="P17">
-        <v>0.9995830525689029</v>
+        <v>0.83259519</v>
       </c>
       <c r="Q17">
-        <v>0.9996377758206707</v>
+        <v>0.968865965</v>
       </c>
       <c r="R17">
-        <v>1.000118974696425</v>
+        <v>0.9936454600000001</v>
       </c>
       <c r="S17">
-        <v>0.9997262281894214</v>
+        <v>0.8703756933333334</v>
       </c>
       <c r="T17">
-        <v>1.000118974696425</v>
+        <v>0.9936454600000001</v>
       </c>
       <c r="U17">
-        <v>1.000092375879933</v>
+        <v>0.98171827</v>
       </c>
       <c r="V17">
-        <v>1.00031206449424</v>
+        <v>1.048523816</v>
       </c>
       <c r="W17">
-        <v>1.000018442408997</v>
+        <v>0.98000649875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.999277125034813</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="D18">
-        <v>0.9972085398464491</v>
+        <v>1.053573480547945</v>
       </c>
       <c r="E18">
-        <v>1.002221450650571</v>
+        <v>0.8365002720547943</v>
       </c>
       <c r="F18">
-        <v>0.999277125034813</v>
+        <v>0.8365002720547943</v>
       </c>
       <c r="G18">
-        <v>0.9994482749412861</v>
+        <v>0.9820213719178084</v>
       </c>
       <c r="H18">
-        <v>1.001228137797571</v>
+        <v>0.901367941780822</v>
       </c>
       <c r="I18">
-        <v>0.9992771250380574</v>
+        <v>1.031463550410958</v>
       </c>
       <c r="J18">
-        <v>0.9972085398464491</v>
+        <v>0.9711027775342467</v>
       </c>
       <c r="K18">
-        <v>1.000368759505134</v>
+        <v>1.057636789589041</v>
       </c>
       <c r="L18">
-        <v>0.9998666525512149</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="M18">
-        <v>0.9984076772647736</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="N18">
-        <v>0.999277125034813</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="O18">
-        <v>1.002221450650571</v>
+        <v>1.053573480547945</v>
       </c>
       <c r="P18">
-        <v>0.9997149952485098</v>
+        <v>0.9450368763013697</v>
       </c>
       <c r="Q18">
-        <v>1.000834862795928</v>
+        <v>1.012338129041096</v>
       </c>
       <c r="R18">
-        <v>0.9995690385106109</v>
+        <v>0.9869331802739724</v>
       </c>
       <c r="S18">
-        <v>0.9996260884794351</v>
+        <v>0.9537255100456621</v>
       </c>
       <c r="T18">
-        <v>0.9995690385106109</v>
+        <v>0.9869331802739724</v>
       </c>
       <c r="U18">
-        <v>0.9995388476182796</v>
+        <v>0.9829755795890409</v>
       </c>
       <c r="V18">
-        <v>0.9994865031015863</v>
+        <v>1.000525621315068</v>
       </c>
       <c r="W18">
-        <v>0.9997533271989765</v>
+        <v>0.9880489965068492</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9952372218503378</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="D19">
-        <v>0.9919190465299018</v>
+        <v>1.179875067894737</v>
       </c>
       <c r="E19">
-        <v>1.008207147055852</v>
+        <v>0.5981558321052632</v>
       </c>
       <c r="F19">
-        <v>0.9952372218503378</v>
+        <v>0.5981558321052632</v>
       </c>
       <c r="G19">
-        <v>0.9983395977520011</v>
+        <v>0.9648886836842107</v>
       </c>
       <c r="H19">
-        <v>1.003864682690461</v>
+        <v>0.7479798968421051</v>
       </c>
       <c r="I19">
-        <v>0.9952372218503378</v>
+        <v>1.05855405368421</v>
       </c>
       <c r="J19">
-        <v>0.9919190465299018</v>
+        <v>0.9142199231578947</v>
       </c>
       <c r="K19">
-        <v>1.002020141764278</v>
+        <v>1.161190721052632</v>
       </c>
       <c r="L19">
-        <v>0.9986837438535473</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="M19">
-        <v>0.9955393074390739</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="N19">
-        <v>0.9952372218503378</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="O19">
-        <v>1.008207147055852</v>
+        <v>1.179875067894737</v>
       </c>
       <c r="P19">
-        <v>1.000063096792877</v>
+        <v>0.88901545</v>
       </c>
       <c r="Q19">
-        <v>1.003273372403927</v>
+        <v>1.047047495526316</v>
       </c>
       <c r="R19">
-        <v>0.9984544718120306</v>
+        <v>0.9722718759649123</v>
       </c>
       <c r="S19">
-        <v>0.9994885971125852</v>
+        <v>0.8974169410526316</v>
       </c>
       <c r="T19">
-        <v>0.9984544718120306</v>
+        <v>0.9722718759649123</v>
       </c>
       <c r="U19">
-        <v>0.9984257532970233</v>
+        <v>0.9577588877631579</v>
       </c>
       <c r="V19">
-        <v>0.9977880470076862</v>
+        <v>0.9939640557894738</v>
       </c>
       <c r="W19">
-        <v>0.9992263611169317</v>
+        <v>0.9704561132894737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9584450536842106</v>
+      </c>
+      <c r="E20">
+        <v>0.902852880526316</v>
+      </c>
+      <c r="F20">
+        <v>0.902852880526316</v>
+      </c>
+      <c r="G20">
+        <v>0.9299733673684212</v>
+      </c>
+      <c r="H20">
+        <v>0.9182136068421052</v>
+      </c>
+      <c r="I20">
+        <v>1.063570825263158</v>
+      </c>
+      <c r="J20">
+        <v>0.9675590763157895</v>
+      </c>
+      <c r="K20">
+        <v>1.034787876842105</v>
+      </c>
+      <c r="L20">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="M20">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="N20">
+        <v>1.203647388421053</v>
+      </c>
+      <c r="O20">
+        <v>0.9584450536842106</v>
+      </c>
+      <c r="P20">
+        <v>0.9306489671052633</v>
+      </c>
+      <c r="Q20">
+        <v>0.9630020650000001</v>
+      </c>
+      <c r="R20">
+        <v>1.021648440877193</v>
+      </c>
+      <c r="S20">
+        <v>0.9429523368421053</v>
+      </c>
+      <c r="T20">
+        <v>1.021648440877193</v>
+      </c>
+      <c r="U20">
+        <v>1.008126099736842</v>
+      </c>
+      <c r="V20">
+        <v>1.047230357473684</v>
+      </c>
+      <c r="W20">
+        <v>0.9973812594078948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="D21">
+        <v>1.209199652247677</v>
+      </c>
+      <c r="E21">
+        <v>0.6516761450233303</v>
+      </c>
+      <c r="F21">
+        <v>0.6516761450233303</v>
+      </c>
+      <c r="G21">
+        <v>0.9987850161461427</v>
+      </c>
+      <c r="H21">
+        <v>0.7863873948201391</v>
+      </c>
+      <c r="I21">
+        <v>1.022359811491003</v>
+      </c>
+      <c r="J21">
+        <v>0.9237961077339254</v>
+      </c>
+      <c r="K21">
+        <v>1.148583995142008</v>
+      </c>
+      <c r="L21">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="M21">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="N21">
+        <v>1.040069747390838</v>
+      </c>
+      <c r="O21">
+        <v>1.209199652247677</v>
+      </c>
+      <c r="P21">
+        <v>0.9304378986355035</v>
+      </c>
+      <c r="Q21">
+        <v>1.066497879990801</v>
+      </c>
+      <c r="R21">
+        <v>0.9669818482206151</v>
+      </c>
+      <c r="S21">
+        <v>0.9282239683349776</v>
+      </c>
+      <c r="T21">
+        <v>0.9669818482206152</v>
+      </c>
+      <c r="U21">
+        <v>0.9561854130989427</v>
+      </c>
+      <c r="V21">
+        <v>0.9729622799573218</v>
+      </c>
+      <c r="W21">
+        <v>0.972607233749383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="D22">
+        <v>0.9557661289157814</v>
+      </c>
+      <c r="E22">
+        <v>0.9475836584497177</v>
+      </c>
+      <c r="F22">
+        <v>0.9475836584497177</v>
+      </c>
+      <c r="G22">
+        <v>0.9646994135719857</v>
+      </c>
+      <c r="H22">
+        <v>0.9661180440581996</v>
+      </c>
+      <c r="I22">
+        <v>1.04113737355374</v>
+      </c>
+      <c r="J22">
+        <v>0.9959359028426287</v>
+      </c>
+      <c r="K22">
+        <v>1.005518914289981</v>
+      </c>
+      <c r="L22">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="M22">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="N22">
+        <v>1.106336191552012</v>
+      </c>
+      <c r="O22">
+        <v>0.9557661289157814</v>
+      </c>
+      <c r="P22">
+        <v>0.9516748936827495</v>
+      </c>
+      <c r="Q22">
+        <v>0.9758510158792051</v>
+      </c>
+      <c r="R22">
+        <v>1.00322865963917</v>
+      </c>
+      <c r="S22">
+        <v>0.9664285634027093</v>
+      </c>
+      <c r="T22">
+        <v>1.00322865963917</v>
+      </c>
+      <c r="U22">
+        <v>1.001405470440035</v>
+      </c>
+      <c r="V22">
+        <v>1.02239161466243</v>
+      </c>
+      <c r="W22">
+        <v>0.9978869534042556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="D23">
+        <v>0.9762330158735684</v>
+      </c>
+      <c r="E23">
+        <v>1.077875566654152</v>
+      </c>
+      <c r="F23">
+        <v>1.077875566654152</v>
+      </c>
+      <c r="G23">
+        <v>1.021710955533463</v>
+      </c>
+      <c r="H23">
+        <v>1.057481408489811</v>
+      </c>
+      <c r="I23">
+        <v>0.9800838050218617</v>
+      </c>
+      <c r="J23">
+        <v>1.024482490115383</v>
+      </c>
+      <c r="K23">
+        <v>0.9647171518032476</v>
+      </c>
+      <c r="L23">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="M23">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="N23">
+        <v>0.9327505013771252</v>
+      </c>
+      <c r="O23">
+        <v>0.9762330158735684</v>
+      </c>
+      <c r="P23">
+        <v>1.02705429126386</v>
+      </c>
+      <c r="Q23">
+        <v>1.000357752994476</v>
+      </c>
+      <c r="R23">
+        <v>0.9956196946349483</v>
+      </c>
+      <c r="S23">
+        <v>1.026197024214367</v>
+      </c>
+      <c r="T23">
+        <v>0.9956196946349484</v>
+      </c>
+      <c r="U23">
+        <v>1.002835393505057</v>
+      </c>
+      <c r="V23">
+        <v>0.9888184150794708</v>
+      </c>
+      <c r="W23">
+        <v>1.004416861858576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="D24">
+        <v>0.9988463161350868</v>
+      </c>
+      <c r="E24">
+        <v>1.036007240714741</v>
+      </c>
+      <c r="F24">
+        <v>1.036007240714741</v>
+      </c>
+      <c r="G24">
+        <v>1.001451786031242</v>
+      </c>
+      <c r="H24">
+        <v>1.015546729611481</v>
+      </c>
+      <c r="I24">
+        <v>0.9900373190562111</v>
+      </c>
+      <c r="J24">
+        <v>0.9984324973959537</v>
+      </c>
+      <c r="K24">
+        <v>0.9946421571604955</v>
+      </c>
+      <c r="L24">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="M24">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="N24">
+        <v>0.9900921358852428</v>
+      </c>
+      <c r="O24">
+        <v>0.9988463161350868</v>
+      </c>
+      <c r="P24">
+        <v>1.017426778424914</v>
+      </c>
+      <c r="Q24">
+        <v>0.9986394067655202</v>
+      </c>
+      <c r="R24">
+        <v>1.00831523091169</v>
+      </c>
+      <c r="S24">
+        <v>1.011095351415261</v>
+      </c>
+      <c r="T24">
+        <v>1.008315230911691</v>
+      </c>
+      <c r="U24">
+        <v>1.005844547532756</v>
+      </c>
+      <c r="V24">
+        <v>1.002694065203254</v>
+      </c>
+      <c r="W24">
+        <v>1.003132022748807</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8891897232074135</v>
+      </c>
+      <c r="D25">
+        <v>0.8700938881453506</v>
+      </c>
+      <c r="E25">
+        <v>1.335059362818471</v>
+      </c>
+      <c r="F25">
+        <v>1.335059362818471</v>
+      </c>
+      <c r="G25">
+        <v>1.025495191499471</v>
+      </c>
+      <c r="H25">
+        <v>1.199682373346531</v>
+      </c>
+      <c r="I25">
+        <v>0.9457781502085674</v>
+      </c>
+      <c r="J25">
+        <v>1.0585806189888</v>
+      </c>
+      <c r="K25">
+        <v>0.8787733902091969</v>
+      </c>
+      <c r="L25">
+        <v>0.8891897232074135</v>
+      </c>
+      <c r="M25">
+        <v>0.8891897232074135</v>
+      </c>
+      <c r="N25">
+        <v>0.8891897232074135</v>
+      </c>
+      <c r="O25">
+        <v>0.8700938881453506</v>
+      </c>
+      <c r="P25">
+        <v>1.102576625481911</v>
+      </c>
+      <c r="Q25">
+        <v>0.9643372535670751</v>
+      </c>
+      <c r="R25">
+        <v>1.031447658057078</v>
+      </c>
+      <c r="S25">
+        <v>1.087911289984207</v>
+      </c>
+      <c r="T25">
+        <v>1.031447658057078</v>
+      </c>
+      <c r="U25">
+        <v>1.038230898290009</v>
+      </c>
+      <c r="V25">
+        <v>1.00842266327349</v>
+      </c>
+      <c r="W25">
+        <v>1.025331587302975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9161622664843135</v>
+      </c>
+      <c r="D26">
+        <v>0.9994315001503501</v>
+      </c>
+      <c r="E26">
+        <v>1.042646020189346</v>
+      </c>
+      <c r="F26">
+        <v>1.042646020189346</v>
+      </c>
+      <c r="G26">
+        <v>1.029893399475942</v>
+      </c>
+      <c r="H26">
+        <v>1.04208452914443</v>
+      </c>
+      <c r="I26">
+        <v>0.9787760541977187</v>
+      </c>
+      <c r="J26">
+        <v>1.022827998984553</v>
+      </c>
+      <c r="K26">
+        <v>0.9753007792965602</v>
+      </c>
+      <c r="L26">
+        <v>0.9161622664843135</v>
+      </c>
+      <c r="M26">
+        <v>0.9161622664843135</v>
+      </c>
+      <c r="N26">
+        <v>0.9161622664843135</v>
+      </c>
+      <c r="O26">
+        <v>0.9994315001503501</v>
+      </c>
+      <c r="P26">
+        <v>1.021038760169848</v>
+      </c>
+      <c r="Q26">
+        <v>1.011129749567451</v>
+      </c>
+      <c r="R26">
+        <v>0.9860799289413366</v>
+      </c>
+      <c r="S26">
+        <v>1.021635173108083</v>
+      </c>
+      <c r="T26">
+        <v>0.9860799289413364</v>
+      </c>
+      <c r="U26">
+        <v>0.9952669464521405</v>
+      </c>
+      <c r="V26">
+        <v>0.979446010458575</v>
+      </c>
+      <c r="W26">
+        <v>1.000890318490402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="D27">
+        <v>1.012021425212565</v>
+      </c>
+      <c r="E27">
+        <v>0.9870583031156928</v>
+      </c>
+      <c r="F27">
+        <v>0.9870583031156928</v>
+      </c>
+      <c r="G27">
+        <v>0.994171849445102</v>
+      </c>
+      <c r="H27">
+        <v>0.985786114993309</v>
+      </c>
+      <c r="I27">
+        <v>1.001590068238967</v>
+      </c>
+      <c r="J27">
+        <v>0.9905202413174585</v>
+      </c>
+      <c r="K27">
+        <v>1.011617922621291</v>
+      </c>
+      <c r="L27">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="M27">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="N27">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="O27">
+        <v>1.012021425212565</v>
+      </c>
+      <c r="P27">
+        <v>0.9995398641641291</v>
+      </c>
+      <c r="Q27">
+        <v>1.001270833265012</v>
+      </c>
+      <c r="R27">
+        <v>1.004274304798944</v>
+      </c>
+      <c r="S27">
+        <v>0.9965333232152389</v>
+      </c>
+      <c r="T27">
+        <v>1.004274304798944</v>
+      </c>
+      <c r="U27">
+        <v>1.000835788928572</v>
+      </c>
+      <c r="V27">
+        <v>1.003417268356573</v>
+      </c>
+      <c r="W27">
+        <v>0.9995636388766198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="D28">
+        <v>1.017468996905622</v>
+      </c>
+      <c r="E28">
+        <v>0.9738037626342676</v>
+      </c>
+      <c r="F28">
+        <v>0.9738037626342676</v>
+      </c>
+      <c r="G28">
+        <v>1.00036728295652</v>
+      </c>
+      <c r="H28">
+        <v>0.9836749017777753</v>
+      </c>
+      <c r="I28">
+        <v>1.00091972022791</v>
+      </c>
+      <c r="J28">
+        <v>0.9937750843843464</v>
+      </c>
+      <c r="K28">
+        <v>1.011791817134951</v>
+      </c>
+      <c r="L28">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="M28">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="N28">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="O28">
+        <v>1.017468996905622</v>
+      </c>
+      <c r="P28">
+        <v>0.995636379769945</v>
+      </c>
+      <c r="Q28">
+        <v>1.005622040644984</v>
+      </c>
+      <c r="R28">
+        <v>0.9976389052648864</v>
+      </c>
+      <c r="S28">
+        <v>0.9950159479747455</v>
+      </c>
+      <c r="T28">
+        <v>0.9976389052648864</v>
+      </c>
+      <c r="U28">
+        <v>0.9966729500447514</v>
+      </c>
+      <c r="V28">
+        <v>0.9976671512867549</v>
+      </c>
+      <c r="W28">
+        <v>0.9979306902845201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9795137968160494</v>
+      </c>
+      <c r="D29">
+        <v>0.9821867538012831</v>
+      </c>
+      <c r="E29">
+        <v>1.045067032618255</v>
+      </c>
+      <c r="F29">
+        <v>1.045067032618255</v>
+      </c>
+      <c r="G29">
+        <v>1.005532795426475</v>
+      </c>
+      <c r="H29">
+        <v>1.028803349119875</v>
+      </c>
+      <c r="I29">
+        <v>0.9921901617571049</v>
+      </c>
+      <c r="J29">
+        <v>1.010015227722826</v>
+      </c>
+      <c r="K29">
+        <v>0.9821095615133777</v>
+      </c>
+      <c r="L29">
+        <v>0.9795137968160494</v>
+      </c>
+      <c r="M29">
+        <v>0.9795137968160494</v>
+      </c>
+      <c r="N29">
+        <v>0.9795137968160494</v>
+      </c>
+      <c r="O29">
+        <v>0.9821867538012831</v>
+      </c>
+      <c r="P29">
+        <v>1.013626893209769</v>
+      </c>
+      <c r="Q29">
+        <v>0.9961009907620544</v>
+      </c>
+      <c r="R29">
+        <v>1.002255861078529</v>
+      </c>
+      <c r="S29">
+        <v>1.012423004714121</v>
+      </c>
+      <c r="T29">
+        <v>1.002255861078529</v>
+      </c>
+      <c r="U29">
+        <v>1.004195702739603</v>
+      </c>
+      <c r="V29">
+        <v>0.9992593215548926</v>
+      </c>
+      <c r="W29">
+        <v>1.003177334846906</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.01071250500818</v>
+        <v>1.03796193017984</v>
       </c>
       <c r="D4">
-        <v>1.040265654633806</v>
+        <v>1.003567162736349</v>
       </c>
       <c r="E4">
-        <v>0.9310673697654354</v>
+        <v>0.9556535090211048</v>
       </c>
       <c r="F4">
-        <v>0.9310673697654354</v>
+        <v>0.9556535090211048</v>
       </c>
       <c r="G4">
-        <v>0.9987190276508187</v>
+        <v>0.9881307677971153</v>
       </c>
       <c r="H4">
-        <v>0.9572668719776942</v>
+        <v>0.9714445167535531</v>
       </c>
       <c r="I4">
-        <v>1.005164394097468</v>
+        <v>1.014739212876463</v>
       </c>
       <c r="J4">
-        <v>0.9845842931061094</v>
+        <v>0.9917514094908387</v>
       </c>
       <c r="K4">
-        <v>1.029494647550004</v>
+        <v>1.014460976314533</v>
       </c>
       <c r="L4">
-        <v>1.010712504989131</v>
+        <v>1.037961930164443</v>
       </c>
       <c r="M4">
-        <v>1.010712504989131</v>
+        <v>1.037961930164443</v>
       </c>
       <c r="N4">
-        <v>1.010712504989131</v>
+        <v>1.037961930164443</v>
       </c>
       <c r="O4">
-        <v>1.040265654633806</v>
+        <v>1.003567162736349</v>
       </c>
       <c r="P4">
-        <v>0.9856665121996206</v>
+        <v>0.9796103358787269</v>
       </c>
       <c r="Q4">
-        <v>1.012424973869958</v>
+        <v>0.997659286113594</v>
       </c>
       <c r="R4">
-        <v>0.9940151764627908</v>
+        <v>0.9990608673072989</v>
       </c>
       <c r="S4">
-        <v>0.9853057725017836</v>
+        <v>0.9836573604160975</v>
       </c>
       <c r="T4">
-        <v>0.9940151764627908</v>
+        <v>0.9990608673072989</v>
       </c>
       <c r="U4">
-        <v>0.9916574556236205</v>
+        <v>0.9972335028531839</v>
       </c>
       <c r="V4">
-        <v>0.9954684654967227</v>
+        <v>1.005379188315436</v>
       </c>
       <c r="W4">
-        <v>0.9946593454713084</v>
+        <v>0.9972136856442999</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.051174181311241</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="D5">
-        <v>1.003732596844379</v>
+        <v>0.956267196652189</v>
       </c>
       <c r="E5">
-        <v>0.9425004739985599</v>
+        <v>0.9360738724884426</v>
       </c>
       <c r="F5">
-        <v>0.9425004739985599</v>
+        <v>0.9360738724884426</v>
       </c>
       <c r="G5">
-        <v>0.983912892233429</v>
+        <v>0.9382874353532754</v>
       </c>
       <c r="H5">
-        <v>0.9627081147262241</v>
+        <v>0.9389422246685208</v>
       </c>
       <c r="I5">
-        <v>1.019639532391929</v>
+        <v>1.052564233993229</v>
       </c>
       <c r="J5">
-        <v>0.9891236677737751</v>
+        <v>0.973007933011741</v>
       </c>
       <c r="K5">
-        <v>1.018740850951009</v>
+        <v>1.024601649194087</v>
       </c>
       <c r="L5">
-        <v>1.051174181296832</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="M5">
-        <v>1.051174181296832</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="N5">
-        <v>1.051174181296832</v>
+        <v>1.176511027472964</v>
       </c>
       <c r="O5">
-        <v>1.003732596844379</v>
+        <v>0.956267196652189</v>
       </c>
       <c r="P5">
-        <v>0.9731165354214694</v>
+        <v>0.9461705345703157</v>
       </c>
       <c r="Q5">
-        <v>0.996428132309077</v>
+        <v>0.9646375648319649</v>
       </c>
       <c r="R5">
-        <v>0.9991357507132568</v>
+        <v>1.022950698871198</v>
       </c>
       <c r="S5">
-        <v>0.9784522462055714</v>
+        <v>0.9551163340507909</v>
       </c>
       <c r="T5">
-        <v>0.9991357507132568</v>
+        <v>1.022950698871198</v>
       </c>
       <c r="U5">
-        <v>0.9966327299783864</v>
+        <v>1.010465007406334</v>
       </c>
       <c r="V5">
-        <v>1.007541020242076</v>
+        <v>1.04367421141966</v>
       </c>
       <c r="W5">
-        <v>0.9964415387770171</v>
+        <v>0.999531946604306</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.178453998079378</v>
+        <v>1.01071250500818</v>
       </c>
       <c r="D6">
-        <v>0.9975549562659881</v>
+        <v>1.040265654633806</v>
       </c>
       <c r="E6">
-        <v>0.8134471270860065</v>
+        <v>0.9310673697654354</v>
       </c>
       <c r="F6">
-        <v>0.8134471270860065</v>
+        <v>0.9310673697654354</v>
       </c>
       <c r="G6">
-        <v>0.9432087571217526</v>
+        <v>0.9987190276508187</v>
       </c>
       <c r="H6">
-        <v>0.8806627868739442</v>
+        <v>0.9572668719776942</v>
       </c>
       <c r="I6">
-        <v>1.07053587436342</v>
+        <v>1.005164394097468</v>
       </c>
       <c r="J6">
-        <v>0.96852651723936</v>
+        <v>0.9845842931061094</v>
       </c>
       <c r="K6">
-        <v>1.056120117602346</v>
+        <v>1.029494647550004</v>
       </c>
       <c r="L6">
-        <v>1.178453998076614</v>
+        <v>1.010712504989131</v>
       </c>
       <c r="M6">
-        <v>1.178453998076614</v>
+        <v>1.010712504989131</v>
       </c>
       <c r="N6">
-        <v>1.178453998076614</v>
+        <v>1.010712504989131</v>
       </c>
       <c r="O6">
-        <v>0.9975549562659881</v>
+        <v>1.040265654633806</v>
       </c>
       <c r="P6">
-        <v>0.9055010416759973</v>
+        <v>0.9856665121996206</v>
       </c>
       <c r="Q6">
-        <v>0.9830407367526741</v>
+        <v>1.012424973869958</v>
       </c>
       <c r="R6">
-        <v>0.996485360476203</v>
+        <v>0.9940151764627908</v>
       </c>
       <c r="S6">
-        <v>0.9265095335304515</v>
+        <v>0.9853057725017836</v>
       </c>
       <c r="T6">
-        <v>0.996485360476203</v>
+        <v>0.9940151764627908</v>
       </c>
       <c r="U6">
-        <v>0.9894956496669922</v>
+        <v>0.9916574556236205</v>
       </c>
       <c r="V6">
-        <v>1.027287319348917</v>
+        <v>0.9954684654967227</v>
       </c>
       <c r="W6">
-        <v>0.9885637668286789</v>
+        <v>0.9946593454713084</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.004009545210625</v>
+        <v>1.051174181311241</v>
       </c>
       <c r="D7">
-        <v>1.001816498238199</v>
+        <v>1.003732596844379</v>
       </c>
       <c r="E7">
-        <v>0.9930003412263579</v>
+        <v>0.9425004739985599</v>
       </c>
       <c r="F7">
-        <v>0.9930003412263579</v>
+        <v>0.9425004739985599</v>
       </c>
       <c r="G7">
-        <v>0.9988740771248139</v>
+        <v>0.983912892233429</v>
       </c>
       <c r="H7">
-        <v>0.9956511089315332</v>
+        <v>0.9627081147262241</v>
       </c>
       <c r="I7">
-        <v>1.001627908581143</v>
+        <v>1.019639532391929</v>
       </c>
       <c r="J7">
-        <v>0.9986876414029028</v>
+        <v>0.9891236677737751</v>
       </c>
       <c r="K7">
-        <v>1.002451399740066</v>
+        <v>1.018740850951009</v>
       </c>
       <c r="L7">
-        <v>1.004009545187829</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="M7">
-        <v>1.004009545187829</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="N7">
-        <v>1.004009545187829</v>
+        <v>1.051174181296832</v>
       </c>
       <c r="O7">
-        <v>1.001816498238199</v>
+        <v>1.003732596844379</v>
       </c>
       <c r="P7">
-        <v>0.9974084197322787</v>
+        <v>0.9731165354214694</v>
       </c>
       <c r="Q7">
-        <v>1.000252069820551</v>
+        <v>0.996428132309077</v>
       </c>
       <c r="R7">
-        <v>0.9996087948841289</v>
+        <v>0.9991357507132568</v>
       </c>
       <c r="S7">
-        <v>0.99783482695582</v>
+        <v>0.9784522462055714</v>
       </c>
       <c r="T7">
-        <v>0.9996087948841289</v>
+        <v>0.9991357507132568</v>
       </c>
       <c r="U7">
-        <v>0.9993785065138223</v>
+        <v>0.9966327299783864</v>
       </c>
       <c r="V7">
-        <v>1.000304714248624</v>
+        <v>1.007541020242076</v>
       </c>
       <c r="W7">
-        <v>0.9995148150541057</v>
+        <v>0.9964415387770171</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001190818976242</v>
+        <v>1.178453998079378</v>
       </c>
       <c r="D8">
-        <v>0.9992629722108834</v>
+        <v>0.9975549562659881</v>
       </c>
       <c r="E8">
-        <v>0.9999031329269226</v>
+        <v>0.8134471270860065</v>
       </c>
       <c r="F8">
-        <v>0.9999031329269226</v>
+        <v>0.8134471270860065</v>
       </c>
       <c r="G8">
-        <v>0.9995806917951455</v>
+        <v>0.9432087571217526</v>
       </c>
       <c r="H8">
-        <v>0.9998799172280165</v>
+        <v>0.8806627868739442</v>
       </c>
       <c r="I8">
-        <v>1.000419568695273</v>
+        <v>1.07053587436342</v>
       </c>
       <c r="J8">
-        <v>1.000012579430458</v>
+        <v>0.96852651723936</v>
       </c>
       <c r="K8">
-        <v>0.9998978580338117</v>
+        <v>1.056120117602346</v>
       </c>
       <c r="L8">
-        <v>1.001190818951468</v>
+        <v>1.178453998076614</v>
       </c>
       <c r="M8">
-        <v>1.001190818951468</v>
+        <v>1.178453998076614</v>
       </c>
       <c r="N8">
-        <v>1.001190818951468</v>
+        <v>1.178453998076614</v>
       </c>
       <c r="O8">
-        <v>0.9992629722108834</v>
+        <v>0.9975549562659881</v>
       </c>
       <c r="P8">
-        <v>0.999583052568903</v>
+        <v>0.9055010416759973</v>
       </c>
       <c r="Q8">
-        <v>0.9996377758206707</v>
+        <v>0.9830407367526741</v>
       </c>
       <c r="R8">
-        <v>1.000118974696425</v>
+        <v>0.996485360476203</v>
       </c>
       <c r="S8">
-        <v>0.9997262281894214</v>
+        <v>0.9265095335304515</v>
       </c>
       <c r="T8">
-        <v>1.000118974696425</v>
+        <v>0.996485360476203</v>
       </c>
       <c r="U8">
-        <v>1.000092375879933</v>
+        <v>0.9894956496669922</v>
       </c>
       <c r="V8">
-        <v>1.00031206449424</v>
+        <v>1.027287319348917</v>
       </c>
       <c r="W8">
-        <v>1.000018442408997</v>
+        <v>0.9885637668286789</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005276694789274</v>
+        <v>1.004009545210625</v>
       </c>
       <c r="D9">
-        <v>1.004213841176238</v>
+        <v>1.001816498238199</v>
       </c>
       <c r="E9">
-        <v>0.9871959266931852</v>
+        <v>0.9930003412263579</v>
       </c>
       <c r="F9">
-        <v>0.9871959266931852</v>
+        <v>0.9930003412263579</v>
       </c>
       <c r="G9">
-        <v>0.9986899685888267</v>
+        <v>0.9988740771248139</v>
       </c>
       <c r="H9">
-        <v>0.9923534124558286</v>
+        <v>0.9956511089315332</v>
       </c>
       <c r="I9">
-        <v>1.002427532241045</v>
+        <v>1.001627908581143</v>
       </c>
       <c r="J9">
-        <v>0.9978180325451801</v>
+        <v>0.9986876414029028</v>
       </c>
       <c r="K9">
-        <v>1.004458110680987</v>
+        <v>1.002451399740066</v>
       </c>
       <c r="L9">
-        <v>1.005276694756781</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="M9">
-        <v>1.005276694756781</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="N9">
-        <v>1.005276694756781</v>
+        <v>1.004009545187829</v>
       </c>
       <c r="O9">
-        <v>1.004213841176238</v>
+        <v>1.001816498238199</v>
       </c>
       <c r="P9">
-        <v>0.9957048839347116</v>
+        <v>0.9974084197322787</v>
       </c>
       <c r="Q9">
-        <v>1.001015936860709</v>
+        <v>1.000252069820551</v>
       </c>
       <c r="R9">
-        <v>0.9988954875420681</v>
+        <v>0.9996087948841289</v>
       </c>
       <c r="S9">
-        <v>0.9964092668048677</v>
+        <v>0.99783482695582</v>
       </c>
       <c r="T9">
-        <v>0.9988954875420681</v>
+        <v>0.9996087948841289</v>
       </c>
       <c r="U9">
-        <v>0.9986261237928461</v>
+        <v>0.9993785065138223</v>
       </c>
       <c r="V9">
-        <v>0.9999562379856333</v>
+        <v>1.000304714248624</v>
       </c>
       <c r="W9">
-        <v>0.9990541898922589</v>
+        <v>0.9995148150541057</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.181712809693633</v>
+        <v>1.001190818976242</v>
       </c>
       <c r="D10">
-        <v>0.9964151800063394</v>
+        <v>0.9992629722108834</v>
       </c>
       <c r="E10">
-        <v>0.8104724873023529</v>
+        <v>0.9999031329269226</v>
       </c>
       <c r="F10">
-        <v>0.8104724873023529</v>
+        <v>0.9999031329269226</v>
       </c>
       <c r="G10">
-        <v>0.9422004087823983</v>
+        <v>0.9995806917951455</v>
       </c>
       <c r="H10">
-        <v>0.8790819091992212</v>
+        <v>0.9998799172280165</v>
       </c>
       <c r="I10">
-        <v>1.072077946500672</v>
+        <v>1.000419568695273</v>
       </c>
       <c r="J10">
-        <v>0.9684965268266118</v>
+        <v>1.000012579430458</v>
       </c>
       <c r="K10">
-        <v>1.056498335036442</v>
+        <v>0.9998978580338117</v>
       </c>
       <c r="L10">
-        <v>1.181712809693633</v>
+        <v>1.001190818951468</v>
       </c>
       <c r="M10">
-        <v>1.181712809693633</v>
+        <v>1.001190818951468</v>
       </c>
       <c r="N10">
-        <v>1.181712809693633</v>
+        <v>1.001190818951468</v>
       </c>
       <c r="O10">
-        <v>0.9964151800063394</v>
+        <v>0.9992629722108834</v>
       </c>
       <c r="P10">
-        <v>0.9034438336543462</v>
+        <v>0.999583052568903</v>
       </c>
       <c r="Q10">
-        <v>0.9824558534164756</v>
+        <v>0.9996377758206707</v>
       </c>
       <c r="R10">
-        <v>0.9962001590007752</v>
+        <v>1.000118974696425</v>
       </c>
       <c r="S10">
-        <v>0.925128064711768</v>
+        <v>0.9997262281894214</v>
       </c>
       <c r="T10">
-        <v>0.9962001590007751</v>
+        <v>1.000118974696425</v>
       </c>
       <c r="U10">
-        <v>0.9892742509572342</v>
+        <v>1.000092375879933</v>
       </c>
       <c r="V10">
-        <v>1.027761962704514</v>
+        <v>1.00031206449424</v>
       </c>
       <c r="W10">
-        <v>0.9883694504184588</v>
+        <v>1.000018442408997</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9597395097240496</v>
+        <v>1.005276694789274</v>
       </c>
       <c r="D11">
-        <v>1.01133218133885</v>
+        <v>1.004213841176238</v>
       </c>
       <c r="E11">
-        <v>1.024229790480107</v>
+        <v>0.9871959266931852</v>
       </c>
       <c r="F11">
-        <v>1.024229790480107</v>
+        <v>0.9871959266931852</v>
       </c>
       <c r="G11">
-        <v>1.013369921165327</v>
+        <v>0.9986899685888267</v>
       </c>
       <c r="H11">
-        <v>1.016531598059415</v>
+        <v>0.9923534124558286</v>
       </c>
       <c r="I11">
-        <v>0.9850993202904015</v>
+        <v>1.002427532241045</v>
       </c>
       <c r="J11">
-        <v>1.003878876099057</v>
+        <v>0.9978180325451801</v>
       </c>
       <c r="K11">
-        <v>0.994569199862227</v>
+        <v>1.004458110680987</v>
       </c>
       <c r="L11">
-        <v>0.9597395096958578</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="M11">
-        <v>0.9597395096958578</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="N11">
-        <v>0.9597395096958578</v>
+        <v>1.005276694756781</v>
       </c>
       <c r="O11">
-        <v>1.01133218133885</v>
+        <v>1.004213841176238</v>
       </c>
       <c r="P11">
-        <v>1.017780985909479</v>
+        <v>0.9957048839347116</v>
       </c>
       <c r="Q11">
-        <v>1.007605528718954</v>
+        <v>1.001015936860709</v>
       </c>
       <c r="R11">
-        <v>0.9984338271716053</v>
+        <v>0.9988954875420681</v>
       </c>
       <c r="S11">
-        <v>1.013146949306005</v>
+        <v>0.9964092668048677</v>
       </c>
       <c r="T11">
-        <v>0.9984338271716052</v>
+        <v>0.9988954875420681</v>
       </c>
       <c r="U11">
-        <v>0.9997950894034682</v>
+        <v>0.9986261237928461</v>
       </c>
       <c r="V11">
-        <v>0.9917839734619461</v>
+        <v>0.9999562379856333</v>
       </c>
       <c r="W11">
-        <v>1.001093799623905</v>
+        <v>0.9990541898922589</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.054567132842107</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="D12">
-        <v>0.9976588557368424</v>
+        <v>0.9964151800063394</v>
       </c>
       <c r="E12">
-        <v>0.9457673339157907</v>
+        <v>0.8104724873023529</v>
       </c>
       <c r="F12">
-        <v>0.9457673339157907</v>
+        <v>0.8104724873023529</v>
       </c>
       <c r="G12">
-        <v>0.9826218307473674</v>
+        <v>0.9422004087823983</v>
       </c>
       <c r="H12">
-        <v>0.9651468766631569</v>
+        <v>0.8790819091992212</v>
       </c>
       <c r="I12">
-        <v>1.02130981248421</v>
+        <v>1.072077946500672</v>
       </c>
       <c r="J12">
-        <v>0.9908253970421042</v>
+        <v>0.9684965268266118</v>
       </c>
       <c r="K12">
-        <v>1.016028760926317</v>
+        <v>1.056498335036442</v>
       </c>
       <c r="L12">
-        <v>1.054567132842107</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="M12">
-        <v>1.054567132842107</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="N12">
-        <v>1.054567132842107</v>
+        <v>1.181712809693633</v>
       </c>
       <c r="O12">
-        <v>0.9976588557368424</v>
+        <v>0.9964151800063394</v>
       </c>
       <c r="P12">
-        <v>0.9717130948263166</v>
+        <v>0.9034438336543462</v>
       </c>
       <c r="Q12">
-        <v>0.9942421263894733</v>
+        <v>0.9824558534164756</v>
       </c>
       <c r="R12">
-        <v>0.9993311074982466</v>
+        <v>0.9962001590007752</v>
       </c>
       <c r="S12">
-        <v>0.9780838622315792</v>
+        <v>0.925128064711768</v>
       </c>
       <c r="T12">
-        <v>0.9993311074982465</v>
+        <v>0.9962001590007751</v>
       </c>
       <c r="U12">
-        <v>0.9972046798842109</v>
+        <v>0.9892742509572342</v>
       </c>
       <c r="V12">
-        <v>1.00867717047579</v>
+        <v>1.027761962704514</v>
       </c>
       <c r="W12">
-        <v>0.9967407500447368</v>
+        <v>0.9883694504184588</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9699935769627261</v>
+        <v>0.9597395097240496</v>
       </c>
       <c r="D13">
-        <v>0.9915499824489222</v>
+        <v>1.01133218133885</v>
       </c>
       <c r="E13">
-        <v>1.036894563430609</v>
+        <v>1.024229790480107</v>
       </c>
       <c r="F13">
-        <v>1.036894563430609</v>
+        <v>1.024229790480107</v>
       </c>
       <c r="G13">
-        <v>1.009492132866322</v>
+        <v>1.013369921165327</v>
       </c>
       <c r="H13">
-        <v>1.025488077401818</v>
+        <v>1.016531598059415</v>
       </c>
       <c r="I13">
-        <v>0.9898025199378065</v>
+        <v>0.9850993202904015</v>
       </c>
       <c r="J13">
-        <v>1.009380526648756</v>
+        <v>1.003878876099057</v>
       </c>
       <c r="K13">
-        <v>0.9853086209559582</v>
+        <v>0.994569199862227</v>
       </c>
       <c r="L13">
-        <v>0.9699935769627261</v>
+        <v>0.9597395096958578</v>
       </c>
       <c r="M13">
-        <v>0.9699935769627261</v>
+        <v>0.9597395096958578</v>
       </c>
       <c r="N13">
-        <v>0.9699935769627261</v>
+        <v>0.9597395096958578</v>
       </c>
       <c r="O13">
-        <v>0.9915499824489222</v>
+        <v>1.01133218133885</v>
       </c>
       <c r="P13">
-        <v>1.014222272939765</v>
+        <v>1.017780985909479</v>
       </c>
       <c r="Q13">
-        <v>1.000465254548839</v>
+        <v>1.007605528718954</v>
       </c>
       <c r="R13">
-        <v>0.9994793742807523</v>
+        <v>0.9984338271716053</v>
       </c>
       <c r="S13">
-        <v>1.012608357509429</v>
+        <v>1.013146949306005</v>
       </c>
       <c r="T13">
-        <v>0.9994793742807523</v>
+        <v>0.9984338271716052</v>
       </c>
       <c r="U13">
-        <v>1.001954662372753</v>
+        <v>0.9997950894034682</v>
       </c>
       <c r="V13">
-        <v>0.9955624452907477</v>
+        <v>0.9917839734619461</v>
       </c>
       <c r="W13">
-        <v>1.002238750081615</v>
+        <v>1.001093799623905</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.315715400000001</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="D14">
-        <v>0.9917924599999995</v>
+        <v>0.9976588557368424</v>
       </c>
       <c r="E14">
-        <v>0.6734232199999988</v>
+        <v>0.9457673339157907</v>
       </c>
       <c r="F14">
-        <v>0.6734232199999988</v>
+        <v>0.9457673339157907</v>
       </c>
       <c r="G14">
-        <v>0.8993632600000008</v>
+        <v>0.9826218307473674</v>
       </c>
       <c r="H14">
-        <v>0.7915523699999995</v>
+        <v>0.9651468766631569</v>
       </c>
       <c r="I14">
-        <v>1.1253076</v>
+        <v>1.02130981248421</v>
       </c>
       <c r="J14">
-        <v>0.9459444800000008</v>
+        <v>0.9908253970421042</v>
       </c>
       <c r="K14">
-        <v>1.0969651</v>
+        <v>1.016028760926317</v>
       </c>
       <c r="L14">
-        <v>1.315715400000001</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="M14">
-        <v>1.315715400000001</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="N14">
-        <v>1.315715400000001</v>
+        <v>1.054567132842107</v>
       </c>
       <c r="O14">
-        <v>0.9917924599999995</v>
+        <v>0.9976588557368424</v>
       </c>
       <c r="P14">
-        <v>0.8326078399999992</v>
+        <v>0.9717130948263166</v>
       </c>
       <c r="Q14">
-        <v>0.9688684700000001</v>
+        <v>0.9942421263894733</v>
       </c>
       <c r="R14">
-        <v>0.9936436933333331</v>
+        <v>0.9993311074982466</v>
       </c>
       <c r="S14">
-        <v>0.8703867199999996</v>
+        <v>0.9780838622315792</v>
       </c>
       <c r="T14">
-        <v>0.9936436933333331</v>
+        <v>0.9993311074982465</v>
       </c>
       <c r="U14">
-        <v>0.98171889</v>
+        <v>0.9972046798842109</v>
       </c>
       <c r="V14">
-        <v>1.048518192</v>
+        <v>1.00867717047579</v>
       </c>
       <c r="W14">
-        <v>0.98000798625</v>
+        <v>0.9967407500447368</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.9473815</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="D15">
-        <v>0.9618347200000001</v>
+        <v>0.9915499824489222</v>
       </c>
       <c r="E15">
-        <v>0.25020352</v>
+        <v>1.036894563430609</v>
       </c>
       <c r="F15">
-        <v>0.25020352</v>
+        <v>1.036894563430609</v>
       </c>
       <c r="G15">
-        <v>0.69115297</v>
+        <v>1.009492132866322</v>
       </c>
       <c r="H15">
-        <v>0.46000639</v>
+        <v>1.025488077401818</v>
       </c>
       <c r="I15">
-        <v>1.3157358</v>
+        <v>0.9898025199378065</v>
       </c>
       <c r="J15">
-        <v>0.80914508</v>
+        <v>1.009380526648756</v>
       </c>
       <c r="K15">
-        <v>1.2643698</v>
+        <v>0.9853086209559582</v>
       </c>
       <c r="L15">
-        <v>1.9473815</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="M15">
-        <v>1.9473815</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="N15">
-        <v>1.9473815</v>
+        <v>0.9699935769627261</v>
       </c>
       <c r="O15">
-        <v>0.9618347200000001</v>
+        <v>0.9915499824489222</v>
       </c>
       <c r="P15">
-        <v>0.60601912</v>
+        <v>1.014222272939765</v>
       </c>
       <c r="Q15">
-        <v>0.8854899000000001</v>
+        <v>1.000465254548839</v>
       </c>
       <c r="R15">
-        <v>1.053139913333333</v>
+        <v>0.9994793742807523</v>
       </c>
       <c r="S15">
-        <v>0.6737277733333333</v>
+        <v>1.012608357509429</v>
       </c>
       <c r="T15">
-        <v>1.053139913333333</v>
+        <v>0.9994793742807523</v>
       </c>
       <c r="U15">
-        <v>0.992141205</v>
+        <v>1.001954662372753</v>
       </c>
       <c r="V15">
-        <v>1.183189264</v>
+        <v>0.9955624452907477</v>
       </c>
       <c r="W15">
-        <v>0.9624787225</v>
+        <v>1.002238750081615</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9618347200000001</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="D16">
-        <v>1.3679559</v>
+        <v>0.9917924599999995</v>
       </c>
       <c r="E16">
-        <v>0.5229061699999999</v>
+        <v>0.6734232199999988</v>
       </c>
       <c r="F16">
-        <v>0.5229061699999999</v>
+        <v>0.6734232199999988</v>
       </c>
       <c r="G16">
-        <v>1.0304204</v>
+        <v>0.8993632600000008</v>
       </c>
       <c r="H16">
-        <v>0.7044202899999999</v>
+        <v>0.7915523699999995</v>
       </c>
       <c r="I16">
-        <v>0.99179431</v>
+        <v>1.1253076</v>
       </c>
       <c r="J16">
-        <v>0.88250028</v>
+        <v>0.9459444800000008</v>
       </c>
       <c r="K16">
-        <v>1.2254093</v>
+        <v>1.0969651</v>
       </c>
       <c r="L16">
-        <v>0.9618347200000001</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="M16">
-        <v>0.9618347200000001</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="N16">
-        <v>0.9618347200000001</v>
+        <v>1.315715400000001</v>
       </c>
       <c r="O16">
-        <v>1.3679559</v>
+        <v>0.9917924599999995</v>
       </c>
       <c r="P16">
-        <v>0.9454310349999998</v>
+        <v>0.8326078399999992</v>
       </c>
       <c r="Q16">
-        <v>1.12522809</v>
+        <v>0.9688684700000001</v>
       </c>
       <c r="R16">
-        <v>0.9508989299999998</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="S16">
-        <v>0.9244541166666665</v>
+        <v>0.8703867199999996</v>
       </c>
       <c r="T16">
-        <v>0.9508989299999998</v>
+        <v>0.9936436933333331</v>
       </c>
       <c r="U16">
-        <v>0.9337992674999999</v>
+        <v>0.98171889</v>
       </c>
       <c r="V16">
-        <v>0.9394063579999999</v>
+        <v>1.048518192</v>
       </c>
       <c r="W16">
-        <v>0.9609051712499999</v>
+        <v>0.98000798625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.315746</v>
+        <v>1.9473815</v>
       </c>
       <c r="D17">
-        <v>0.99179523</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="E17">
-        <v>0.6733951500000001</v>
+        <v>0.25020352</v>
       </c>
       <c r="F17">
-        <v>0.6733951500000001</v>
+        <v>0.25020352</v>
       </c>
       <c r="G17">
-        <v>0.89935332</v>
+        <v>0.69115297</v>
       </c>
       <c r="H17">
-        <v>0.79153199</v>
+        <v>0.46000639</v>
       </c>
       <c r="I17">
-        <v>1.1253174</v>
+        <v>1.3157358</v>
       </c>
       <c r="J17">
-        <v>0.9459367000000001</v>
+        <v>0.80914508</v>
       </c>
       <c r="K17">
-        <v>1.0969762</v>
+        <v>1.2643698</v>
       </c>
       <c r="L17">
-        <v>1.315746</v>
+        <v>1.9473815</v>
       </c>
       <c r="M17">
-        <v>1.315746</v>
+        <v>1.9473815</v>
       </c>
       <c r="N17">
-        <v>1.315746</v>
+        <v>1.9473815</v>
       </c>
       <c r="O17">
-        <v>0.99179523</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="P17">
-        <v>0.83259519</v>
+        <v>0.60601912</v>
       </c>
       <c r="Q17">
-        <v>0.968865965</v>
+        <v>0.8854899000000001</v>
       </c>
       <c r="R17">
-        <v>0.9936454600000001</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="S17">
-        <v>0.8703756933333334</v>
+        <v>0.6737277733333333</v>
       </c>
       <c r="T17">
-        <v>0.9936454600000001</v>
+        <v>1.053139913333333</v>
       </c>
       <c r="U17">
-        <v>0.98171827</v>
+        <v>0.992141205</v>
       </c>
       <c r="V17">
-        <v>1.048523816</v>
+        <v>1.183189264</v>
       </c>
       <c r="W17">
-        <v>0.98000649875</v>
+        <v>0.9624787225</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.070725788219178</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="D18">
-        <v>1.053573480547945</v>
+        <v>1.3679559</v>
       </c>
       <c r="E18">
-        <v>0.8365002720547943</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="F18">
-        <v>0.8365002720547943</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="G18">
-        <v>0.9820213719178084</v>
+        <v>1.0304204</v>
       </c>
       <c r="H18">
-        <v>0.901367941780822</v>
+        <v>0.7044202899999999</v>
       </c>
       <c r="I18">
-        <v>1.031463550410958</v>
+        <v>0.99179431</v>
       </c>
       <c r="J18">
-        <v>0.9711027775342467</v>
+        <v>0.88250028</v>
       </c>
       <c r="K18">
-        <v>1.057636789589041</v>
+        <v>1.2254093</v>
       </c>
       <c r="L18">
-        <v>1.070725788219178</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="M18">
-        <v>1.070725788219178</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="N18">
-        <v>1.070725788219178</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="O18">
-        <v>1.053573480547945</v>
+        <v>1.3679559</v>
       </c>
       <c r="P18">
-        <v>0.9450368763013697</v>
+        <v>0.9454310349999998</v>
       </c>
       <c r="Q18">
-        <v>1.012338129041096</v>
+        <v>1.12522809</v>
       </c>
       <c r="R18">
-        <v>0.9869331802739724</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="S18">
-        <v>0.9537255100456621</v>
+        <v>0.9244541166666665</v>
       </c>
       <c r="T18">
-        <v>0.9869331802739724</v>
+        <v>0.9508989299999998</v>
       </c>
       <c r="U18">
-        <v>0.9829755795890409</v>
+        <v>0.9337992674999999</v>
       </c>
       <c r="V18">
-        <v>1.000525621315068</v>
+        <v>0.9394063579999999</v>
       </c>
       <c r="W18">
-        <v>0.9880489965068492</v>
+        <v>0.9609051712499999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.138784727894737</v>
+        <v>1.315746</v>
       </c>
       <c r="D19">
-        <v>1.179875067894737</v>
+        <v>0.99179523</v>
       </c>
       <c r="E19">
-        <v>0.5981558321052632</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="F19">
-        <v>0.5981558321052632</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="G19">
-        <v>0.9648886836842107</v>
+        <v>0.89935332</v>
       </c>
       <c r="H19">
-        <v>0.7479798968421051</v>
+        <v>0.79153199</v>
       </c>
       <c r="I19">
-        <v>1.05855405368421</v>
+        <v>1.1253174</v>
       </c>
       <c r="J19">
-        <v>0.9142199231578947</v>
+        <v>0.9459367000000001</v>
       </c>
       <c r="K19">
-        <v>1.161190721052632</v>
+        <v>1.0969762</v>
       </c>
       <c r="L19">
-        <v>1.138784727894737</v>
+        <v>1.315746</v>
       </c>
       <c r="M19">
-        <v>1.138784727894737</v>
+        <v>1.315746</v>
       </c>
       <c r="N19">
-        <v>1.138784727894737</v>
+        <v>1.315746</v>
       </c>
       <c r="O19">
-        <v>1.179875067894737</v>
+        <v>0.99179523</v>
       </c>
       <c r="P19">
-        <v>0.88901545</v>
+        <v>0.83259519</v>
       </c>
       <c r="Q19">
-        <v>1.047047495526316</v>
+        <v>0.968865965</v>
       </c>
       <c r="R19">
-        <v>0.9722718759649123</v>
+        <v>0.9936454600000001</v>
       </c>
       <c r="S19">
-        <v>0.8974169410526316</v>
+        <v>0.8703756933333334</v>
       </c>
       <c r="T19">
-        <v>0.9722718759649123</v>
+        <v>0.9936454600000001</v>
       </c>
       <c r="U19">
-        <v>0.9577588877631579</v>
+        <v>0.98171827</v>
       </c>
       <c r="V19">
-        <v>0.9939640557894738</v>
+        <v>1.048523816</v>
       </c>
       <c r="W19">
-        <v>0.9704561132894737</v>
+        <v>0.98000649875</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.203647388421053</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="D20">
-        <v>0.9584450536842106</v>
+        <v>1.053573480547945</v>
       </c>
       <c r="E20">
-        <v>0.902852880526316</v>
+        <v>0.8365002720547943</v>
       </c>
       <c r="F20">
-        <v>0.902852880526316</v>
+        <v>0.8365002720547943</v>
       </c>
       <c r="G20">
-        <v>0.9299733673684212</v>
+        <v>0.9820213719178084</v>
       </c>
       <c r="H20">
-        <v>0.9182136068421052</v>
+        <v>0.901367941780822</v>
       </c>
       <c r="I20">
-        <v>1.063570825263158</v>
+        <v>1.031463550410958</v>
       </c>
       <c r="J20">
-        <v>0.9675590763157895</v>
+        <v>0.9711027775342467</v>
       </c>
       <c r="K20">
-        <v>1.034787876842105</v>
+        <v>1.057636789589041</v>
       </c>
       <c r="L20">
-        <v>1.203647388421053</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="M20">
-        <v>1.203647388421053</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="N20">
-        <v>1.203647388421053</v>
+        <v>1.070725788219178</v>
       </c>
       <c r="O20">
-        <v>0.9584450536842106</v>
+        <v>1.053573480547945</v>
       </c>
       <c r="P20">
-        <v>0.9306489671052633</v>
+        <v>0.9450368763013697</v>
       </c>
       <c r="Q20">
-        <v>0.9630020650000001</v>
+        <v>1.012338129041096</v>
       </c>
       <c r="R20">
-        <v>1.021648440877193</v>
+        <v>0.9869331802739724</v>
       </c>
       <c r="S20">
-        <v>0.9429523368421053</v>
+        <v>0.9537255100456621</v>
       </c>
       <c r="T20">
-        <v>1.021648440877193</v>
+        <v>0.9869331802739724</v>
       </c>
       <c r="U20">
-        <v>1.008126099736842</v>
+        <v>0.9829755795890409</v>
       </c>
       <c r="V20">
-        <v>1.047230357473684</v>
+        <v>1.000525621315068</v>
       </c>
       <c r="W20">
-        <v>0.9973812594078948</v>
+        <v>0.9880489965068492</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.040069747390838</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="D21">
-        <v>1.209199652247677</v>
+        <v>1.179875067894737</v>
       </c>
       <c r="E21">
-        <v>0.6516761450233303</v>
+        <v>0.5981558321052632</v>
       </c>
       <c r="F21">
-        <v>0.6516761450233303</v>
+        <v>0.5981558321052632</v>
       </c>
       <c r="G21">
-        <v>0.9987850161461427</v>
+        <v>0.9648886836842107</v>
       </c>
       <c r="H21">
-        <v>0.7863873948201391</v>
+        <v>0.7479798968421051</v>
       </c>
       <c r="I21">
-        <v>1.022359811491003</v>
+        <v>1.05855405368421</v>
       </c>
       <c r="J21">
-        <v>0.9237961077339254</v>
+        <v>0.9142199231578947</v>
       </c>
       <c r="K21">
-        <v>1.148583995142008</v>
+        <v>1.161190721052632</v>
       </c>
       <c r="L21">
-        <v>1.040069747390838</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="M21">
-        <v>1.040069747390838</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="N21">
-        <v>1.040069747390838</v>
+        <v>1.138784727894737</v>
       </c>
       <c r="O21">
-        <v>1.209199652247677</v>
+        <v>1.179875067894737</v>
       </c>
       <c r="P21">
-        <v>0.9304378986355035</v>
+        <v>0.88901545</v>
       </c>
       <c r="Q21">
-        <v>1.066497879990801</v>
+        <v>1.047047495526316</v>
       </c>
       <c r="R21">
-        <v>0.9669818482206151</v>
+        <v>0.9722718759649123</v>
       </c>
       <c r="S21">
-        <v>0.9282239683349776</v>
+        <v>0.8974169410526316</v>
       </c>
       <c r="T21">
-        <v>0.9669818482206152</v>
+        <v>0.9722718759649123</v>
       </c>
       <c r="U21">
-        <v>0.9561854130989427</v>
+        <v>0.9577588877631579</v>
       </c>
       <c r="V21">
-        <v>0.9729622799573218</v>
+        <v>0.9939640557894738</v>
       </c>
       <c r="W21">
-        <v>0.972607233749383</v>
+        <v>0.9704561132894737</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.106336191552012</v>
+        <v>1.203647388421053</v>
       </c>
       <c r="D22">
-        <v>0.9557661289157814</v>
+        <v>0.9584450536842106</v>
       </c>
       <c r="E22">
-        <v>0.9475836584497177</v>
+        <v>0.902852880526316</v>
       </c>
       <c r="F22">
-        <v>0.9475836584497177</v>
+        <v>0.902852880526316</v>
       </c>
       <c r="G22">
-        <v>0.9646994135719857</v>
+        <v>0.9299733673684212</v>
       </c>
       <c r="H22">
-        <v>0.9661180440581996</v>
+        <v>0.9182136068421052</v>
       </c>
       <c r="I22">
-        <v>1.04113737355374</v>
+        <v>1.063570825263158</v>
       </c>
       <c r="J22">
-        <v>0.9959359028426287</v>
+        <v>0.9675590763157895</v>
       </c>
       <c r="K22">
-        <v>1.005518914289981</v>
+        <v>1.034787876842105</v>
       </c>
       <c r="L22">
-        <v>1.106336191552012</v>
+        <v>1.203647388421053</v>
       </c>
       <c r="M22">
-        <v>1.106336191552012</v>
+        <v>1.203647388421053</v>
       </c>
       <c r="N22">
-        <v>1.106336191552012</v>
+        <v>1.203647388421053</v>
       </c>
       <c r="O22">
-        <v>0.9557661289157814</v>
+        <v>0.9584450536842106</v>
       </c>
       <c r="P22">
-        <v>0.9516748936827495</v>
+        <v>0.9306489671052633</v>
       </c>
       <c r="Q22">
-        <v>0.9758510158792051</v>
+        <v>0.9630020650000001</v>
       </c>
       <c r="R22">
-        <v>1.00322865963917</v>
+        <v>1.021648440877193</v>
       </c>
       <c r="S22">
-        <v>0.9664285634027093</v>
+        <v>0.9429523368421053</v>
       </c>
       <c r="T22">
-        <v>1.00322865963917</v>
+        <v>1.021648440877193</v>
       </c>
       <c r="U22">
-        <v>1.001405470440035</v>
+        <v>1.008126099736842</v>
       </c>
       <c r="V22">
-        <v>1.02239161466243</v>
+        <v>1.047230357473684</v>
       </c>
       <c r="W22">
-        <v>0.9978869534042556</v>
+        <v>0.9973812594078948</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9327505013771252</v>
+        <v>1.040069747390838</v>
       </c>
       <c r="D23">
-        <v>0.9762330158735684</v>
+        <v>1.209199652247677</v>
       </c>
       <c r="E23">
-        <v>1.077875566654152</v>
+        <v>0.6516761450233303</v>
       </c>
       <c r="F23">
-        <v>1.077875566654152</v>
+        <v>0.6516761450233303</v>
       </c>
       <c r="G23">
-        <v>1.021710955533463</v>
+        <v>0.9987850161461427</v>
       </c>
       <c r="H23">
-        <v>1.057481408489811</v>
+        <v>0.7863873948201391</v>
       </c>
       <c r="I23">
-        <v>0.9800838050218617</v>
+        <v>1.022359811491003</v>
       </c>
       <c r="J23">
-        <v>1.024482490115383</v>
+        <v>0.9237961077339254</v>
       </c>
       <c r="K23">
-        <v>0.9647171518032476</v>
+        <v>1.148583995142008</v>
       </c>
       <c r="L23">
-        <v>0.9327505013771252</v>
+        <v>1.040069747390838</v>
       </c>
       <c r="M23">
-        <v>0.9327505013771252</v>
+        <v>1.040069747390838</v>
       </c>
       <c r="N23">
-        <v>0.9327505013771252</v>
+        <v>1.040069747390838</v>
       </c>
       <c r="O23">
-        <v>0.9762330158735684</v>
+        <v>1.209199652247677</v>
       </c>
       <c r="P23">
-        <v>1.02705429126386</v>
+        <v>0.9304378986355035</v>
       </c>
       <c r="Q23">
-        <v>1.000357752994476</v>
+        <v>1.066497879990801</v>
       </c>
       <c r="R23">
-        <v>0.9956196946349483</v>
+        <v>0.9669818482206151</v>
       </c>
       <c r="S23">
-        <v>1.026197024214367</v>
+        <v>0.9282239683349776</v>
       </c>
       <c r="T23">
-        <v>0.9956196946349484</v>
+        <v>0.9669818482206152</v>
       </c>
       <c r="U23">
-        <v>1.002835393505057</v>
+        <v>0.9561854130989427</v>
       </c>
       <c r="V23">
-        <v>0.9888184150794708</v>
+        <v>0.9729622799573218</v>
       </c>
       <c r="W23">
-        <v>1.004416861858576</v>
+        <v>0.972607233749383</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9900921358852428</v>
+        <v>1.106336191552012</v>
       </c>
       <c r="D24">
-        <v>0.9988463161350868</v>
+        <v>0.9557661289157814</v>
       </c>
       <c r="E24">
-        <v>1.036007240714741</v>
+        <v>0.9475836584497177</v>
       </c>
       <c r="F24">
-        <v>1.036007240714741</v>
+        <v>0.9475836584497177</v>
       </c>
       <c r="G24">
-        <v>1.001451786031242</v>
+        <v>0.9646994135719857</v>
       </c>
       <c r="H24">
-        <v>1.015546729611481</v>
+        <v>0.9661180440581996</v>
       </c>
       <c r="I24">
-        <v>0.9900373190562111</v>
+        <v>1.04113737355374</v>
       </c>
       <c r="J24">
-        <v>0.9984324973959537</v>
+        <v>0.9959359028426287</v>
       </c>
       <c r="K24">
-        <v>0.9946421571604955</v>
+        <v>1.005518914289981</v>
       </c>
       <c r="L24">
-        <v>0.9900921358852428</v>
+        <v>1.106336191552012</v>
       </c>
       <c r="M24">
-        <v>0.9900921358852428</v>
+        <v>1.106336191552012</v>
       </c>
       <c r="N24">
-        <v>0.9900921358852428</v>
+        <v>1.106336191552012</v>
       </c>
       <c r="O24">
-        <v>0.9988463161350868</v>
+        <v>0.9557661289157814</v>
       </c>
       <c r="P24">
-        <v>1.017426778424914</v>
+        <v>0.9516748936827495</v>
       </c>
       <c r="Q24">
-        <v>0.9986394067655202</v>
+        <v>0.9758510158792051</v>
       </c>
       <c r="R24">
-        <v>1.00831523091169</v>
+        <v>1.00322865963917</v>
       </c>
       <c r="S24">
-        <v>1.011095351415261</v>
+        <v>0.9664285634027093</v>
       </c>
       <c r="T24">
-        <v>1.008315230911691</v>
+        <v>1.00322865963917</v>
       </c>
       <c r="U24">
-        <v>1.005844547532756</v>
+        <v>1.001405470440035</v>
       </c>
       <c r="V24">
-        <v>1.002694065203254</v>
+        <v>1.02239161466243</v>
       </c>
       <c r="W24">
-        <v>1.003132022748807</v>
+        <v>0.9978869534042556</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8891897232074135</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="D25">
-        <v>0.8700938881453506</v>
+        <v>0.9762330158735684</v>
       </c>
       <c r="E25">
-        <v>1.335059362818471</v>
+        <v>1.077875566654152</v>
       </c>
       <c r="F25">
-        <v>1.335059362818471</v>
+        <v>1.077875566654152</v>
       </c>
       <c r="G25">
-        <v>1.025495191499471</v>
+        <v>1.021710955533463</v>
       </c>
       <c r="H25">
-        <v>1.199682373346531</v>
+        <v>1.057481408489811</v>
       </c>
       <c r="I25">
-        <v>0.9457781502085674</v>
+        <v>0.9800838050218617</v>
       </c>
       <c r="J25">
-        <v>1.0585806189888</v>
+        <v>1.024482490115383</v>
       </c>
       <c r="K25">
-        <v>0.8787733902091969</v>
+        <v>0.9647171518032476</v>
       </c>
       <c r="L25">
-        <v>0.8891897232074135</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="M25">
-        <v>0.8891897232074135</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="N25">
-        <v>0.8891897232074135</v>
+        <v>0.9327505013771252</v>
       </c>
       <c r="O25">
-        <v>0.8700938881453506</v>
+        <v>0.9762330158735684</v>
       </c>
       <c r="P25">
-        <v>1.102576625481911</v>
+        <v>1.02705429126386</v>
       </c>
       <c r="Q25">
-        <v>0.9643372535670751</v>
+        <v>1.000357752994476</v>
       </c>
       <c r="R25">
-        <v>1.031447658057078</v>
+        <v>0.9956196946349483</v>
       </c>
       <c r="S25">
-        <v>1.087911289984207</v>
+        <v>1.026197024214367</v>
       </c>
       <c r="T25">
-        <v>1.031447658057078</v>
+        <v>0.9956196946349484</v>
       </c>
       <c r="U25">
-        <v>1.038230898290009</v>
+        <v>1.002835393505057</v>
       </c>
       <c r="V25">
-        <v>1.00842266327349</v>
+        <v>0.9888184150794708</v>
       </c>
       <c r="W25">
-        <v>1.025331587302975</v>
+        <v>1.004416861858576</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9161622664843135</v>
+        <v>0.9900921358852428</v>
       </c>
       <c r="D26">
-        <v>0.9994315001503501</v>
+        <v>0.9988463161350868</v>
       </c>
       <c r="E26">
-        <v>1.042646020189346</v>
+        <v>1.036007240714741</v>
       </c>
       <c r="F26">
-        <v>1.042646020189346</v>
+        <v>1.036007240714741</v>
       </c>
       <c r="G26">
-        <v>1.029893399475942</v>
+        <v>1.001451786031242</v>
       </c>
       <c r="H26">
-        <v>1.04208452914443</v>
+        <v>1.015546729611481</v>
       </c>
       <c r="I26">
-        <v>0.9787760541977187</v>
+        <v>0.9900373190562111</v>
       </c>
       <c r="J26">
-        <v>1.022827998984553</v>
+        <v>0.9984324973959537</v>
       </c>
       <c r="K26">
-        <v>0.9753007792965602</v>
+        <v>0.9946421571604955</v>
       </c>
       <c r="L26">
-        <v>0.9161622664843135</v>
+        <v>0.9900921358852428</v>
       </c>
       <c r="M26">
-        <v>0.9161622664843135</v>
+        <v>0.9900921358852428</v>
       </c>
       <c r="N26">
-        <v>0.9161622664843135</v>
+        <v>0.9900921358852428</v>
       </c>
       <c r="O26">
-        <v>0.9994315001503501</v>
+        <v>0.9988463161350868</v>
       </c>
       <c r="P26">
-        <v>1.021038760169848</v>
+        <v>1.017426778424914</v>
       </c>
       <c r="Q26">
-        <v>1.011129749567451</v>
+        <v>0.9986394067655202</v>
       </c>
       <c r="R26">
-        <v>0.9860799289413366</v>
+        <v>1.00831523091169</v>
       </c>
       <c r="S26">
-        <v>1.021635173108083</v>
+        <v>1.011095351415261</v>
       </c>
       <c r="T26">
-        <v>0.9860799289413364</v>
+        <v>1.008315230911691</v>
       </c>
       <c r="U26">
-        <v>0.9952669464521405</v>
+        <v>1.005844547532756</v>
       </c>
       <c r="V26">
-        <v>0.979446010458575</v>
+        <v>1.002694065203254</v>
       </c>
       <c r="W26">
-        <v>1.000890318490402</v>
+        <v>1.003132022748807</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.013743186068573</v>
+        <v>0.8891897232074135</v>
       </c>
       <c r="D27">
-        <v>1.012021425212565</v>
+        <v>0.8700938881453506</v>
       </c>
       <c r="E27">
-        <v>0.9870583031156928</v>
+        <v>1.335059362818471</v>
       </c>
       <c r="F27">
-        <v>0.9870583031156928</v>
+        <v>1.335059362818471</v>
       </c>
       <c r="G27">
-        <v>0.994171849445102</v>
+        <v>1.025495191499471</v>
       </c>
       <c r="H27">
-        <v>0.985786114993309</v>
+        <v>1.199682373346531</v>
       </c>
       <c r="I27">
-        <v>1.001590068238967</v>
+        <v>0.9457781502085674</v>
       </c>
       <c r="J27">
-        <v>0.9905202413174585</v>
+        <v>1.0585806189888</v>
       </c>
       <c r="K27">
-        <v>1.011617922621291</v>
+        <v>0.8787733902091969</v>
       </c>
       <c r="L27">
-        <v>1.013743186068573</v>
+        <v>0.8891897232074135</v>
       </c>
       <c r="M27">
-        <v>1.013743186068573</v>
+        <v>0.8891897232074135</v>
       </c>
       <c r="N27">
-        <v>1.013743186068573</v>
+        <v>0.8891897232074135</v>
       </c>
       <c r="O27">
-        <v>1.012021425212565</v>
+        <v>0.8700938881453506</v>
       </c>
       <c r="P27">
-        <v>0.9995398641641291</v>
+        <v>1.102576625481911</v>
       </c>
       <c r="Q27">
-        <v>1.001270833265012</v>
+        <v>0.9643372535670751</v>
       </c>
       <c r="R27">
-        <v>1.004274304798944</v>
+        <v>1.031447658057078</v>
       </c>
       <c r="S27">
-        <v>0.9965333232152389</v>
+        <v>1.087911289984207</v>
       </c>
       <c r="T27">
-        <v>1.004274304798944</v>
+        <v>1.031447658057078</v>
       </c>
       <c r="U27">
-        <v>1.000835788928572</v>
+        <v>1.038230898290009</v>
       </c>
       <c r="V27">
-        <v>1.003417268356573</v>
+        <v>1.00842266327349</v>
       </c>
       <c r="W27">
-        <v>0.9995636388766198</v>
+        <v>1.025331587302975</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001643956254769</v>
+        <v>0.9161622664843135</v>
       </c>
       <c r="D28">
-        <v>1.017468996905622</v>
+        <v>0.9994315001503501</v>
       </c>
       <c r="E28">
-        <v>0.9738037626342676</v>
+        <v>1.042646020189346</v>
       </c>
       <c r="F28">
-        <v>0.9738037626342676</v>
+        <v>1.042646020189346</v>
       </c>
       <c r="G28">
-        <v>1.00036728295652</v>
+        <v>1.029893399475942</v>
       </c>
       <c r="H28">
-        <v>0.9836749017777753</v>
+        <v>1.04208452914443</v>
       </c>
       <c r="I28">
-        <v>1.00091972022791</v>
+        <v>0.9787760541977187</v>
       </c>
       <c r="J28">
-        <v>0.9937750843843464</v>
+        <v>1.022827998984553</v>
       </c>
       <c r="K28">
-        <v>1.011791817134951</v>
+        <v>0.9753007792965602</v>
       </c>
       <c r="L28">
-        <v>1.001643956254769</v>
+        <v>0.9161622664843135</v>
       </c>
       <c r="M28">
-        <v>1.001643956254769</v>
+        <v>0.9161622664843135</v>
       </c>
       <c r="N28">
-        <v>1.001643956254769</v>
+        <v>0.9161622664843135</v>
       </c>
       <c r="O28">
-        <v>1.017468996905622</v>
+        <v>0.9994315001503501</v>
       </c>
       <c r="P28">
-        <v>0.995636379769945</v>
+        <v>1.021038760169848</v>
       </c>
       <c r="Q28">
-        <v>1.005622040644984</v>
+        <v>1.011129749567451</v>
       </c>
       <c r="R28">
-        <v>0.9976389052648864</v>
+        <v>0.9860799289413366</v>
       </c>
       <c r="S28">
-        <v>0.9950159479747455</v>
+        <v>1.021635173108083</v>
       </c>
       <c r="T28">
-        <v>0.9976389052648864</v>
+        <v>0.9860799289413364</v>
       </c>
       <c r="U28">
-        <v>0.9966729500447514</v>
+        <v>0.9952669464521405</v>
       </c>
       <c r="V28">
-        <v>0.9976671512867549</v>
+        <v>0.979446010458575</v>
       </c>
       <c r="W28">
-        <v>0.9979306902845201</v>
+        <v>1.000890318490402</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="D29">
+        <v>1.012021425212565</v>
+      </c>
+      <c r="E29">
+        <v>0.9870583031156928</v>
+      </c>
+      <c r="F29">
+        <v>0.9870583031156928</v>
+      </c>
+      <c r="G29">
+        <v>0.994171849445102</v>
+      </c>
+      <c r="H29">
+        <v>0.985786114993309</v>
+      </c>
+      <c r="I29">
+        <v>1.001590068238967</v>
+      </c>
+      <c r="J29">
+        <v>0.9905202413174585</v>
+      </c>
+      <c r="K29">
+        <v>1.011617922621291</v>
+      </c>
+      <c r="L29">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="M29">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="N29">
+        <v>1.013743186068573</v>
+      </c>
+      <c r="O29">
+        <v>1.012021425212565</v>
+      </c>
+      <c r="P29">
+        <v>0.9995398641641291</v>
+      </c>
+      <c r="Q29">
+        <v>1.001270833265012</v>
+      </c>
+      <c r="R29">
+        <v>1.004274304798944</v>
+      </c>
+      <c r="S29">
+        <v>0.9965333232152389</v>
+      </c>
+      <c r="T29">
+        <v>1.004274304798944</v>
+      </c>
+      <c r="U29">
+        <v>1.000835788928572</v>
+      </c>
+      <c r="V29">
+        <v>1.003417268356573</v>
+      </c>
+      <c r="W29">
+        <v>0.9995636388766198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="D30">
+        <v>1.017468996905622</v>
+      </c>
+      <c r="E30">
+        <v>0.9738037626342676</v>
+      </c>
+      <c r="F30">
+        <v>0.9738037626342676</v>
+      </c>
+      <c r="G30">
+        <v>1.00036728295652</v>
+      </c>
+      <c r="H30">
+        <v>0.9836749017777753</v>
+      </c>
+      <c r="I30">
+        <v>1.00091972022791</v>
+      </c>
+      <c r="J30">
+        <v>0.9937750843843464</v>
+      </c>
+      <c r="K30">
+        <v>1.011791817134951</v>
+      </c>
+      <c r="L30">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="M30">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="N30">
+        <v>1.001643956254769</v>
+      </c>
+      <c r="O30">
+        <v>1.017468996905622</v>
+      </c>
+      <c r="P30">
+        <v>0.995636379769945</v>
+      </c>
+      <c r="Q30">
+        <v>1.005622040644984</v>
+      </c>
+      <c r="R30">
+        <v>0.9976389052648864</v>
+      </c>
+      <c r="S30">
+        <v>0.9950159479747455</v>
+      </c>
+      <c r="T30">
+        <v>0.9976389052648864</v>
+      </c>
+      <c r="U30">
+        <v>0.9966729500447514</v>
+      </c>
+      <c r="V30">
+        <v>0.9976671512867549</v>
+      </c>
+      <c r="W30">
+        <v>0.9979306902845201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9795137968160494</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9821867538012831</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.045067032618255</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.045067032618255</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.005532795426475</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.028803349119875</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9921901617571049</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.010015227722826</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9821095615133777</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9795137968160494</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9795137968160494</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9795137968160494</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9821867538012831</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.013626893209769</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9961009907620544</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.002255861078529</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.012423004714121</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.002255861078529</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.004195702739603</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9992593215548926</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.003177334846906</v>
       </c>
     </row>
